--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -2794,7 +2794,7 @@
         <v>647</v>
       </c>
       <c r="AF5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -3391,7 +3391,7 @@
         <v>647</v>
       </c>
       <c r="AF14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -5044,7 +5044,7 @@
         <v>647</v>
       </c>
       <c r="AF35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -5216,7 +5216,7 @@
         <v>647</v>
       </c>
       <c r="AF37">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -5657,7 +5657,7 @@
         <v>647</v>
       </c>
       <c r="AF43">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -5829,7 +5829,7 @@
         <v>647</v>
       </c>
       <c r="AF45">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5906,7 +5906,7 @@
         <v>647</v>
       </c>
       <c r="AF46">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5983,7 +5983,7 @@
         <v>647</v>
       </c>
       <c r="AF47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -7121,7 +7121,7 @@
         <v>647</v>
       </c>
       <c r="AF61">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:32">
@@ -7388,7 +7388,7 @@
         <v>647</v>
       </c>
       <c r="AF64">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:32">
@@ -8461,7 +8461,7 @@
         <v>647</v>
       </c>
       <c r="AF77">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:32">
@@ -9113,7 +9113,7 @@
         <v>647</v>
       </c>
       <c r="AF85">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:32">
@@ -9303,7 +9303,7 @@
         <v>647</v>
       </c>
       <c r="AF87">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:32">
@@ -9629,7 +9629,7 @@
         <v>647</v>
       </c>
       <c r="AF91">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:32">
@@ -11567,7 +11567,7 @@
         <v>647</v>
       </c>
       <c r="AF115">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:32">
@@ -11739,7 +11739,7 @@
         <v>647</v>
       </c>
       <c r="AF117">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:32">
@@ -12735,7 +12735,7 @@
         <v>647</v>
       </c>
       <c r="AF129">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:32">
@@ -13138,7 +13138,7 @@
         <v>647</v>
       </c>
       <c r="AF134">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:32">
@@ -13215,7 +13215,7 @@
         <v>647</v>
       </c>
       <c r="AF135">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:32">

--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FFBad\Season planner\BWF_TOURNAMENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB963D-623C-48BC-8A65-74C976C51401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1951,8 +1957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2024,41 +2029,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2069,10 +2071,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2110,71 +2112,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2202,7 +2204,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2225,11 +2227,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2238,13 +2240,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2254,7 +2256,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2263,7 +2265,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2272,7 +2274,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2280,10 +2282,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2348,51 +2350,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="22" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2420,16 +2397,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="6">
         <v>1</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="6">
         <v>2</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="6">
         <v>3</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="6">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2490,29 +2467,29 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="3">
@@ -2557,60 +2534,60 @@
       <c r="V2" s="3">
         <v>60</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" t="s">
         <v>41</v>
       </c>
       <c r="AF2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="3">
@@ -2655,46 +2632,39 @@
       <c r="V3" s="3">
         <v>10</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" t="s">
         <v>41</v>
       </c>
       <c r="AF3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="3">
@@ -2739,58 +2709,57 @@
       <c r="V4" s="3">
         <v>50</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" t="s">
         <v>41</v>
       </c>
       <c r="AF4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="3">
@@ -2835,58 +2804,57 @@
       <c r="V5" s="3">
         <v>40</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3">
@@ -2931,46 +2899,39 @@
       <c r="V6" s="3">
         <v>5</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" t="s">
         <v>41</v>
       </c>
       <c r="AF6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="3">
@@ -3015,46 +2976,39 @@
       <c r="V7" s="3">
         <v>20</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" t="s">
         <v>65</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" t="s">
         <v>41</v>
       </c>
       <c r="AF7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="3">
@@ -3099,60 +3053,60 @@
       <c r="V8" s="3">
         <v>30</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" t="s">
         <v>83</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" t="s">
         <v>41</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="3">
@@ -3197,104 +3151,77 @@
       <c r="V9" s="3">
         <v>20</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" t="s">
         <v>41</v>
       </c>
       <c r="AF9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="4" t="s">
+      <c r="W10" t="s">
         <v>98</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" t="s">
         <v>41</v>
       </c>
       <c r="AF10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="3">
@@ -3339,162 +3266,115 @@
       <c r="V11" s="3">
         <v>20</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" t="s">
         <v>103</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" t="s">
         <v>41</v>
       </c>
       <c r="AF11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="4" t="s">
+      <c r="W12" t="s">
         <v>109</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" t="s">
         <v>41</v>
       </c>
       <c r="AF12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="4" t="s">
+      <c r="W13" t="s">
         <v>114</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" t="s">
         <v>41</v>
       </c>
       <c r="AF13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="3">
@@ -3539,162 +3419,115 @@
       <c r="V14" s="3">
         <v>20</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" t="s">
         <v>98</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" t="s">
         <v>41</v>
       </c>
       <c r="AF14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" t="s">
         <v>97</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="4" t="s">
+      <c r="W15" t="s">
         <v>118</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" t="s">
         <v>97</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="4" t="s">
+      <c r="W16" t="s">
         <v>91</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" t="s">
         <v>41</v>
       </c>
       <c r="AF16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="3">
@@ -3739,46 +3572,39 @@
       <c r="V17" s="3">
         <v>20</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" t="s">
         <v>41</v>
       </c>
       <c r="AF17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="3">
@@ -3823,58 +3649,57 @@
       <c r="V18" s="3">
         <v>20</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" t="s">
         <v>114</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" t="s">
         <v>114</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" t="s">
         <v>132</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="Z18" t="s">
         <v>127</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" t="s">
         <v>133</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AB18" t="s">
         <v>134</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AC18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" t="s">
         <v>41</v>
       </c>
       <c r="AF18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="3">
@@ -3919,46 +3744,39 @@
       <c r="V19" s="3">
         <v>30</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="W19" t="s">
         <v>127</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4" t="s">
+      <c r="AE19" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="3">
@@ -4003,46 +3821,39 @@
       <c r="V20" s="3">
         <v>20</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" t="s">
         <v>134</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" t="s">
         <v>41</v>
       </c>
       <c r="AF20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="3">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="3">
@@ -4087,58 +3898,57 @@
       <c r="V21" s="3">
         <v>30</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" t="s">
         <v>114</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" t="s">
         <v>114</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" t="s">
         <v>132</v>
       </c>
-      <c r="Z21" s="4" t="s">
+      <c r="Z21" t="s">
         <v>134</v>
       </c>
-      <c r="AA21" s="4" t="s">
+      <c r="AA21" t="s">
         <v>146</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AB21" t="s">
         <v>147</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" t="s">
         <v>41</v>
       </c>
       <c r="AF21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="3">
@@ -4183,58 +3993,57 @@
       <c r="V22" s="3">
         <v>10</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W22" t="s">
         <v>127</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" t="s">
         <v>127</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" t="s">
         <v>153</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z22" t="s">
         <v>134</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" t="s">
         <v>146</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AB22" t="s">
         <v>147</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AC22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" t="s">
         <v>41</v>
       </c>
       <c r="AF22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="3">
@@ -4279,58 +4088,57 @@
       <c r="V23" s="3">
         <v>60</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W23" t="s">
         <v>134</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="X23" t="s">
         <v>134</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" t="s">
         <v>158</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="Z23" t="s">
         <v>147</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AA23" t="s">
         <v>159</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AB23" t="s">
         <v>160</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AC23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" t="s">
         <v>41</v>
       </c>
       <c r="AF23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24" s="3">
         <v>11</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" t="s">
         <v>71</v>
       </c>
       <c r="I24" s="3">
@@ -4375,46 +4183,39 @@
       <c r="V24" s="3">
         <v>5</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="W24" t="s">
         <v>147</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4" t="s">
+      <c r="AE24" t="s">
         <v>41</v>
       </c>
       <c r="AF24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="3">
         <v>10</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="3">
@@ -4459,46 +4260,39 @@
       <c r="V25" s="3">
         <v>30</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" t="s">
         <v>147</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" t="s">
         <v>41</v>
       </c>
       <c r="AF25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="I26" s="3">
@@ -4543,60 +4337,60 @@
       <c r="V26" s="3">
         <v>20</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="W26" t="s">
         <v>147</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="X26" t="s">
         <v>147</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Y26" t="s">
         <v>171</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="Z26" t="s">
         <v>160</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AA26" t="s">
         <v>172</v>
       </c>
-      <c r="AB26" s="4" t="s">
+      <c r="AB26" t="s">
         <v>173</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC26" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AE26" t="s">
         <v>41</v>
       </c>
       <c r="AF26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>3</v>
       </c>
       <c r="B27" s="3">
         <v>11</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" t="s">
         <v>178</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" t="s">
         <v>179</v>
       </c>
       <c r="I27" s="3">
@@ -4641,46 +4435,39 @@
       <c r="V27" s="3">
         <v>30</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="W27" t="s">
         <v>160</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4" t="s">
+      <c r="AE27" t="s">
         <v>41</v>
       </c>
       <c r="AF27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>4</v>
       </c>
       <c r="B28" s="3">
         <v>14</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="3">
@@ -4725,60 +4512,60 @@
       <c r="V28" s="3">
         <v>30</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="W28" t="s">
         <v>160</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X28" t="s">
         <v>160</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="Y28" t="s">
         <v>183</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="Z28" t="s">
         <v>173</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AA28" t="s">
         <v>184</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AB28" t="s">
         <v>185</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AC28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AE28" t="s">
         <v>41</v>
       </c>
       <c r="AF28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>4</v>
       </c>
       <c r="B29" s="3">
         <v>15</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="3">
@@ -4823,46 +4610,39 @@
       <c r="V29" s="3">
         <v>10</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="W29" t="s">
         <v>185</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4" t="s">
+      <c r="AE29" t="s">
         <v>41</v>
       </c>
       <c r="AF29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>4</v>
       </c>
       <c r="B30" s="3">
         <v>17</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
         <v>192</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="3">
@@ -4907,44 +4687,36 @@
       <c r="V30" s="3">
         <v>60</v>
       </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4" t="s">
+      <c r="AE30" t="s">
         <v>41</v>
       </c>
       <c r="AF30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>4</v>
       </c>
       <c r="B31" s="3">
         <v>17</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="3">
@@ -4989,46 +4761,39 @@
       <c r="V31" s="3">
         <v>30</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="W31" t="s">
         <v>196</v>
       </c>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4" t="s">
+      <c r="AE31" t="s">
         <v>41</v>
       </c>
       <c r="AF31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="3">
         <v>22</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="3">
@@ -5073,46 +4838,39 @@
       <c r="V32" s="3">
         <v>40</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="W32" t="s">
         <v>199</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4" t="s">
+      <c r="AE32" t="s">
         <v>41</v>
       </c>
       <c r="AF32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>22</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" t="s">
         <v>71</v>
       </c>
       <c r="I33" s="3">
@@ -5157,46 +4915,39 @@
       <c r="V33" s="3">
         <v>5</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="W33" t="s">
         <v>199</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4" t="s">
+      <c r="AE33" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="3">
         <v>22</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>207</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" t="s">
         <v>208</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" t="s">
         <v>71</v>
       </c>
       <c r="I34" s="3">
@@ -5241,46 +4992,39 @@
       <c r="V34" s="3">
         <v>5</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="W34" t="s">
         <v>209</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4" t="s">
+      <c r="AE34" t="s">
         <v>41</v>
       </c>
       <c r="AF34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>5</v>
       </c>
       <c r="B35" s="3">
         <v>22</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" t="s">
         <v>71</v>
       </c>
       <c r="I35" s="3">
@@ -5325,48 +5069,42 @@
       <c r="V35" s="3">
         <v>5</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="W35" t="s">
         <v>173</v>
       </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4" t="s">
+      <c r="AE35" t="s">
         <v>41</v>
       </c>
       <c r="AF35" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>5</v>
       </c>
       <c r="B36" s="3">
         <v>21</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>215</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>216</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" t="s">
         <v>47</v>
       </c>
       <c r="I36" s="3">
@@ -5411,46 +5149,39 @@
       <c r="V36" s="3">
         <v>10</v>
       </c>
-      <c r="W36" s="4" t="s">
+      <c r="W36" t="s">
         <v>217</v>
       </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4" t="s">
+      <c r="AE36" t="s">
         <v>41</v>
       </c>
       <c r="AF36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>5</v>
       </c>
       <c r="B37" s="3">
         <v>21</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="3">
@@ -5495,58 +5226,57 @@
       <c r="V37" s="3">
         <v>40</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="W37" t="s">
         <v>209</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="X37" t="s">
         <v>209</v>
       </c>
-      <c r="Y37" s="4" t="s">
+      <c r="Y37" t="s">
         <v>220</v>
       </c>
-      <c r="Z37" s="4" t="s">
+      <c r="Z37" t="s">
         <v>221</v>
       </c>
-      <c r="AA37" s="4" t="s">
+      <c r="AA37" t="s">
         <v>222</v>
       </c>
-      <c r="AB37" s="4" t="s">
+      <c r="AB37" t="s">
         <v>223</v>
       </c>
-      <c r="AC37" s="5" t="s">
+      <c r="AC37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4" t="s">
+      <c r="AE37" t="s">
         <v>41</v>
       </c>
       <c r="AF37" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38" s="3">
         <v>20</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="3">
@@ -5591,116 +5321,95 @@
       <c r="V38" s="3">
         <v>20</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="W38" t="s">
         <v>221</v>
       </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4" t="s">
+      <c r="AE38" t="s">
         <v>41</v>
       </c>
       <c r="AF38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>5</v>
       </c>
       <c r="B39" s="3">
         <v>19</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" t="s">
         <v>232</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="4" t="s">
+      <c r="W39" t="s">
         <v>217</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="X39" t="s">
         <v>217</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="Y39" t="s">
         <v>233</v>
       </c>
-      <c r="Z39" s="4" t="s">
+      <c r="Z39" t="s">
         <v>223</v>
       </c>
-      <c r="AA39" s="4" t="s">
+      <c r="AA39" t="s">
         <v>234</v>
       </c>
-      <c r="AB39" s="4" t="s">
+      <c r="AB39" t="s">
         <v>235</v>
       </c>
-      <c r="AC39" s="5" t="s">
+      <c r="AC39" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4" t="s">
+      <c r="AE39" t="s">
         <v>41</v>
       </c>
       <c r="AF39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>5</v>
       </c>
       <c r="B40" s="3">
         <v>19</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>240</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="3">
@@ -5745,46 +5454,39 @@
       <c r="V40" s="3">
         <v>10</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" t="s">
         <v>223</v>
       </c>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4" t="s">
+      <c r="AE40" t="s">
         <v>41</v>
       </c>
       <c r="AF40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>5</v>
       </c>
       <c r="B41" s="3">
         <v>18</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>243</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="3">
@@ -5829,46 +5531,39 @@
       <c r="V41" s="3">
         <v>10</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="W41" t="s">
         <v>223</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4" t="s">
+      <c r="AE41" t="s">
         <v>41</v>
       </c>
       <c r="AF41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>5</v>
       </c>
       <c r="B42" s="3">
         <v>18</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="3">
@@ -5913,46 +5608,39 @@
       <c r="V42" s="3">
         <v>20</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="W42" t="s">
         <v>223</v>
       </c>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4" t="s">
+      <c r="AE42" t="s">
         <v>41</v>
       </c>
       <c r="AF42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>6</v>
       </c>
       <c r="B43" s="3">
         <v>26</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" t="s">
         <v>250</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" t="s">
         <v>76</v>
       </c>
       <c r="I43" s="3">
@@ -5997,46 +5685,39 @@
       <c r="V43" s="3">
         <v>20</v>
       </c>
-      <c r="W43" s="4" t="s">
+      <c r="W43" t="s">
         <v>223</v>
       </c>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4" t="s">
+      <c r="AE43" t="s">
         <v>41</v>
       </c>
       <c r="AF43" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>6</v>
       </c>
       <c r="B44" s="3">
         <v>26</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" t="s">
         <v>252</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" t="s">
         <v>102</v>
       </c>
       <c r="I44" s="3">
@@ -6081,46 +5762,39 @@
       <c r="V44" s="3">
         <v>40</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="W44" t="s">
         <v>235</v>
       </c>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4" t="s">
+      <c r="AE44" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>6</v>
       </c>
       <c r="B45" s="3">
         <v>25</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" t="s">
         <v>254</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" t="s">
         <v>256</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" t="s">
         <v>71</v>
       </c>
       <c r="I45" s="3">
@@ -6165,58 +5839,57 @@
       <c r="V45" s="3">
         <v>5</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="W45" t="s">
         <v>221</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="X45" t="s">
         <v>221</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" t="s">
         <v>257</v>
       </c>
-      <c r="Z45" s="4" t="s">
+      <c r="Z45" t="s">
         <v>235</v>
       </c>
-      <c r="AA45" s="4" t="s">
+      <c r="AA45" t="s">
         <v>258</v>
       </c>
-      <c r="AB45" s="4" t="s">
+      <c r="AB45" t="s">
         <v>259</v>
       </c>
-      <c r="AC45" s="5" t="s">
+      <c r="AC45" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4" t="s">
+      <c r="AE45" t="s">
         <v>41</v>
       </c>
       <c r="AF45" s="3">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>6</v>
       </c>
       <c r="B46" s="3">
         <v>25</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>262</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" t="s">
         <v>80</v>
       </c>
       <c r="I46" s="3">
@@ -6261,46 +5934,39 @@
       <c r="V46" s="3">
         <v>30</v>
       </c>
-      <c r="W46" s="4" t="s">
+      <c r="W46" t="s">
         <v>235</v>
       </c>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4" t="s">
+      <c r="AE46" t="s">
         <v>41</v>
       </c>
       <c r="AF46" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>6</v>
       </c>
       <c r="B47" s="3">
         <v>24</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>264</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>265</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" t="s">
         <v>266</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" t="s">
         <v>76</v>
       </c>
       <c r="I47" s="3">
@@ -6345,46 +6011,39 @@
       <c r="V47" s="3">
         <v>20</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="W47" t="s">
         <v>235</v>
       </c>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4" t="s">
+      <c r="AE47" t="s">
         <v>41</v>
       </c>
       <c r="AF47" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>6</v>
       </c>
       <c r="B48" s="3">
         <v>24</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>267</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>269</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" t="s">
         <v>71</v>
       </c>
       <c r="I48" s="3">
@@ -6429,44 +6088,36 @@
       <c r="V48" s="3">
         <v>5</v>
       </c>
-      <c r="W48" s="4" t="s">
+      <c r="W48" t="s">
         <v>235</v>
       </c>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4" t="s">
+      <c r="AE48" t="s">
         <v>41</v>
       </c>
       <c r="AF48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>6</v>
       </c>
       <c r="B49" s="3">
         <v>24</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>270</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="E49" t="s">
         <v>271</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>273</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" t="s">
         <v>76</v>
       </c>
       <c r="I49" s="3">
@@ -6511,46 +6162,39 @@
       <c r="V49" s="3">
         <v>20</v>
       </c>
-      <c r="W49" s="4" t="s">
+      <c r="W49" t="s">
         <v>235</v>
       </c>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4" t="s">
+      <c r="AE49" t="s">
         <v>41</v>
       </c>
       <c r="AF49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>6</v>
       </c>
       <c r="B50" s="3">
         <v>25</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>253</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>274</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" t="s">
         <v>275</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="3">
@@ -6595,58 +6239,57 @@
       <c r="V50" s="3">
         <v>20</v>
       </c>
-      <c r="W50" s="4" t="s">
+      <c r="W50" t="s">
         <v>223</v>
       </c>
-      <c r="X50" s="4" t="s">
+      <c r="X50" t="s">
         <v>223</v>
       </c>
-      <c r="Y50" s="4" t="s">
+      <c r="Y50" t="s">
         <v>276</v>
       </c>
-      <c r="Z50" s="4" t="s">
+      <c r="Z50" t="s">
         <v>259</v>
       </c>
-      <c r="AA50" s="4" t="s">
+      <c r="AA50" t="s">
         <v>277</v>
       </c>
-      <c r="AB50" s="4" t="s">
+      <c r="AB50" t="s">
         <v>278</v>
       </c>
-      <c r="AC50" s="5" t="s">
+      <c r="AC50" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4" t="s">
+      <c r="AE50" t="s">
         <v>41</v>
       </c>
       <c r="AF50" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>6</v>
       </c>
       <c r="B51" s="3">
         <v>23</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>280</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" t="s">
         <v>281</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>282</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" t="s">
         <v>283</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" t="s">
         <v>71</v>
       </c>
       <c r="I51" s="3">
@@ -6691,46 +6334,39 @@
       <c r="V51" s="3">
         <v>5</v>
       </c>
-      <c r="W51" s="4" t="s">
+      <c r="W51" t="s">
         <v>259</v>
       </c>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4" t="s">
+      <c r="AE51" t="s">
         <v>41</v>
       </c>
       <c r="AF51" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>6</v>
       </c>
       <c r="B52" s="3">
         <v>23</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>286</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" t="s">
         <v>76</v>
       </c>
       <c r="I52" s="3">
@@ -6775,46 +6411,39 @@
       <c r="V52" s="3">
         <v>20</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="W52" t="s">
         <v>259</v>
       </c>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4" t="s">
+      <c r="AE52" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>6</v>
       </c>
       <c r="B53" s="3">
         <v>23</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" t="s">
         <v>289</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>290</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" t="s">
         <v>47</v>
       </c>
       <c r="I53" s="3">
@@ -6859,44 +6488,36 @@
       <c r="V53" s="3">
         <v>10</v>
       </c>
-      <c r="W53" s="4" t="s">
+      <c r="W53" t="s">
         <v>259</v>
       </c>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4" t="s">
+      <c r="AE53" t="s">
         <v>41</v>
       </c>
       <c r="AF53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>6</v>
       </c>
       <c r="B54" s="3">
         <v>23</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
+      <c r="E54" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" t="s">
         <v>292</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" t="s">
         <v>76</v>
       </c>
       <c r="I54" s="3">
@@ -6941,58 +6562,57 @@
       <c r="V54" s="3">
         <v>20</v>
       </c>
-      <c r="W54" s="4" t="s">
+      <c r="W54" t="s">
         <v>259</v>
       </c>
-      <c r="X54" s="4" t="s">
+      <c r="X54" t="s">
         <v>259</v>
       </c>
-      <c r="Y54" s="4" t="s">
+      <c r="Y54" t="s">
         <v>293</v>
       </c>
-      <c r="Z54" s="4" t="s">
+      <c r="Z54" t="s">
         <v>278</v>
       </c>
-      <c r="AA54" s="4" t="s">
+      <c r="AA54" t="s">
         <v>294</v>
       </c>
-      <c r="AB54" s="4" t="s">
+      <c r="AB54" t="s">
         <v>295</v>
       </c>
-      <c r="AC54" s="5" t="s">
+      <c r="AC54" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4" t="s">
+      <c r="AE54" t="s">
         <v>41</v>
       </c>
       <c r="AF54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>23</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>291</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" t="s">
         <v>297</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" t="s">
         <v>298</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>299</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" t="s">
         <v>52</v>
       </c>
       <c r="I55" s="3">
@@ -7037,46 +6657,39 @@
       <c r="V55" s="3">
         <v>50</v>
       </c>
-      <c r="W55" s="4" t="s">
+      <c r="W55" t="s">
         <v>278</v>
       </c>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4" t="s">
+      <c r="AE55" t="s">
         <v>41</v>
       </c>
       <c r="AF55" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>6</v>
       </c>
       <c r="B56" s="3">
         <v>23</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>300</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" t="s">
         <v>301</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>302</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" t="s">
         <v>303</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" t="s">
         <v>76</v>
       </c>
       <c r="I56" s="3">
@@ -7121,46 +6734,39 @@
       <c r="V56" s="3">
         <v>20</v>
       </c>
-      <c r="W56" s="4" t="s">
+      <c r="W56" t="s">
         <v>278</v>
       </c>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4" t="s">
+      <c r="AE56" t="s">
         <v>41</v>
       </c>
       <c r="AF56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>6</v>
       </c>
       <c r="B57" s="3">
         <v>22</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>304</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" t="s">
         <v>305</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>306</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" t="s">
         <v>307</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" t="s">
         <v>76</v>
       </c>
       <c r="I57" s="3">
@@ -7205,44 +6811,36 @@
       <c r="V57" s="3">
         <v>20</v>
       </c>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4" t="s">
+      <c r="AE57" t="s">
         <v>41</v>
       </c>
       <c r="AF57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>6</v>
       </c>
       <c r="B58" s="3">
         <v>24</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>270</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" t="s">
         <v>308</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" t="s">
         <v>33</v>
       </c>
       <c r="I58" s="3">
@@ -7287,46 +6885,39 @@
       <c r="V58" s="3">
         <v>60</v>
       </c>
-      <c r="W58" s="4" t="s">
+      <c r="W58" t="s">
         <v>295</v>
       </c>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4" t="s">
+      <c r="AE58" t="s">
         <v>41</v>
       </c>
       <c r="AF58" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>7</v>
       </c>
       <c r="B59" s="3">
         <v>30</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>310</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" t="s">
         <v>312</v>
       </c>
       <c r="I59" s="3">
@@ -7371,56 +6962,54 @@
       <c r="V59" s="3">
         <v>60</v>
       </c>
-      <c r="W59" s="4" t="s">
+      <c r="W59" t="s">
         <v>278</v>
       </c>
-      <c r="X59" s="4" t="s">
+      <c r="X59" t="s">
         <v>278</v>
       </c>
-      <c r="Y59" s="4" t="s">
+      <c r="Y59" t="s">
         <v>313</v>
       </c>
-      <c r="Z59" s="4" t="s">
+      <c r="Z59" t="s">
         <v>314</v>
       </c>
-      <c r="AA59" s="4" t="s">
+      <c r="AA59" t="s">
         <v>315</v>
       </c>
-      <c r="AB59" s="4" t="s">
+      <c r="AB59" t="s">
         <v>316</v>
       </c>
-      <c r="AC59" s="5" t="s">
+      <c r="AC59" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4" t="s">
+      <c r="AE59" t="s">
         <v>41</v>
       </c>
       <c r="AF59" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>7</v>
       </c>
       <c r="B60" s="3">
         <v>30</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>318</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="E60" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" t="s">
         <v>321</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" t="s">
         <v>76</v>
       </c>
       <c r="I60" s="3">
@@ -7465,46 +7054,39 @@
       <c r="V60" s="3">
         <v>20</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="W60" t="s">
         <v>314</v>
       </c>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4" t="s">
+      <c r="AE60" t="s">
         <v>41</v>
       </c>
       <c r="AF60" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>7</v>
       </c>
       <c r="B61" s="3">
         <v>30</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>322</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" t="s">
         <v>323</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" t="s">
         <v>52</v>
       </c>
       <c r="I61" s="3">
@@ -7549,58 +7131,57 @@
       <c r="V61" s="3">
         <v>50</v>
       </c>
-      <c r="W61" s="4" t="s">
+      <c r="W61" t="s">
         <v>314</v>
       </c>
-      <c r="X61" s="4" t="s">
+      <c r="X61" t="s">
         <v>314</v>
       </c>
-      <c r="Y61" s="4" t="s">
+      <c r="Y61" t="s">
         <v>324</v>
       </c>
-      <c r="Z61" s="4" t="s">
+      <c r="Z61" t="s">
         <v>316</v>
       </c>
-      <c r="AA61" s="4" t="s">
+      <c r="AA61" t="s">
         <v>325</v>
       </c>
-      <c r="AB61" s="4" t="s">
+      <c r="AB61" t="s">
         <v>326</v>
       </c>
-      <c r="AC61" s="5" t="s">
+      <c r="AC61" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4" t="s">
+      <c r="AE61" t="s">
         <v>41</v>
       </c>
       <c r="AF61" s="3">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>7</v>
       </c>
       <c r="B62" s="3">
         <v>29</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>328</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" t="s">
         <v>329</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" t="s">
         <v>330</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" t="s">
         <v>331</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" t="s">
         <v>47</v>
       </c>
       <c r="I62" s="3">
@@ -7645,58 +7226,57 @@
       <c r="V62" s="3">
         <v>10</v>
       </c>
-      <c r="W62" s="4" t="s">
+      <c r="W62" t="s">
         <v>314</v>
       </c>
-      <c r="X62" s="4" t="s">
+      <c r="X62" t="s">
         <v>314</v>
       </c>
-      <c r="Y62" s="4" t="s">
+      <c r="Y62" t="s">
         <v>324</v>
       </c>
-      <c r="Z62" s="4" t="s">
+      <c r="Z62" t="s">
         <v>326</v>
       </c>
-      <c r="AA62" s="4" t="s">
+      <c r="AA62" t="s">
         <v>332</v>
       </c>
-      <c r="AB62" s="4" t="s">
+      <c r="AB62" t="s">
         <v>333</v>
       </c>
-      <c r="AC62" s="5" t="s">
+      <c r="AC62" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4" t="s">
+      <c r="AE62" t="s">
         <v>41</v>
       </c>
       <c r="AF62" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>7</v>
       </c>
       <c r="B63" s="3">
         <v>28</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>335</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" t="s">
         <v>336</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" t="s">
         <v>337</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" t="s">
         <v>338</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" t="s">
         <v>80</v>
       </c>
       <c r="I63" s="3">
@@ -7741,46 +7321,39 @@
       <c r="V63" s="3">
         <v>30</v>
       </c>
-      <c r="W63" s="4" t="s">
+      <c r="W63" t="s">
         <v>326</v>
       </c>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4" t="s">
+      <c r="AE63" t="s">
         <v>41</v>
       </c>
       <c r="AF63" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>7</v>
       </c>
       <c r="B64" s="3">
         <v>27</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>339</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" t="s">
         <v>340</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" t="s">
         <v>341</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" t="s">
         <v>71</v>
       </c>
       <c r="I64" s="3">
@@ -7825,58 +7398,57 @@
       <c r="V64" s="3">
         <v>5</v>
       </c>
-      <c r="W64" s="4" t="s">
+      <c r="W64" t="s">
         <v>316</v>
       </c>
-      <c r="X64" s="4" t="s">
+      <c r="X64" t="s">
         <v>316</v>
       </c>
-      <c r="Y64" s="4" t="s">
+      <c r="Y64" t="s">
         <v>342</v>
       </c>
-      <c r="Z64" s="4" t="s">
+      <c r="Z64" t="s">
         <v>333</v>
       </c>
-      <c r="AA64" s="4" t="s">
+      <c r="AA64" t="s">
         <v>343</v>
       </c>
-      <c r="AB64" s="4" t="s">
+      <c r="AB64" t="s">
         <v>344</v>
       </c>
-      <c r="AC64" s="5" t="s">
+      <c r="AC64" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4" t="s">
+      <c r="AE64" t="s">
         <v>41</v>
       </c>
       <c r="AF64" s="3">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>7</v>
       </c>
       <c r="B65" s="3">
         <v>27</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" t="s">
         <v>346</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" t="s">
         <v>347</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" t="s">
         <v>348</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" t="s">
         <v>62</v>
       </c>
       <c r="I65" s="3">
@@ -7921,46 +7493,39 @@
       <c r="V65" s="3">
         <v>40</v>
       </c>
-      <c r="W65" s="4" t="s">
+      <c r="W65" t="s">
         <v>333</v>
       </c>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4" t="s">
+      <c r="AE65" t="s">
         <v>41</v>
       </c>
       <c r="AF65" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>7</v>
       </c>
       <c r="B66" s="3">
         <v>29</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>349</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" t="s">
         <v>350</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" t="s">
         <v>351</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" t="s">
         <v>352</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="3">
@@ -8005,58 +7570,57 @@
       <c r="V66" s="3">
         <v>40</v>
       </c>
-      <c r="W66" s="4" t="s">
+      <c r="W66" t="s">
         <v>344</v>
       </c>
-      <c r="X66" s="4" t="s">
+      <c r="X66" t="s">
         <v>344</v>
       </c>
-      <c r="Y66" s="4" t="s">
+      <c r="Y66" t="s">
         <v>353</v>
       </c>
-      <c r="Z66" s="4" t="s">
+      <c r="Z66" t="s">
         <v>354</v>
       </c>
-      <c r="AA66" s="4" t="s">
+      <c r="AA66" t="s">
         <v>355</v>
       </c>
-      <c r="AB66" s="4" t="s">
+      <c r="AB66" t="s">
         <v>356</v>
       </c>
-      <c r="AC66" s="5" t="s">
+      <c r="AC66" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4" t="s">
+      <c r="AE66" t="s">
         <v>41</v>
       </c>
       <c r="AF66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>8</v>
       </c>
       <c r="B67" s="3">
         <v>34</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>358</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" t="s">
         <v>359</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" t="s">
         <v>360</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" t="s">
         <v>361</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" t="s">
         <v>47</v>
       </c>
       <c r="I67" s="3">
@@ -8101,58 +7665,57 @@
       <c r="V67" s="3">
         <v>10</v>
       </c>
-      <c r="W67" s="4" t="s">
+      <c r="W67" t="s">
         <v>326</v>
       </c>
-      <c r="X67" s="4" t="s">
+      <c r="X67" t="s">
         <v>326</v>
       </c>
-      <c r="Y67" s="4" t="s">
+      <c r="Y67" t="s">
         <v>362</v>
       </c>
-      <c r="Z67" s="4" t="s">
+      <c r="Z67" t="s">
         <v>344</v>
       </c>
-      <c r="AA67" s="4" t="s">
+      <c r="AA67" t="s">
         <v>363</v>
       </c>
-      <c r="AB67" s="4" t="s">
+      <c r="AB67" t="s">
         <v>354</v>
       </c>
-      <c r="AC67" s="5" t="s">
+      <c r="AC67" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4" t="s">
+      <c r="AE67" t="s">
         <v>41</v>
       </c>
       <c r="AF67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>8</v>
       </c>
       <c r="B68" s="3">
         <v>35</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" t="s">
         <v>368</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" t="s">
         <v>76</v>
       </c>
       <c r="I68" s="3">
@@ -8197,46 +7760,39 @@
       <c r="V68" s="3">
         <v>20</v>
       </c>
-      <c r="W68" s="4" t="s">
+      <c r="W68" t="s">
         <v>344</v>
       </c>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4" t="s">
+      <c r="AE68" t="s">
         <v>41</v>
       </c>
       <c r="AF68" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>8</v>
       </c>
       <c r="B69" s="3">
         <v>35</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>369</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" t="s">
         <v>370</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" t="s">
         <v>371</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" t="s">
         <v>372</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" t="s">
         <v>71</v>
       </c>
       <c r="I69" s="3">
@@ -8281,58 +7837,57 @@
       <c r="V69" s="3">
         <v>5</v>
       </c>
-      <c r="W69" s="4" t="s">
+      <c r="W69" t="s">
         <v>344</v>
       </c>
-      <c r="X69" s="4" t="s">
+      <c r="X69" t="s">
         <v>344</v>
       </c>
-      <c r="Y69" s="4" t="s">
+      <c r="Y69" t="s">
         <v>353</v>
       </c>
-      <c r="Z69" s="4" t="s">
+      <c r="Z69" t="s">
         <v>354</v>
       </c>
-      <c r="AA69" s="4" t="s">
+      <c r="AA69" t="s">
         <v>355</v>
       </c>
-      <c r="AB69" s="4" t="s">
+      <c r="AB69" t="s">
         <v>356</v>
       </c>
-      <c r="AC69" s="5" t="s">
+      <c r="AC69" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4" t="s">
+      <c r="AE69" t="s">
         <v>41</v>
       </c>
       <c r="AF69" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>8</v>
       </c>
       <c r="B70" s="3">
         <v>35</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>374</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>375</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" t="s">
         <v>376</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" t="s">
         <v>76</v>
       </c>
       <c r="I70" s="3">
@@ -8377,46 +7932,39 @@
       <c r="V70" s="3">
         <v>20</v>
       </c>
-      <c r="W70" s="4" t="s">
+      <c r="W70" t="s">
         <v>354</v>
       </c>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4" t="s">
+      <c r="AE70" t="s">
         <v>41</v>
       </c>
       <c r="AF70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>8</v>
       </c>
       <c r="B71" s="3">
         <v>35</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>374</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>105</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" t="s">
         <v>106</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" t="s">
         <v>377</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" t="s">
         <v>378</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" t="s">
         <v>71</v>
       </c>
       <c r="I71" s="3">
@@ -8461,46 +8009,39 @@
       <c r="V71" s="3">
         <v>5</v>
       </c>
-      <c r="W71" s="4" t="s">
+      <c r="W71" t="s">
         <v>356</v>
       </c>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4" t="s">
+      <c r="AE71" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>8</v>
       </c>
       <c r="B72" s="3">
         <v>34</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>379</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" t="s">
         <v>284</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" t="s">
         <v>380</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" t="s">
         <v>381</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" t="s">
         <v>382</v>
       </c>
       <c r="I72" s="3">
@@ -8545,46 +8086,39 @@
       <c r="V72" s="3">
         <v>65</v>
       </c>
-      <c r="W72" s="4" t="s">
+      <c r="W72" t="s">
         <v>356</v>
       </c>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4" t="s">
+      <c r="AE72" t="s">
         <v>41</v>
       </c>
       <c r="AF72" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>8</v>
       </c>
       <c r="B73" s="3">
         <v>34</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>383</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>105</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" t="s">
         <v>384</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" t="s">
         <v>385</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" t="s">
         <v>386</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" t="s">
         <v>47</v>
       </c>
       <c r="I73" s="3">
@@ -8629,46 +8163,39 @@
       <c r="V73" s="3">
         <v>10</v>
       </c>
-      <c r="W73" s="4" t="s">
+      <c r="W73" t="s">
         <v>356</v>
       </c>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4" t="s">
+      <c r="AE73" t="s">
         <v>41</v>
       </c>
       <c r="AF73" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>8</v>
       </c>
       <c r="B74" s="3">
         <v>33</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>387</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" t="s">
         <v>301</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" t="s">
         <v>389</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" t="s">
         <v>47</v>
       </c>
       <c r="I74" s="3">
@@ -8713,58 +8240,57 @@
       <c r="V74" s="3">
         <v>10</v>
       </c>
-      <c r="W74" s="4" t="s">
+      <c r="W74" t="s">
         <v>390</v>
       </c>
-      <c r="X74" s="4" t="s">
+      <c r="X74" t="s">
         <v>391</v>
       </c>
-      <c r="Y74" s="4" t="s">
+      <c r="Y74" t="s">
         <v>392</v>
       </c>
-      <c r="Z74" s="4" t="s">
+      <c r="Z74" t="s">
         <v>393</v>
       </c>
-      <c r="AA74" s="4" t="s">
+      <c r="AA74" t="s">
         <v>390</v>
       </c>
-      <c r="AB74" s="4" t="s">
+      <c r="AB74" t="s">
         <v>394</v>
       </c>
-      <c r="AC74" s="5" t="s">
+      <c r="AC74" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4" t="s">
+      <c r="AE74" t="s">
         <v>41</v>
       </c>
       <c r="AF74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>8</v>
       </c>
       <c r="B75" s="3">
         <v>33</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>396</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>201</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" t="s">
         <v>397</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" t="s">
         <v>398</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" t="s">
         <v>399</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" t="s">
         <v>47</v>
       </c>
       <c r="I75" s="3">
@@ -8809,46 +8335,39 @@
       <c r="V75" s="3">
         <v>10</v>
       </c>
-      <c r="W75" s="4" t="s">
+      <c r="W75" t="s">
         <v>391</v>
       </c>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4" t="s">
+      <c r="AE75" t="s">
         <v>41</v>
       </c>
       <c r="AF75" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>8</v>
       </c>
       <c r="B76" s="3">
         <v>33</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" t="s">
         <v>401</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" t="s">
         <v>403</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="3">
@@ -8893,46 +8412,39 @@
       <c r="V76" s="3">
         <v>10</v>
       </c>
-      <c r="W76" s="4" t="s">
+      <c r="W76" t="s">
         <v>391</v>
       </c>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4" t="s">
+      <c r="AE76" t="s">
         <v>41</v>
       </c>
       <c r="AF76" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>8</v>
       </c>
       <c r="B77" s="3">
         <v>32</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>404</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" t="s">
         <v>405</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" t="s">
         <v>406</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" t="s">
         <v>407</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" t="s">
         <v>47</v>
       </c>
       <c r="I77" s="3">
@@ -8977,46 +8489,39 @@
       <c r="V77" s="3">
         <v>10</v>
       </c>
-      <c r="W77" s="4" t="s">
+      <c r="W77" t="s">
         <v>393</v>
       </c>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4" t="s">
+      <c r="AE77" t="s">
         <v>41</v>
       </c>
       <c r="AF77" s="3">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>8</v>
       </c>
       <c r="B78" s="3">
         <v>32</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>408</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>93</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" t="s">
         <v>95</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" t="s">
         <v>409</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" t="s">
         <v>80</v>
       </c>
       <c r="I78" s="3">
@@ -9061,46 +8566,39 @@
       <c r="V78" s="3">
         <v>30</v>
       </c>
-      <c r="W78" s="4" t="s">
+      <c r="W78" t="s">
         <v>393</v>
       </c>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4" t="s">
+      <c r="AE78" t="s">
         <v>41</v>
       </c>
       <c r="AF78" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>8</v>
       </c>
       <c r="B79" s="3">
         <v>31</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>410</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" t="s">
         <v>411</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>412</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" t="s">
         <v>413</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" t="s">
         <v>71</v>
       </c>
       <c r="I79" s="3">
@@ -9145,46 +8643,39 @@
       <c r="V79" s="3">
         <v>5</v>
       </c>
-      <c r="W79" s="4" t="s">
+      <c r="W79" t="s">
         <v>393</v>
       </c>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4" t="s">
+      <c r="AE79" t="s">
         <v>41</v>
       </c>
       <c r="AF79" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>8</v>
       </c>
       <c r="B80" s="3">
         <v>31</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>414</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>93</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" t="s">
         <v>415</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" t="s">
         <v>416</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" t="s">
         <v>417</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" t="s">
         <v>62</v>
       </c>
       <c r="I80" s="3">
@@ -9229,46 +8720,39 @@
       <c r="V80" s="3">
         <v>40</v>
       </c>
-      <c r="W80" s="4" t="s">
+      <c r="W80" t="s">
         <v>393</v>
       </c>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4" t="s">
+      <c r="AE80" t="s">
         <v>41</v>
       </c>
       <c r="AF80" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>9</v>
       </c>
       <c r="B81" s="3">
         <v>39</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>418</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" t="s">
         <v>419</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" t="s">
         <v>420</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" t="s">
         <v>421</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" t="s">
         <v>71</v>
       </c>
       <c r="I81" s="3">
@@ -9313,58 +8797,57 @@
       <c r="V81" s="3">
         <v>5</v>
       </c>
-      <c r="W81" s="4" t="s">
+      <c r="W81" t="s">
         <v>391</v>
       </c>
-      <c r="X81" s="4" t="s">
+      <c r="X81" t="s">
         <v>391</v>
       </c>
-      <c r="Y81" s="4" t="s">
+      <c r="Y81" t="s">
         <v>392</v>
       </c>
-      <c r="Z81" s="4" t="s">
+      <c r="Z81" t="s">
         <v>394</v>
       </c>
-      <c r="AA81" s="4" t="s">
+      <c r="AA81" t="s">
         <v>422</v>
       </c>
-      <c r="AB81" s="4" t="s">
+      <c r="AB81" t="s">
         <v>423</v>
       </c>
-      <c r="AC81" s="5" t="s">
+      <c r="AC81" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4" t="s">
+      <c r="AE81" t="s">
         <v>41</v>
       </c>
       <c r="AF81" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>9</v>
       </c>
       <c r="B82" s="3">
         <v>39</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>418</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>87</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" t="s">
         <v>425</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" t="s">
         <v>71</v>
       </c>
       <c r="I82" s="3">
@@ -9409,58 +8892,57 @@
       <c r="V82" s="3">
         <v>5</v>
       </c>
-      <c r="W82" s="4" t="s">
+      <c r="W82" t="s">
         <v>393</v>
       </c>
-      <c r="X82" s="4" t="s">
+      <c r="X82" t="s">
         <v>393</v>
       </c>
-      <c r="Y82" s="4" t="s">
+      <c r="Y82" t="s">
         <v>426</v>
       </c>
-      <c r="Z82" s="4" t="s">
+      <c r="Z82" t="s">
         <v>394</v>
       </c>
-      <c r="AA82" s="4" t="s">
+      <c r="AA82" t="s">
         <v>422</v>
       </c>
-      <c r="AB82" s="4" t="s">
+      <c r="AB82" t="s">
         <v>423</v>
       </c>
-      <c r="AC82" s="5" t="s">
+      <c r="AC82" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4" t="s">
+      <c r="AE82" t="s">
         <v>41</v>
       </c>
       <c r="AF82" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>9</v>
       </c>
       <c r="B83" s="3">
         <v>39</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>428</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" t="s">
         <v>429</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" t="s">
         <v>430</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" t="s">
         <v>179</v>
       </c>
       <c r="I83" s="3">
@@ -9505,46 +8987,39 @@
       <c r="V83" s="3">
         <v>30</v>
       </c>
-      <c r="W83" s="4" t="s">
+      <c r="W83" t="s">
         <v>394</v>
       </c>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4" t="s">
+      <c r="AE83" t="s">
         <v>41</v>
       </c>
       <c r="AF83" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>9</v>
       </c>
       <c r="B84" s="3">
         <v>38</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>431</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" t="s">
         <v>432</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" t="s">
         <v>433</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" t="s">
         <v>47</v>
       </c>
       <c r="I84" s="3">
@@ -9589,46 +9064,39 @@
       <c r="V84" s="3">
         <v>10</v>
       </c>
-      <c r="W84" s="4" t="s">
+      <c r="W84" t="s">
         <v>394</v>
       </c>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4" t="s">
+      <c r="AE84" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>9</v>
       </c>
       <c r="B85" s="3">
         <v>38</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>431</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" t="s">
         <v>267</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" t="s">
         <v>268</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" t="s">
         <v>434</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" t="s">
         <v>76</v>
       </c>
       <c r="I85" s="3">
@@ -9673,46 +9141,39 @@
       <c r="V85" s="3">
         <v>20</v>
       </c>
-      <c r="W85" s="4" t="s">
+      <c r="W85" t="s">
         <v>394</v>
       </c>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4" t="s">
+      <c r="AE85" t="s">
         <v>41</v>
       </c>
       <c r="AF85" s="3">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>9</v>
       </c>
       <c r="B86" s="3">
         <v>37</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" t="s">
         <v>435</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" t="s">
         <v>436</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" t="s">
         <v>437</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" t="s">
         <v>76</v>
       </c>
       <c r="I86" s="3">
@@ -9757,58 +9218,57 @@
       <c r="V86" s="3">
         <v>20</v>
       </c>
-      <c r="W86" s="4" t="s">
+      <c r="W86" t="s">
         <v>354</v>
       </c>
-      <c r="X86" s="4" t="s">
+      <c r="X86" t="s">
         <v>423</v>
       </c>
-      <c r="Y86" s="4" t="s">
+      <c r="Y86" t="s">
         <v>438</v>
       </c>
-      <c r="Z86" s="4" t="s">
+      <c r="Z86" t="s">
         <v>439</v>
       </c>
-      <c r="AA86" s="4" t="s">
+      <c r="AA86" t="s">
         <v>439</v>
       </c>
-      <c r="AB86" s="4" t="s">
+      <c r="AB86" t="s">
         <v>440</v>
       </c>
-      <c r="AC86" s="5" t="s">
+      <c r="AC86" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4" t="s">
+      <c r="AE86" t="s">
         <v>41</v>
       </c>
       <c r="AF86" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>9</v>
       </c>
       <c r="B87" s="3">
         <v>37</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>442</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" t="s">
         <v>124</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" t="s">
         <v>443</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" t="s">
         <v>444</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" t="s">
         <v>179</v>
       </c>
       <c r="I87" s="3">
@@ -9853,58 +9313,57 @@
       <c r="V87" s="3">
         <v>30</v>
       </c>
-      <c r="W87" s="4" t="s">
+      <c r="W87" t="s">
         <v>393</v>
       </c>
-      <c r="X87" s="4" t="s">
+      <c r="X87" t="s">
         <v>393</v>
       </c>
-      <c r="Y87" s="4" t="s">
+      <c r="Y87" t="s">
         <v>426</v>
       </c>
-      <c r="Z87" s="4" t="s">
+      <c r="Z87" t="s">
         <v>423</v>
       </c>
-      <c r="AA87" s="4" t="s">
+      <c r="AA87" t="s">
         <v>445</v>
       </c>
-      <c r="AB87" s="4" t="s">
+      <c r="AB87" t="s">
         <v>439</v>
       </c>
-      <c r="AC87" s="5" t="s">
+      <c r="AC87" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4" t="s">
+      <c r="AE87" t="s">
         <v>41</v>
       </c>
       <c r="AF87" s="3">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>9</v>
       </c>
       <c r="B88" s="3">
         <v>38</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>447</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" t="s">
         <v>77</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" t="s">
         <v>448</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" t="s">
         <v>449</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" t="s">
         <v>47</v>
       </c>
       <c r="I88" s="3">
@@ -9949,58 +9408,57 @@
       <c r="V88" s="3">
         <v>10</v>
       </c>
-      <c r="W88" s="4" t="s">
+      <c r="W88" t="s">
         <v>394</v>
       </c>
-      <c r="X88" s="4" t="s">
+      <c r="X88" t="s">
         <v>394</v>
       </c>
-      <c r="Y88" s="4" t="s">
+      <c r="Y88" t="s">
         <v>450</v>
       </c>
-      <c r="Z88" s="4" t="s">
+      <c r="Z88" t="s">
         <v>423</v>
       </c>
-      <c r="AA88" s="4" t="s">
+      <c r="AA88" t="s">
         <v>445</v>
       </c>
-      <c r="AB88" s="4" t="s">
+      <c r="AB88" t="s">
         <v>439</v>
       </c>
-      <c r="AC88" s="5" t="s">
+      <c r="AC88" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4" t="s">
+      <c r="AE88" t="s">
         <v>41</v>
       </c>
       <c r="AF88" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>9</v>
       </c>
       <c r="B89" s="3">
         <v>37</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>452</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" t="s">
         <v>350</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" t="s">
         <v>453</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" t="s">
         <v>454</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" t="s">
         <v>382</v>
       </c>
       <c r="I89" s="3">
@@ -10045,46 +9503,39 @@
       <c r="V89" s="3">
         <v>65</v>
       </c>
-      <c r="W89" s="4" t="s">
+      <c r="W89" t="s">
         <v>423</v>
       </c>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="4" t="s">
+      <c r="AE89" t="s">
         <v>41</v>
       </c>
       <c r="AF89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>9</v>
       </c>
       <c r="B90" s="3">
         <v>36</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" t="s">
         <v>456</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" t="s">
         <v>457</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" t="s">
         <v>458</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" t="s">
         <v>71</v>
       </c>
       <c r="I90" s="3">
@@ -10129,46 +9580,39 @@
       <c r="V90" s="3">
         <v>5</v>
       </c>
-      <c r="W90" s="4" t="s">
+      <c r="W90" t="s">
         <v>439</v>
       </c>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="4" t="s">
+      <c r="AE90" t="s">
         <v>41</v>
       </c>
       <c r="AF90" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>9</v>
       </c>
       <c r="B91" s="3">
         <v>36</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>455</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" t="s">
         <v>226</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" t="s">
         <v>459</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" t="s">
         <v>460</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" t="s">
         <v>71</v>
       </c>
       <c r="I91" s="3">
@@ -10213,46 +9657,39 @@
       <c r="V91" s="3">
         <v>5</v>
       </c>
-      <c r="W91" s="4" t="s">
+      <c r="W91" t="s">
         <v>439</v>
       </c>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="4" t="s">
+      <c r="AE91" t="s">
         <v>41</v>
       </c>
       <c r="AF91" s="3">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>9</v>
       </c>
       <c r="B92" s="3">
         <v>36</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>300</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" t="s">
         <v>254</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" t="s">
         <v>255</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" t="s">
         <v>461</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" t="s">
         <v>76</v>
       </c>
       <c r="I92" s="3">
@@ -10297,46 +9734,39 @@
       <c r="V92" s="3">
         <v>20</v>
       </c>
-      <c r="W92" s="4" t="s">
+      <c r="W92" t="s">
         <v>439</v>
       </c>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4" t="s">
+      <c r="AE92" t="s">
         <v>41</v>
       </c>
       <c r="AF92" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>9</v>
       </c>
       <c r="B93" s="3">
         <v>36</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" t="s">
         <v>29</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" t="s">
         <v>337</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" t="s">
         <v>462</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" t="s">
         <v>179</v>
       </c>
       <c r="I93" s="3">
@@ -10381,58 +9811,57 @@
       <c r="V93" s="3">
         <v>30</v>
       </c>
-      <c r="W93" s="4" t="s">
+      <c r="W93" t="s">
         <v>439</v>
       </c>
-      <c r="X93" s="4" t="s">
+      <c r="X93" t="s">
         <v>439</v>
       </c>
-      <c r="Y93" s="4" t="s">
+      <c r="Y93" t="s">
         <v>463</v>
       </c>
-      <c r="Z93" s="4" t="s">
+      <c r="Z93" t="s">
         <v>440</v>
       </c>
-      <c r="AA93" s="4" t="s">
+      <c r="AA93" t="s">
         <v>464</v>
       </c>
-      <c r="AB93" s="4" t="s">
+      <c r="AB93" t="s">
         <v>465</v>
       </c>
-      <c r="AC93" s="5" t="s">
+      <c r="AC93" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="4" t="s">
+      <c r="AE93" t="s">
         <v>41</v>
       </c>
       <c r="AF93" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>9</v>
       </c>
       <c r="B94" s="3">
         <v>36</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>300</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" t="s">
         <v>176</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" t="s">
         <v>467</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" t="s">
         <v>468</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" t="s">
         <v>33</v>
       </c>
       <c r="I94" s="3">
@@ -10477,46 +9906,39 @@
       <c r="V94" s="3">
         <v>60</v>
       </c>
-      <c r="W94" s="4" t="s">
+      <c r="W94" t="s">
         <v>440</v>
       </c>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AC94" s="4"/>
-      <c r="AD94" s="4"/>
-      <c r="AE94" s="4" t="s">
+      <c r="AE94" t="s">
         <v>41</v>
       </c>
       <c r="AF94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>9</v>
       </c>
       <c r="B95" s="3">
         <v>37</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>442</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" t="s">
         <v>29</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" t="s">
         <v>469</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" t="s">
         <v>470</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" t="s">
         <v>471</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="H95" t="s">
         <v>62</v>
       </c>
       <c r="I95" s="3">
@@ -10561,46 +9983,39 @@
       <c r="V95" s="3">
         <v>40</v>
       </c>
-      <c r="W95" s="4" t="s">
+      <c r="W95" t="s">
         <v>440</v>
       </c>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-      <c r="AE95" s="4" t="s">
+      <c r="AE95" t="s">
         <v>41</v>
       </c>
       <c r="AF95" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>10</v>
       </c>
       <c r="B96" s="3">
         <v>44</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>72</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" t="s">
         <v>29</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" t="s">
         <v>337</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" t="s">
         <v>472</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" t="s">
         <v>179</v>
       </c>
       <c r="I96" s="3">
@@ -10645,46 +10060,39 @@
       <c r="V96" s="3">
         <v>30</v>
       </c>
-      <c r="W96" s="4" t="s">
+      <c r="W96" t="s">
         <v>465</v>
       </c>
-      <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-      <c r="AE96" s="4" t="s">
+      <c r="AE96" t="s">
         <v>41</v>
       </c>
       <c r="AF96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>10</v>
       </c>
       <c r="B97" s="3">
         <v>42</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>473</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" t="s">
         <v>202</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" t="s">
         <v>474</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" t="s">
         <v>475</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" t="s">
         <v>476</v>
       </c>
       <c r="I97" s="3">
@@ -10729,46 +10137,39 @@
       <c r="V97" s="3">
         <v>30</v>
       </c>
-      <c r="W97" s="4" t="s">
+      <c r="W97" t="s">
         <v>465</v>
       </c>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
-      <c r="AA97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AC97" s="4"/>
-      <c r="AD97" s="4"/>
-      <c r="AE97" s="4" t="s">
+      <c r="AE97" t="s">
         <v>41</v>
       </c>
       <c r="AF97" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>10</v>
       </c>
       <c r="B98" s="3">
         <v>43</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" t="s">
         <v>111</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" t="s">
         <v>477</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" t="s">
         <v>478</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" t="s">
         <v>52</v>
       </c>
       <c r="I98" s="3">
@@ -10813,46 +10214,39 @@
       <c r="V98" s="3">
         <v>50</v>
       </c>
-      <c r="W98" s="4" t="s">
+      <c r="W98" t="s">
         <v>465</v>
       </c>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
-      <c r="AA98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AC98" s="4"/>
-      <c r="AD98" s="4"/>
-      <c r="AE98" s="4" t="s">
+      <c r="AE98" t="s">
         <v>41</v>
       </c>
       <c r="AF98" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>10</v>
       </c>
       <c r="B99" s="3">
         <v>43</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>358</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" t="s">
         <v>105</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" t="s">
         <v>288</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" t="s">
         <v>479</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" t="s">
         <v>480</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" t="s">
         <v>71</v>
       </c>
       <c r="I99" s="3">
@@ -10897,46 +10291,39 @@
       <c r="V99" s="3">
         <v>5</v>
       </c>
-      <c r="W99" s="4" t="s">
+      <c r="W99" t="s">
         <v>465</v>
       </c>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-      <c r="AE99" s="4" t="s">
+      <c r="AE99" t="s">
         <v>41</v>
       </c>
       <c r="AF99" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>10</v>
       </c>
       <c r="B100" s="3">
         <v>43</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" t="s">
         <v>49</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" t="s">
         <v>481</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" t="s">
         <v>482</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" t="s">
         <v>76</v>
       </c>
       <c r="I100" s="3">
@@ -10981,46 +10368,39 @@
       <c r="V100" s="3">
         <v>20</v>
       </c>
-      <c r="W100" s="4" t="s">
+      <c r="W100" t="s">
         <v>465</v>
       </c>
-      <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
-      <c r="AA100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AC100" s="4"/>
-      <c r="AD100" s="4"/>
-      <c r="AE100" s="4" t="s">
+      <c r="AE100" t="s">
         <v>41</v>
       </c>
       <c r="AF100" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>10</v>
       </c>
       <c r="B101" s="3">
         <v>43</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>67</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" t="s">
         <v>483</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" t="s">
         <v>484</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" t="s">
         <v>485</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" t="s">
         <v>71</v>
       </c>
       <c r="I101" s="3">
@@ -11065,58 +10445,57 @@
       <c r="V101" s="3">
         <v>5</v>
       </c>
-      <c r="W101" s="4" t="s">
+      <c r="W101" t="s">
         <v>440</v>
       </c>
-      <c r="X101" s="4" t="s">
+      <c r="X101" t="s">
         <v>440</v>
       </c>
-      <c r="Y101" s="4" t="s">
+      <c r="Y101" t="s">
         <v>486</v>
       </c>
-      <c r="Z101" s="4" t="s">
+      <c r="Z101" t="s">
         <v>487</v>
       </c>
-      <c r="AA101" s="4" t="s">
+      <c r="AA101" t="s">
         <v>488</v>
       </c>
-      <c r="AB101" s="4" t="s">
+      <c r="AB101" t="s">
         <v>489</v>
       </c>
-      <c r="AC101" s="5" t="s">
+      <c r="AC101" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4" t="s">
+      <c r="AE101" t="s">
         <v>41</v>
       </c>
       <c r="AF101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>10</v>
       </c>
       <c r="B102" s="3">
         <v>43</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>491</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" t="s">
         <v>93</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" t="s">
         <v>94</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" t="s">
         <v>95</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G102" t="s">
         <v>492</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" t="s">
         <v>76</v>
       </c>
       <c r="I102" s="3">
@@ -11161,46 +10540,39 @@
       <c r="V102" s="3">
         <v>20</v>
       </c>
-      <c r="W102" s="4" t="s">
+      <c r="W102" t="s">
         <v>487</v>
       </c>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-      <c r="AE102" s="4" t="s">
+      <c r="AE102" t="s">
         <v>41</v>
       </c>
       <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>10</v>
       </c>
       <c r="B103" s="3">
         <v>44</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>72</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" t="s">
         <v>43</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" t="s">
         <v>166</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" t="s">
         <v>493</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" t="s">
         <v>494</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H103" t="s">
         <v>80</v>
       </c>
       <c r="I103" s="3">
@@ -11245,46 +10617,39 @@
       <c r="V103" s="3">
         <v>30</v>
       </c>
-      <c r="W103" s="4" t="s">
+      <c r="W103" t="s">
         <v>487</v>
       </c>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4" t="s">
+      <c r="AE103" t="s">
         <v>41</v>
       </c>
       <c r="AF103" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>10</v>
       </c>
       <c r="B104" s="3">
         <v>44</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>72</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" t="s">
         <v>495</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" t="s">
         <v>496</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" t="s">
         <v>76</v>
       </c>
       <c r="I104" s="3">
@@ -11329,46 +10694,39 @@
       <c r="V104" s="3">
         <v>20</v>
       </c>
-      <c r="W104" s="4" t="s">
+      <c r="W104" t="s">
         <v>487</v>
       </c>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="4"/>
-      <c r="AB104" s="4"/>
-      <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
-      <c r="AE104" s="4" t="s">
+      <c r="AE104" t="s">
         <v>41</v>
       </c>
       <c r="AF104" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>10</v>
       </c>
       <c r="B105" s="3">
         <v>42</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>497</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" t="s">
         <v>43</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" t="s">
         <v>498</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" t="s">
         <v>499</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" t="s">
         <v>500</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H105" t="s">
         <v>47</v>
       </c>
       <c r="I105" s="3">
@@ -11413,46 +10771,39 @@
       <c r="V105" s="3">
         <v>10</v>
       </c>
-      <c r="W105" s="4" t="s">
+      <c r="W105" t="s">
         <v>487</v>
       </c>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4" t="s">
+      <c r="AE105" t="s">
         <v>41</v>
       </c>
       <c r="AF105" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>10</v>
       </c>
       <c r="B106" s="3">
         <v>43</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>501</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" t="s">
         <v>337</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" t="s">
         <v>502</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" t="s">
         <v>179</v>
       </c>
       <c r="I106" s="3">
@@ -11497,58 +10848,57 @@
       <c r="V106" s="3">
         <v>30</v>
       </c>
-      <c r="W106" s="4" t="s">
+      <c r="W106" t="s">
         <v>465</v>
       </c>
-      <c r="X106" s="4" t="s">
+      <c r="X106" t="s">
         <v>465</v>
       </c>
-      <c r="Y106" s="4" t="s">
+      <c r="Y106" t="s">
         <v>503</v>
       </c>
-      <c r="Z106" s="4" t="s">
+      <c r="Z106" t="s">
         <v>489</v>
       </c>
-      <c r="AA106" s="4" t="s">
+      <c r="AA106" t="s">
         <v>504</v>
       </c>
-      <c r="AB106" s="4" t="s">
+      <c r="AB106" t="s">
         <v>505</v>
       </c>
-      <c r="AC106" s="5" t="s">
+      <c r="AC106" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="AD106" s="4"/>
-      <c r="AE106" s="4" t="s">
+      <c r="AE106" t="s">
         <v>41</v>
       </c>
       <c r="AF106" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>10</v>
       </c>
       <c r="B107" s="3">
         <v>42</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" t="s">
         <v>415</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" t="s">
         <v>416</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" t="s">
         <v>507</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" t="s">
         <v>47</v>
       </c>
       <c r="I107" s="3">
@@ -11593,46 +10943,39 @@
       <c r="V107" s="3">
         <v>10</v>
       </c>
-      <c r="W107" s="4" t="s">
+      <c r="W107" t="s">
         <v>489</v>
       </c>
-      <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
-      <c r="Z107" s="4"/>
-      <c r="AA107" s="4"/>
-      <c r="AB107" s="4"/>
-      <c r="AC107" s="4"/>
-      <c r="AD107" s="4"/>
-      <c r="AE107" s="4" t="s">
+      <c r="AE107" t="s">
         <v>41</v>
       </c>
       <c r="AF107" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>10</v>
       </c>
       <c r="B108" s="3">
         <v>42</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>497</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" t="s">
         <v>87</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" t="s">
         <v>508</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" t="s">
         <v>509</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" t="s">
         <v>510</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" t="s">
         <v>47</v>
       </c>
       <c r="I108" s="3">
@@ -11677,58 +11020,57 @@
       <c r="V108" s="3">
         <v>10</v>
       </c>
-      <c r="W108" s="4" t="s">
+      <c r="W108" t="s">
         <v>487</v>
       </c>
-      <c r="X108" s="4" t="s">
+      <c r="X108" t="s">
         <v>487</v>
       </c>
-      <c r="Y108" s="4" t="s">
+      <c r="Y108" t="s">
         <v>511</v>
       </c>
-      <c r="Z108" s="4" t="s">
+      <c r="Z108" t="s">
         <v>489</v>
       </c>
-      <c r="AA108" s="4" t="s">
+      <c r="AA108" t="s">
         <v>504</v>
       </c>
-      <c r="AB108" s="4" t="s">
+      <c r="AB108" t="s">
         <v>505</v>
       </c>
-      <c r="AC108" s="5" t="s">
+      <c r="AC108" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="AD108" s="4"/>
-      <c r="AE108" s="4" t="s">
+      <c r="AE108" t="s">
         <v>41</v>
       </c>
       <c r="AF108" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>10</v>
       </c>
       <c r="B109" s="3">
         <v>42</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" t="s">
         <v>375</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" t="s">
         <v>376</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H109" t="s">
         <v>76</v>
       </c>
       <c r="I109" s="3">
@@ -11773,46 +11115,39 @@
       <c r="V109" s="3">
         <v>20</v>
       </c>
-      <c r="W109" s="4" t="s">
+      <c r="W109" t="s">
         <v>489</v>
       </c>
-      <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
-      <c r="Z109" s="4"/>
-      <c r="AA109" s="4"/>
-      <c r="AB109" s="4"/>
-      <c r="AC109" s="4"/>
-      <c r="AD109" s="4"/>
-      <c r="AE109" s="4" t="s">
+      <c r="AE109" t="s">
         <v>41</v>
       </c>
       <c r="AF109" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>10</v>
       </c>
       <c r="B110" s="3">
         <v>42</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" t="s">
         <v>120</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" t="s">
         <v>513</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" t="s">
         <v>514</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" t="s">
         <v>179</v>
       </c>
       <c r="I110" s="3">
@@ -11857,46 +11192,39 @@
       <c r="V110" s="3">
         <v>30</v>
       </c>
-      <c r="W110" s="4" t="s">
+      <c r="W110" t="s">
         <v>489</v>
       </c>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
-      <c r="AA110" s="4"/>
-      <c r="AB110" s="4"/>
-      <c r="AC110" s="4"/>
-      <c r="AD110" s="4"/>
-      <c r="AE110" s="4" t="s">
+      <c r="AE110" t="s">
         <v>41</v>
       </c>
       <c r="AF110" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>10</v>
       </c>
       <c r="B111" s="3">
         <v>40</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>515</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" t="s">
         <v>201</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" t="s">
         <v>516</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" t="s">
         <v>517</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" t="s">
         <v>518</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" t="s">
         <v>47</v>
       </c>
       <c r="I111" s="3">
@@ -11941,46 +11269,39 @@
       <c r="V111" s="3">
         <v>10</v>
       </c>
-      <c r="W111" s="4" t="s">
+      <c r="W111" t="s">
         <v>489</v>
       </c>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
-      <c r="AA111" s="4"/>
-      <c r="AB111" s="4"/>
-      <c r="AC111" s="4"/>
-      <c r="AD111" s="4"/>
-      <c r="AE111" s="4" t="s">
+      <c r="AE111" t="s">
         <v>41</v>
       </c>
       <c r="AF111" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>10</v>
       </c>
       <c r="B112" s="3">
         <v>40</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" t="s">
         <v>519</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" t="s">
         <v>88</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" t="s">
         <v>89</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" t="s">
         <v>520</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H112" t="s">
         <v>47</v>
       </c>
       <c r="I112" s="3">
@@ -12025,46 +11346,39 @@
       <c r="V112" s="3">
         <v>10</v>
       </c>
-      <c r="W112" s="4" t="s">
+      <c r="W112" t="s">
         <v>489</v>
       </c>
-      <c r="X112" s="4"/>
-      <c r="Y112" s="4"/>
-      <c r="Z112" s="4"/>
-      <c r="AA112" s="4"/>
-      <c r="AB112" s="4"/>
-      <c r="AC112" s="4"/>
-      <c r="AD112" s="4"/>
-      <c r="AE112" s="4" t="s">
+      <c r="AE112" t="s">
         <v>41</v>
       </c>
       <c r="AF112" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>10</v>
       </c>
       <c r="B113" s="3">
         <v>40</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>519</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" t="s">
         <v>521</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" t="s">
         <v>522</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" t="s">
         <v>523</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" t="s">
         <v>71</v>
       </c>
       <c r="I113" s="3">
@@ -12109,58 +11423,57 @@
       <c r="V113" s="3">
         <v>5</v>
       </c>
-      <c r="W113" s="4" t="s">
+      <c r="W113" t="s">
         <v>487</v>
       </c>
-      <c r="X113" s="4" t="s">
+      <c r="X113" t="s">
         <v>487</v>
       </c>
-      <c r="Y113" s="4" t="s">
+      <c r="Y113" t="s">
         <v>511</v>
       </c>
-      <c r="Z113" s="4" t="s">
+      <c r="Z113" t="s">
         <v>505</v>
       </c>
-      <c r="AA113" s="4" t="s">
+      <c r="AA113" t="s">
         <v>524</v>
       </c>
-      <c r="AB113" s="4" t="s">
+      <c r="AB113" t="s">
         <v>525</v>
       </c>
-      <c r="AC113" s="5" t="s">
+      <c r="AC113" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AD113" s="4"/>
-      <c r="AE113" s="4" t="s">
+      <c r="AE113" t="s">
         <v>41</v>
       </c>
       <c r="AF113" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>10</v>
       </c>
       <c r="B114" s="3">
         <v>40</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" t="s">
         <v>519</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" t="s">
         <v>43</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" t="s">
         <v>527</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" t="s">
         <v>528</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" t="s">
         <v>529</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" t="s">
         <v>76</v>
       </c>
       <c r="I114" s="3">
@@ -12205,46 +11518,39 @@
       <c r="V114" s="3">
         <v>20</v>
       </c>
-      <c r="W114" s="4" t="s">
+      <c r="W114" t="s">
         <v>530</v>
       </c>
-      <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
-      <c r="Z114" s="4"/>
-      <c r="AA114" s="4"/>
-      <c r="AB114" s="4"/>
-      <c r="AC114" s="4"/>
-      <c r="AD114" s="4"/>
-      <c r="AE114" s="4" t="s">
+      <c r="AE114" t="s">
         <v>41</v>
       </c>
       <c r="AF114" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>10</v>
       </c>
       <c r="B115" s="3">
         <v>40</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>531</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" t="s">
         <v>532</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" t="s">
         <v>533</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H115" t="s">
         <v>47</v>
       </c>
       <c r="I115" s="3">
@@ -12289,46 +11595,39 @@
       <c r="V115" s="3">
         <v>10</v>
       </c>
-      <c r="W115" s="4" t="s">
+      <c r="W115" t="s">
         <v>505</v>
       </c>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="4"/>
-      <c r="AA115" s="4"/>
-      <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
-      <c r="AD115" s="4"/>
-      <c r="AE115" s="4" t="s">
+      <c r="AE115" t="s">
         <v>41</v>
       </c>
       <c r="AF115" s="3">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>10</v>
       </c>
       <c r="B116" s="3">
         <v>41</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" t="s">
         <v>415</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" t="s">
         <v>534</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" t="s">
         <v>535</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" t="s">
         <v>76</v>
       </c>
       <c r="I116" s="3">
@@ -12373,58 +11672,57 @@
       <c r="V116" s="3">
         <v>20</v>
       </c>
-      <c r="W116" s="4" t="s">
+      <c r="W116" t="s">
         <v>489</v>
       </c>
-      <c r="X116" s="4" t="s">
+      <c r="X116" t="s">
         <v>489</v>
       </c>
-      <c r="Y116" s="4" t="s">
+      <c r="Y116" t="s">
         <v>536</v>
       </c>
-      <c r="Z116" s="4" t="s">
+      <c r="Z116" t="s">
         <v>505</v>
       </c>
-      <c r="AA116" s="4" t="s">
+      <c r="AA116" t="s">
         <v>524</v>
       </c>
-      <c r="AB116" s="4" t="s">
+      <c r="AB116" t="s">
         <v>525</v>
       </c>
-      <c r="AC116" s="5" t="s">
+      <c r="AC116" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="4" t="s">
+      <c r="AE116" t="s">
         <v>41</v>
       </c>
       <c r="AF116" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>10</v>
       </c>
       <c r="B117" s="3">
         <v>41</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>538</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" t="s">
         <v>201</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" t="s">
         <v>267</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" t="s">
         <v>268</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" t="s">
         <v>539</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" t="s">
         <v>47</v>
       </c>
       <c r="I117" s="3">
@@ -12469,46 +11767,39 @@
       <c r="V117" s="3">
         <v>10</v>
       </c>
-      <c r="W117" s="4" t="s">
+      <c r="W117" t="s">
         <v>505</v>
       </c>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4" t="s">
+      <c r="AE117" t="s">
         <v>41</v>
       </c>
       <c r="AF117" s="3">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>10</v>
       </c>
       <c r="B118" s="3">
         <v>41</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" t="s">
         <v>538</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" t="s">
         <v>43</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" t="s">
         <v>188</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" t="s">
         <v>540</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" t="s">
         <v>541</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H118" t="s">
         <v>76</v>
       </c>
       <c r="I118" s="3">
@@ -12553,46 +11844,39 @@
       <c r="V118" s="3">
         <v>20</v>
       </c>
-      <c r="W118" s="4" t="s">
+      <c r="W118" t="s">
         <v>505</v>
       </c>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-      <c r="AB118" s="4"/>
-      <c r="AC118" s="4"/>
-      <c r="AD118" s="4"/>
-      <c r="AE118" s="4" t="s">
+      <c r="AE118" t="s">
         <v>41</v>
       </c>
       <c r="AF118" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>10</v>
       </c>
       <c r="B119" s="3">
         <v>41</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" t="s">
         <v>87</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" t="s">
         <v>542</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" t="s">
         <v>543</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" t="s">
         <v>544</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" t="s">
         <v>47</v>
       </c>
       <c r="I119" s="3">
@@ -12637,58 +11921,57 @@
       <c r="V119" s="3">
         <v>10</v>
       </c>
-      <c r="W119" s="4" t="s">
+      <c r="W119" t="s">
         <v>505</v>
       </c>
-      <c r="X119" s="4" t="s">
+      <c r="X119" t="s">
         <v>505</v>
       </c>
-      <c r="Y119" s="4" t="s">
+      <c r="Y119" t="s">
         <v>545</v>
       </c>
-      <c r="Z119" s="4" t="s">
+      <c r="Z119" t="s">
         <v>525</v>
       </c>
-      <c r="AA119" s="4" t="s">
+      <c r="AA119" t="s">
         <v>546</v>
       </c>
-      <c r="AB119" s="4" t="s">
+      <c r="AB119" t="s">
         <v>547</v>
       </c>
-      <c r="AC119" s="5" t="s">
+      <c r="AC119" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="AD119" s="4"/>
-      <c r="AE119" s="4" t="s">
+      <c r="AE119" t="s">
         <v>41</v>
       </c>
       <c r="AF119" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>10</v>
       </c>
       <c r="B120" s="3">
         <v>42</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" t="s">
         <v>48</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" t="s">
         <v>43</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" t="s">
         <v>284</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" t="s">
         <v>549</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" t="s">
         <v>550</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" t="s">
         <v>52</v>
       </c>
       <c r="I120" s="3">
@@ -12733,46 +12016,39 @@
       <c r="V120" s="3">
         <v>50</v>
       </c>
-      <c r="W120" s="4" t="s">
+      <c r="W120" t="s">
         <v>525</v>
       </c>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
-      <c r="AA120" s="4"/>
-      <c r="AB120" s="4"/>
-      <c r="AC120" s="4"/>
-      <c r="AD120" s="4"/>
-      <c r="AE120" s="4" t="s">
+      <c r="AE120" t="s">
         <v>41</v>
       </c>
       <c r="AF120" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>10</v>
       </c>
       <c r="B121" s="3">
         <v>41</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" t="s">
         <v>43</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" t="s">
         <v>551</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" t="s">
         <v>552</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" t="s">
         <v>553</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="H121" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="3">
@@ -12817,58 +12093,57 @@
       <c r="V121" s="3">
         <v>40</v>
       </c>
-      <c r="W121" s="4" t="s">
+      <c r="W121" t="s">
         <v>505</v>
       </c>
-      <c r="X121" s="4" t="s">
+      <c r="X121" t="s">
         <v>505</v>
       </c>
-      <c r="Y121" s="4" t="s">
+      <c r="Y121" t="s">
         <v>545</v>
       </c>
-      <c r="Z121" s="4" t="s">
+      <c r="Z121" t="s">
         <v>525</v>
       </c>
-      <c r="AA121" s="4" t="s">
+      <c r="AA121" t="s">
         <v>546</v>
       </c>
-      <c r="AB121" s="4" t="s">
+      <c r="AB121" t="s">
         <v>547</v>
       </c>
-      <c r="AC121" s="5" t="s">
+      <c r="AC121" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="4" t="s">
+      <c r="AE121" t="s">
         <v>41</v>
       </c>
       <c r="AF121" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>11</v>
       </c>
       <c r="B122" s="3">
         <v>47</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" t="s">
         <v>29</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" t="s">
         <v>176</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" t="s">
         <v>555</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" t="s">
         <v>556</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H122" t="s">
         <v>52</v>
       </c>
       <c r="I122" s="3">
@@ -12913,46 +12188,39 @@
       <c r="V122" s="3">
         <v>50</v>
       </c>
-      <c r="W122" s="4" t="s">
+      <c r="W122" t="s">
         <v>525</v>
       </c>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="4" t="s">
+      <c r="AE122" t="s">
         <v>41</v>
       </c>
       <c r="AF122" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>11</v>
       </c>
       <c r="B123" s="3">
         <v>48</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" t="s">
         <v>369</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" t="s">
         <v>87</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" t="s">
         <v>99</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" t="s">
         <v>557</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" t="s">
         <v>558</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" t="s">
         <v>71</v>
       </c>
       <c r="I123" s="3">
@@ -12997,58 +12265,57 @@
       <c r="V123" s="3">
         <v>5</v>
       </c>
-      <c r="W123" s="4" t="s">
+      <c r="W123" t="s">
         <v>525</v>
       </c>
-      <c r="X123" s="4" t="s">
+      <c r="X123" t="s">
         <v>525</v>
       </c>
-      <c r="Y123" s="4" t="s">
+      <c r="Y123" t="s">
         <v>559</v>
       </c>
-      <c r="Z123" s="4" t="s">
+      <c r="Z123" t="s">
         <v>547</v>
       </c>
-      <c r="AA123" s="4" t="s">
+      <c r="AA123" t="s">
         <v>560</v>
       </c>
-      <c r="AB123" s="4" t="s">
+      <c r="AB123" t="s">
         <v>561</v>
       </c>
-      <c r="AC123" s="5" t="s">
+      <c r="AC123" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="AD123" s="4"/>
-      <c r="AE123" s="4" t="s">
+      <c r="AE123" t="s">
         <v>41</v>
       </c>
       <c r="AF123" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>11</v>
       </c>
       <c r="B124" s="3">
         <v>48</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" t="s">
         <v>136</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" t="s">
         <v>563</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" t="s">
         <v>564</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" t="s">
         <v>565</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="H124" t="s">
         <v>76</v>
       </c>
       <c r="I124" s="3">
@@ -13093,46 +12360,39 @@
       <c r="V124" s="3">
         <v>20</v>
       </c>
-      <c r="W124" s="4" t="s">
+      <c r="W124" t="s">
         <v>547</v>
       </c>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-      <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
-      <c r="AD124" s="4"/>
-      <c r="AE124" s="4" t="s">
+      <c r="AE124" t="s">
         <v>41</v>
       </c>
       <c r="AF124" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>11</v>
       </c>
       <c r="B125" s="3">
         <v>48</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" t="s">
         <v>566</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" t="s">
         <v>105</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" t="s">
         <v>567</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" t="s">
         <v>568</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" t="s">
         <v>569</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" t="s">
         <v>76</v>
       </c>
       <c r="I125" s="3">
@@ -13177,46 +12437,39 @@
       <c r="V125" s="3">
         <v>20</v>
       </c>
-      <c r="W125" s="4" t="s">
+      <c r="W125" t="s">
         <v>547</v>
       </c>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="4" t="s">
+      <c r="AE125" t="s">
         <v>41</v>
       </c>
       <c r="AF125" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>11</v>
       </c>
       <c r="B126" s="3">
         <v>48</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" t="s">
         <v>566</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" t="s">
         <v>29</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" t="s">
         <v>49</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" t="s">
         <v>570</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G126" t="s">
         <v>571</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" t="s">
         <v>80</v>
       </c>
       <c r="I126" s="3">
@@ -13261,46 +12514,39 @@
       <c r="V126" s="3">
         <v>30</v>
       </c>
-      <c r="W126" s="4" t="s">
+      <c r="W126" t="s">
         <v>547</v>
       </c>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
-      <c r="AD126" s="4"/>
-      <c r="AE126" s="4" t="s">
+      <c r="AE126" t="s">
         <v>41</v>
       </c>
       <c r="AF126" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>11</v>
       </c>
       <c r="B127" s="3">
         <v>47</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" t="s">
         <v>572</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" t="s">
         <v>87</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" t="s">
         <v>573</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" t="s">
         <v>574</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" t="s">
         <v>575</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H127" t="s">
         <v>71</v>
       </c>
       <c r="I127" s="3">
@@ -13345,46 +12591,39 @@
       <c r="V127" s="3">
         <v>5</v>
       </c>
-      <c r="W127" s="4" t="s">
+      <c r="W127" t="s">
         <v>561</v>
       </c>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
-      <c r="AD127" s="4"/>
-      <c r="AE127" s="4" t="s">
+      <c r="AE127" t="s">
         <v>41</v>
       </c>
       <c r="AF127" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>11</v>
       </c>
       <c r="B128" s="3">
         <v>47</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" t="s">
         <v>86</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" t="s">
         <v>43</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" t="s">
         <v>226</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" t="s">
         <v>576</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" t="s">
         <v>577</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H128" t="s">
         <v>47</v>
       </c>
       <c r="I128" s="3">
@@ -13429,58 +12668,57 @@
       <c r="V128" s="3">
         <v>10</v>
       </c>
-      <c r="W128" s="4" t="s">
+      <c r="W128" t="s">
         <v>525</v>
       </c>
-      <c r="X128" s="4" t="s">
+      <c r="X128" t="s">
         <v>525</v>
       </c>
-      <c r="Y128" s="4" t="s">
+      <c r="Y128" t="s">
         <v>559</v>
       </c>
-      <c r="Z128" s="4" t="s">
+      <c r="Z128" t="s">
         <v>561</v>
       </c>
-      <c r="AA128" s="4" t="s">
+      <c r="AA128" t="s">
         <v>578</v>
       </c>
-      <c r="AB128" s="4" t="s">
+      <c r="AB128" t="s">
         <v>579</v>
       </c>
-      <c r="AC128" s="5" t="s">
+      <c r="AC128" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="AD128" s="4"/>
-      <c r="AE128" s="4" t="s">
+      <c r="AE128" t="s">
         <v>41</v>
       </c>
       <c r="AF128" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>11</v>
       </c>
       <c r="B129" s="3">
         <v>47</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" t="s">
         <v>123</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" t="s">
         <v>581</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" t="s">
         <v>582</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" t="s">
         <v>583</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" t="s">
         <v>76</v>
       </c>
       <c r="I129" s="3">
@@ -13525,46 +12763,39 @@
       <c r="V129" s="3">
         <v>20</v>
       </c>
-      <c r="W129" s="4" t="s">
+      <c r="W129" t="s">
         <v>561</v>
       </c>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4" t="s">
+      <c r="AE129" t="s">
         <v>41</v>
       </c>
       <c r="AF129" s="3">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>11</v>
       </c>
       <c r="B130" s="3">
         <v>47</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" t="s">
         <v>123</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" t="s">
         <v>105</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" t="s">
         <v>106</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" t="s">
         <v>377</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" t="s">
         <v>584</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="3">
@@ -13609,46 +12840,39 @@
       <c r="V130" s="3">
         <v>10</v>
       </c>
-      <c r="W130" s="4" t="s">
+      <c r="W130" t="s">
         <v>561</v>
       </c>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="4"/>
-      <c r="AE130" s="4" t="s">
+      <c r="AE130" t="s">
         <v>41</v>
       </c>
       <c r="AF130" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>11</v>
       </c>
       <c r="B131" s="3">
         <v>46</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>104</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" t="s">
         <v>87</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" t="s">
         <v>585</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" t="s">
         <v>586</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" t="s">
         <v>587</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" t="s">
         <v>47</v>
       </c>
       <c r="I131" s="3">
@@ -13693,46 +12917,39 @@
       <c r="V131" s="3">
         <v>10</v>
       </c>
-      <c r="W131" s="4" t="s">
+      <c r="W131" t="s">
         <v>561</v>
       </c>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
-      <c r="AD131" s="4"/>
-      <c r="AE131" s="4" t="s">
+      <c r="AE131" t="s">
         <v>41</v>
       </c>
       <c r="AF131" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>11</v>
       </c>
       <c r="B132" s="3">
         <v>46</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" t="s">
         <v>29</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" t="s">
         <v>129</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" t="s">
         <v>588</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G132" t="s">
         <v>589</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="H132" t="s">
         <v>62</v>
       </c>
       <c r="I132" s="3">
@@ -13777,46 +12994,39 @@
       <c r="V132" s="3">
         <v>40</v>
       </c>
-      <c r="W132" s="4" t="s">
+      <c r="W132" t="s">
         <v>561</v>
       </c>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
-      <c r="AD132" s="4"/>
-      <c r="AE132" s="4" t="s">
+      <c r="AE132" t="s">
         <v>41</v>
       </c>
       <c r="AF132" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>11</v>
       </c>
       <c r="B133" s="3">
         <v>46</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" t="s">
         <v>264</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" t="s">
         <v>590</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" t="s">
         <v>591</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" t="s">
         <v>592</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H133" t="s">
         <v>76</v>
       </c>
       <c r="I133" s="3">
@@ -13861,46 +13071,39 @@
       <c r="V133" s="3">
         <v>20</v>
       </c>
-      <c r="W133" s="4" t="s">
+      <c r="W133" t="s">
         <v>561</v>
       </c>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="4"/>
-      <c r="AE133" s="4" t="s">
+      <c r="AE133" t="s">
         <v>41</v>
       </c>
       <c r="AF133" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>11</v>
       </c>
       <c r="B134" s="3">
         <v>46</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" t="s">
         <v>581</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" t="s">
         <v>593</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" t="s">
         <v>47</v>
       </c>
       <c r="I134" s="3">
@@ -13945,58 +13148,57 @@
       <c r="V134" s="3">
         <v>10</v>
       </c>
-      <c r="W134" s="4" t="s">
+      <c r="W134" t="s">
         <v>547</v>
       </c>
-      <c r="X134" s="4" t="s">
+      <c r="X134" t="s">
         <v>547</v>
       </c>
-      <c r="Y134" s="4" t="s">
+      <c r="Y134" t="s">
         <v>594</v>
       </c>
-      <c r="Z134" s="4" t="s">
+      <c r="Z134" t="s">
         <v>579</v>
       </c>
-      <c r="AA134" s="4" t="s">
+      <c r="AA134" t="s">
         <v>595</v>
       </c>
-      <c r="AB134" s="4" t="s">
+      <c r="AB134" t="s">
         <v>596</v>
       </c>
-      <c r="AC134" s="5" t="s">
+      <c r="AC134" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="AD134" s="4"/>
-      <c r="AE134" s="4" t="s">
+      <c r="AE134" t="s">
         <v>41</v>
       </c>
       <c r="AF134" s="3">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>11</v>
       </c>
       <c r="B135" s="3">
         <v>46</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>119</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" t="s">
         <v>29</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" t="s">
         <v>598</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" t="s">
         <v>599</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" t="s">
         <v>76</v>
       </c>
       <c r="I135" s="3">
@@ -14041,46 +13243,39 @@
       <c r="V135" s="3">
         <v>20</v>
       </c>
-      <c r="W135" s="4" t="s">
+      <c r="W135" t="s">
         <v>579</v>
       </c>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-      <c r="AE135" s="4" t="s">
+      <c r="AE135" t="s">
         <v>41</v>
       </c>
       <c r="AF135" s="3">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>11</v>
       </c>
       <c r="B136" s="3">
         <v>46</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" t="s">
         <v>115</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" t="s">
         <v>43</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" t="s">
         <v>137</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" t="s">
         <v>600</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="G136" t="s">
         <v>601</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" t="s">
         <v>71</v>
       </c>
       <c r="I136" s="3">
@@ -14125,46 +13320,39 @@
       <c r="V136" s="3">
         <v>5</v>
       </c>
-      <c r="W136" s="4" t="s">
+      <c r="W136" t="s">
         <v>579</v>
       </c>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
-      <c r="AD136" s="4"/>
-      <c r="AE136" s="4" t="s">
+      <c r="AE136" t="s">
         <v>41</v>
       </c>
       <c r="AF136" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>11</v>
       </c>
       <c r="B137" s="3">
         <v>45</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>602</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" t="s">
         <v>43</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" t="s">
         <v>603</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" t="s">
         <v>604</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" t="s">
         <v>605</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H137" t="s">
         <v>47</v>
       </c>
       <c r="I137" s="3">
@@ -14209,46 +13397,39 @@
       <c r="V137" s="3">
         <v>10</v>
       </c>
-      <c r="W137" s="4" t="s">
+      <c r="W137" t="s">
         <v>579</v>
       </c>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="4"/>
-      <c r="AE137" s="4" t="s">
+      <c r="AE137" t="s">
         <v>41</v>
       </c>
       <c r="AF137" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>11</v>
       </c>
       <c r="B138" s="3">
         <v>45</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" t="s">
         <v>149</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" t="s">
         <v>105</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" t="s">
         <v>254</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" t="s">
         <v>255</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" t="s">
         <v>606</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H138" t="s">
         <v>47</v>
       </c>
       <c r="I138" s="3">
@@ -14293,46 +13474,39 @@
       <c r="V138" s="3">
         <v>10</v>
       </c>
-      <c r="W138" s="4" t="s">
+      <c r="W138" t="s">
         <v>579</v>
       </c>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
-      <c r="AD138" s="4"/>
-      <c r="AE138" s="4" t="s">
+      <c r="AE138" t="s">
         <v>41</v>
       </c>
       <c r="AF138" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>11</v>
       </c>
       <c r="B139" s="3">
         <v>45</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>165</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" t="s">
         <v>29</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" t="s">
         <v>124</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" t="s">
         <v>607</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" t="s">
         <v>608</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H139" t="s">
         <v>47</v>
       </c>
       <c r="I139" s="3">
@@ -14377,58 +13551,57 @@
       <c r="V139" s="3">
         <v>10</v>
       </c>
-      <c r="W139" s="4" t="s">
+      <c r="W139" t="s">
         <v>579</v>
       </c>
-      <c r="X139" s="4" t="s">
+      <c r="X139" t="s">
         <v>579</v>
       </c>
-      <c r="Y139" s="4" t="s">
+      <c r="Y139" t="s">
         <v>609</v>
       </c>
-      <c r="Z139" s="4" t="s">
+      <c r="Z139" t="s">
         <v>596</v>
       </c>
-      <c r="AA139" s="4" t="s">
+      <c r="AA139" t="s">
         <v>610</v>
       </c>
-      <c r="AB139" s="4" t="s">
+      <c r="AB139" t="s">
         <v>611</v>
       </c>
-      <c r="AC139" s="5" t="s">
+      <c r="AC139" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="AD139" s="4"/>
-      <c r="AE139" s="4" t="s">
+      <c r="AE139" t="s">
         <v>41</v>
       </c>
       <c r="AF139" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>11</v>
       </c>
       <c r="B140" s="3">
         <v>45</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" t="s">
         <v>165</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" t="s">
         <v>29</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" t="s">
         <v>350</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" t="s">
         <v>613</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" t="s">
         <v>614</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="H140" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="3">
@@ -14473,46 +13646,39 @@
       <c r="V140" s="3">
         <v>30</v>
       </c>
-      <c r="W140" s="4" t="s">
+      <c r="W140" t="s">
         <v>615</v>
       </c>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-      <c r="AB140" s="4"/>
-      <c r="AC140" s="4"/>
-      <c r="AD140" s="4"/>
-      <c r="AE140" s="4" t="s">
+      <c r="AE140" t="s">
         <v>41</v>
       </c>
       <c r="AF140" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>11</v>
       </c>
       <c r="B141" s="3">
         <v>44</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" t="s">
         <v>304</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" t="s">
         <v>43</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" t="s">
         <v>616</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" t="s">
         <v>617</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" t="s">
         <v>618</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H141" t="s">
         <v>47</v>
       </c>
       <c r="I141" s="3">
@@ -14557,46 +13723,39 @@
       <c r="V141" s="3">
         <v>10</v>
       </c>
-      <c r="W141" s="4" t="s">
+      <c r="W141" t="s">
         <v>596</v>
       </c>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-      <c r="AB141" s="4"/>
-      <c r="AC141" s="4"/>
-      <c r="AD141" s="4"/>
-      <c r="AE141" s="4" t="s">
+      <c r="AE141" t="s">
         <v>41</v>
       </c>
       <c r="AF141" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>11</v>
       </c>
       <c r="B142" s="3">
         <v>46</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" t="s">
         <v>201</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" t="s">
         <v>619</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" t="s">
         <v>620</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G142" t="s">
         <v>621</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H142" t="s">
         <v>47</v>
       </c>
       <c r="I142" s="3">
@@ -14641,42 +13800,33 @@
       <c r="V142" s="3">
         <v>10</v>
       </c>
-      <c r="W142" s="4" t="s">
+      <c r="W142" t="s">
         <v>596</v>
       </c>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-      <c r="AB142" s="4"/>
-      <c r="AC142" s="4"/>
-      <c r="AD142" s="4"/>
-      <c r="AE142" s="4" t="s">
+      <c r="AE142" t="s">
         <v>41</v>
       </c>
       <c r="AF142" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>12</v>
       </c>
       <c r="B143" s="3">
         <v>50</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" t="s">
         <v>622</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
+      <c r="F143" t="s">
         <v>623</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" t="s">
         <v>624</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H143" t="s">
         <v>625</v>
       </c>
       <c r="I143" s="3">
@@ -14721,46 +13871,39 @@
       <c r="V143" s="3">
         <v>60</v>
       </c>
-      <c r="W143" s="4" t="s">
+      <c r="W143" t="s">
         <v>611</v>
       </c>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
-      <c r="AB143" s="4"/>
-      <c r="AC143" s="4"/>
-      <c r="AD143" s="4"/>
-      <c r="AE143" s="4" t="s">
+      <c r="AE143" t="s">
         <v>41</v>
       </c>
       <c r="AF143" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>12</v>
       </c>
       <c r="B144" s="3">
         <v>49</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" t="s">
         <v>300</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" t="s">
         <v>105</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" t="s">
         <v>346</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" t="s">
         <v>626</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" t="s">
         <v>627</v>
       </c>
-      <c r="H144" s="4" t="s">
+      <c r="H144" t="s">
         <v>76</v>
       </c>
       <c r="I144" s="3">
@@ -14805,58 +13948,57 @@
       <c r="V144" s="3">
         <v>20</v>
       </c>
-      <c r="W144" s="4" t="s">
+      <c r="W144" t="s">
         <v>596</v>
       </c>
-      <c r="X144" s="4" t="s">
+      <c r="X144" t="s">
         <v>596</v>
       </c>
-      <c r="Y144" s="4" t="s">
+      <c r="Y144" t="s">
         <v>628</v>
       </c>
-      <c r="Z144" s="4" t="s">
+      <c r="Z144" t="s">
         <v>611</v>
       </c>
-      <c r="AA144" s="4" t="s">
+      <c r="AA144" t="s">
         <v>629</v>
       </c>
-      <c r="AB144" s="4" t="s">
+      <c r="AB144" t="s">
         <v>630</v>
       </c>
-      <c r="AC144" s="5" t="s">
+      <c r="AC144" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="AD144" s="4"/>
-      <c r="AE144" s="4" t="s">
+      <c r="AE144" t="s">
         <v>41</v>
       </c>
       <c r="AF144" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>12</v>
       </c>
       <c r="B145" s="3">
         <v>49</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" t="s">
         <v>300</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" t="s">
         <v>29</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" t="s">
         <v>49</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" t="s">
         <v>337</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" t="s">
         <v>632</v>
       </c>
-      <c r="H145" s="4" t="s">
+      <c r="H145" t="s">
         <v>179</v>
       </c>
       <c r="I145" s="3">
@@ -14901,110 +14043,86 @@
       <c r="V145" s="3">
         <v>30</v>
       </c>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-      <c r="AB145" s="4"/>
-      <c r="AC145" s="4"/>
-      <c r="AD145" s="4"/>
-      <c r="AE145" s="4" t="s">
+      <c r="AE145" t="s">
         <v>41</v>
       </c>
       <c r="AF145" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>12</v>
       </c>
       <c r="B146" s="3">
         <v>49</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" t="s">
         <v>455</v>
       </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4" t="s">
+      <c r="F146" t="s">
         <v>633</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="G146" t="s">
         <v>634</v>
       </c>
-      <c r="H146" s="4" t="s">
+      <c r="H146" t="s">
         <v>97</v>
       </c>
       <c r="I146" s="3">
         <v>1</v>
       </c>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-      <c r="T146" s="6"/>
-      <c r="U146" s="6"/>
-      <c r="V146" s="6"/>
-      <c r="W146" s="4" t="s">
+      <c r="W146" t="s">
         <v>611</v>
       </c>
-      <c r="X146" s="4" t="s">
+      <c r="X146" t="s">
         <v>611</v>
       </c>
-      <c r="Y146" s="4" t="s">
+      <c r="Y146" t="s">
         <v>635</v>
       </c>
-      <c r="Z146" s="4" t="s">
+      <c r="Z146" t="s">
         <v>630</v>
       </c>
-      <c r="AA146" s="4" t="s">
+      <c r="AA146" t="s">
         <v>636</v>
       </c>
-      <c r="AB146" s="4" t="s">
+      <c r="AB146" t="s">
         <v>637</v>
       </c>
-      <c r="AC146" s="5" t="s">
+      <c r="AC146" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="AD146" s="4"/>
-      <c r="AE146" s="4" t="s">
+      <c r="AE146" t="s">
         <v>41</v>
       </c>
       <c r="AF146" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>12</v>
       </c>
       <c r="B147" s="3">
         <v>50</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" t="s">
         <v>442</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" t="s">
         <v>49</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" t="s">
         <v>337</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" t="s">
         <v>639</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" t="s">
         <v>179</v>
       </c>
       <c r="I147" s="3">
@@ -15049,46 +14167,39 @@
       <c r="V147" s="3">
         <v>30</v>
       </c>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4" t="s">
+      <c r="X147" t="s">
         <v>630</v>
       </c>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4" t="s">
+      <c r="Z147" t="s">
         <v>637</v>
       </c>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4" t="s">
+      <c r="AB147" t="s">
         <v>640</v>
       </c>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-      <c r="AE147" s="4"/>
       <c r="AF147" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>12</v>
       </c>
       <c r="B148" s="3">
         <v>50</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" t="s">
         <v>622</v>
       </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4" t="s">
+      <c r="E148" t="s">
         <v>641</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" t="s">
         <v>642</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" t="s">
         <v>643</v>
       </c>
-      <c r="H148" s="4" t="s">
+      <c r="H148" t="s">
         <v>71</v>
       </c>
       <c r="I148" s="3">
@@ -15133,17 +14244,10 @@
       <c r="V148" s="3">
         <v>5</v>
       </c>
-      <c r="W148" s="4" t="s">
+      <c r="W148" t="s">
         <v>630</v>
       </c>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-      <c r="AB148" s="4"/>
-      <c r="AC148" s="4"/>
-      <c r="AD148" s="4"/>
-      <c r="AE148" s="4" t="s">
+      <c r="AE148" t="s">
         <v>41</v>
       </c>
       <c r="AF148" s="3">

--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FFBad\Season planner\BWF_TOURNAMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB963D-623C-48BC-8A65-74C976C51401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCC190-E7E7-4C1F-A82B-AC3923D73F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2046,7 +2046,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:AF148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FFBad\Season planner\BWF_TOURNAMENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDCC190-E7E7-4C1F-A82B-AC3923D73F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1957,7 +1951,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1975,7 +1970,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2029,38 +2024,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2071,10 +2069,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2112,71 +2110,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2204,7 +2202,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2227,11 +2225,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2240,13 +2238,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2256,7 +2254,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2265,7 +2263,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2274,7 +2272,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2282,10 +2280,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2350,26 +2348,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="22" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,16 +2420,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="1">
         <v>1</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="1">
         <v>2</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="1">
         <v>3</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="1">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2467,29 +2490,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="3">
@@ -2534,60 +2557,60 @@
       <c r="V2" s="3">
         <v>60</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="3">
@@ -2632,39 +2655,46 @@
       <c r="V3" s="3">
         <v>10</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="3">
@@ -2709,57 +2739,58 @@
       <c r="V4" s="3">
         <v>50</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="3">
@@ -2804,57 +2835,58 @@
       <c r="V5" s="3">
         <v>40</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3">
@@ -2899,39 +2931,46 @@
       <c r="V6" s="3">
         <v>5</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="3">
@@ -2976,39 +3015,46 @@
       <c r="V7" s="3">
         <v>20</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="3">
@@ -3053,60 +3099,60 @@
       <c r="V8" s="3">
         <v>30</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="3">
@@ -3151,77 +3197,104 @@
       <c r="V9" s="3">
         <v>20</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="3">
@@ -3266,115 +3339,162 @@
       <c r="V11" s="3">
         <v>20</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="W12" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="W13" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="3">
@@ -3419,115 +3539,162 @@
       <c r="V14" s="3">
         <v>20</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="W15" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="W16" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="3">
@@ -3572,39 +3739,46 @@
       <c r="V17" s="3">
         <v>20</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="3">
@@ -3649,57 +3823,58 @@
       <c r="V18" s="3">
         <v>20</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AC18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="3">
@@ -3744,39 +3919,46 @@
       <c r="V19" s="3">
         <v>30</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="3">
@@ -3821,39 +4003,46 @@
       <c r="V20" s="3">
         <v>20</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="3">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="3">
@@ -3898,57 +4087,58 @@
       <c r="V21" s="3">
         <v>30</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AC21" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="3">
@@ -3993,57 +4183,58 @@
       <c r="V22" s="3">
         <v>10</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AC22" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="3">
@@ -4088,57 +4279,58 @@
       <c r="V23" s="3">
         <v>60</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AC23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24" s="3">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I24" s="3">
@@ -4183,39 +4375,46 @@
       <c r="V24" s="3">
         <v>5</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="3">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="3">
@@ -4260,39 +4459,46 @@
       <c r="V25" s="3">
         <v>30</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I26" s="3">
@@ -4337,60 +4543,60 @@
       <c r="V26" s="3">
         <v>20</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z26" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AA26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AC26" s="4" t="s">
+      <c r="AC26" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AD26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AE26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
         <v>3</v>
       </c>
       <c r="B27" s="3">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I27" s="3">
@@ -4435,39 +4641,46 @@
       <c r="V27" s="3">
         <v>30</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3">
         <v>4</v>
       </c>
       <c r="B28" s="3">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="3">
@@ -4512,60 +4725,60 @@
       <c r="V28" s="3">
         <v>30</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Z28" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AA28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AC28" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AD28" s="4" t="s">
+      <c r="AD28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
         <v>4</v>
       </c>
       <c r="B29" s="3">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="3">
@@ -4610,39 +4823,46 @@
       <c r="V29" s="3">
         <v>10</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3">
         <v>4</v>
       </c>
       <c r="B30" s="3">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="3">
@@ -4687,36 +4907,44 @@
       <c r="V30" s="3">
         <v>60</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3">
         <v>4</v>
       </c>
       <c r="B31" s="3">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="3">
@@ -4761,39 +4989,46 @@
       <c r="V31" s="3">
         <v>30</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="3">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="3">
@@ -4838,39 +5073,46 @@
       <c r="V32" s="3">
         <v>40</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W32" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3">
         <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>22</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I33" s="3">
@@ -4915,39 +5157,46 @@
       <c r="V33" s="3">
         <v>5</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="3">
         <v>22</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I34" s="3">
@@ -4992,39 +5241,46 @@
       <c r="V34" s="3">
         <v>5</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3">
         <v>5</v>
       </c>
       <c r="B35" s="3">
         <v>22</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I35" s="3">
@@ -5069,42 +5325,48 @@
       <c r="V35" s="3">
         <v>5</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AC35" s="4" t="s">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF35" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3">
         <v>5</v>
       </c>
       <c r="B36" s="3">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I36" s="3">
@@ -5149,39 +5411,46 @@
       <c r="V36" s="3">
         <v>10</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W36" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3">
         <v>5</v>
       </c>
       <c r="B37" s="3">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="3">
@@ -5226,57 +5495,58 @@
       <c r="V37" s="3">
         <v>40</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W37" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="X37" t="s">
+      <c r="X37" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Z37" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AA37" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AB37" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AC37" s="4" t="s">
+      <c r="AC37" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF37" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38" s="3">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="3">
@@ -5321,95 +5591,116 @@
       <c r="V38" s="3">
         <v>20</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W38" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3">
         <v>5</v>
       </c>
       <c r="B39" s="3">
         <v>19</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="4" t="s">
         <v>232</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="W39" t="s">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y39" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Z39" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AA39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AB39" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AC39" s="4" t="s">
+      <c r="AC39" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3">
         <v>5</v>
       </c>
       <c r="B40" s="3">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="3">
@@ -5454,39 +5745,46 @@
       <c r="V40" s="3">
         <v>10</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3">
         <v>5</v>
       </c>
       <c r="B41" s="3">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="3">
@@ -5531,39 +5829,46 @@
       <c r="V41" s="3">
         <v>10</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3">
         <v>5</v>
       </c>
       <c r="B42" s="3">
         <v>18</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="3">
@@ -5608,39 +5913,46 @@
       <c r="V42" s="3">
         <v>20</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W42" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3">
         <v>6</v>
       </c>
       <c r="B43" s="3">
         <v>26</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I43" s="3">
@@ -5685,39 +5997,46 @@
       <c r="V43" s="3">
         <v>20</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF43" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3">
         <v>6</v>
       </c>
       <c r="B44" s="3">
         <v>26</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I44" s="3">
@@ -5762,39 +6081,46 @@
       <c r="V44" s="3">
         <v>40</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3">
         <v>6</v>
       </c>
       <c r="B45" s="3">
         <v>25</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I45" s="3">
@@ -5839,57 +6165,58 @@
       <c r="V45" s="3">
         <v>5</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X45" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Z45" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA45" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AC45" s="4" t="s">
+      <c r="AC45" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF45" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3">
         <v>6</v>
       </c>
       <c r="B46" s="3">
         <v>25</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I46" s="3">
@@ -5934,39 +6261,46 @@
       <c r="V46" s="3">
         <v>30</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF46" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3">
         <v>6</v>
       </c>
       <c r="B47" s="3">
         <v>24</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I47" s="3">
@@ -6011,39 +6345,46 @@
       <c r="V47" s="3">
         <v>20</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF47" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3">
         <v>6</v>
       </c>
       <c r="B48" s="3">
         <v>24</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I48" s="3">
@@ -6088,36 +6429,44 @@
       <c r="V48" s="3">
         <v>5</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W48" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3">
         <v>6</v>
       </c>
       <c r="B49" s="3">
         <v>24</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I49" s="3">
@@ -6162,39 +6511,46 @@
       <c r="V49" s="3">
         <v>20</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3">
         <v>6</v>
       </c>
       <c r="B50" s="3">
         <v>25</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="3">
@@ -6239,57 +6595,58 @@
       <c r="V50" s="3">
         <v>20</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="X50" t="s">
+      <c r="X50" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y50" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Z50" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AA50" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB50" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AC50" s="4" t="s">
+      <c r="AC50" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF50" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3">
         <v>6</v>
       </c>
       <c r="B51" s="3">
         <v>23</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I51" s="3">
@@ -6334,39 +6691,46 @@
       <c r="V51" s="3">
         <v>5</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF51" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3">
         <v>6</v>
       </c>
       <c r="B52" s="3">
         <v>23</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I52" s="3">
@@ -6411,39 +6775,46 @@
       <c r="V52" s="3">
         <v>20</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W52" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3">
         <v>6</v>
       </c>
       <c r="B53" s="3">
         <v>23</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I53" s="3">
@@ -6488,36 +6859,44 @@
       <c r="V53" s="3">
         <v>10</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3">
         <v>6</v>
       </c>
       <c r="B54" s="3">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I54" s="3">
@@ -6562,57 +6941,58 @@
       <c r="V54" s="3">
         <v>20</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="X54" t="s">
+      <c r="X54" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y54" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Z54" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AA54" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AB54" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="AC54" s="4" t="s">
+      <c r="AC54" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3">
         <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>23</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I55" s="3">
@@ -6657,39 +7037,46 @@
       <c r="V55" s="3">
         <v>50</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF55" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3">
         <v>6</v>
       </c>
       <c r="B56" s="3">
         <v>23</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I56" s="3">
@@ -6734,39 +7121,46 @@
       <c r="V56" s="3">
         <v>20</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3">
         <v>6</v>
       </c>
       <c r="B57" s="3">
         <v>22</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I57" s="3">
@@ -6811,36 +7205,44 @@
       <c r="V57" s="3">
         <v>20</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3">
         <v>6</v>
       </c>
       <c r="B58" s="3">
         <v>24</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I58" s="3">
@@ -6885,39 +7287,46 @@
       <c r="V58" s="3">
         <v>60</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF58" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3">
         <v>7</v>
       </c>
       <c r="B59" s="3">
         <v>30</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="4" t="s">
         <v>312</v>
       </c>
       <c r="I59" s="3">
@@ -6962,54 +7371,56 @@
       <c r="V59" s="3">
         <v>60</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W59" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="X59" t="s">
+      <c r="X59" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Y59" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Z59" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AA59" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AB59" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AC59" s="4" t="s">
+      <c r="AC59" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AE59" t="s">
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF59" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3">
         <v>7</v>
       </c>
       <c r="B60" s="3">
         <v>30</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I60" s="3">
@@ -7054,39 +7465,46 @@
       <c r="V60" s="3">
         <v>20</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF60" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3">
         <v>7</v>
       </c>
       <c r="B61" s="3">
         <v>30</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I61" s="3">
@@ -7131,57 +7549,58 @@
       <c r="V61" s="3">
         <v>50</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="X61" t="s">
+      <c r="X61" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Y61" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Z61" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AA61" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AB61" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AC61" s="4" t="s">
+      <c r="AC61" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF61" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3">
         <v>7</v>
       </c>
       <c r="B62" s="3">
         <v>29</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I62" s="3">
@@ -7226,57 +7645,58 @@
       <c r="V62" s="3">
         <v>10</v>
       </c>
-      <c r="W62" t="s">
+      <c r="W62" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="X62" t="s">
+      <c r="X62" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Y62" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Z62" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AA62" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB62" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AC62" s="4" t="s">
+      <c r="AC62" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF62" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3">
         <v>7</v>
       </c>
       <c r="B63" s="3">
         <v>28</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I63" s="3">
@@ -7321,39 +7741,46 @@
       <c r="V63" s="3">
         <v>30</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF63" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3">
         <v>7</v>
       </c>
       <c r="B64" s="3">
         <v>27</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I64" s="3">
@@ -7398,57 +7825,58 @@
       <c r="V64" s="3">
         <v>5</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W64" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X64" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Y64" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Z64" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AA64" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB64" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AC64" s="4" t="s">
+      <c r="AC64" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF64" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3">
         <v>7</v>
       </c>
       <c r="B65" s="3">
         <v>27</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I65" s="3">
@@ -7493,39 +7921,46 @@
       <c r="V65" s="3">
         <v>40</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF65" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3">
         <v>7</v>
       </c>
       <c r="B66" s="3">
         <v>29</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="3">
@@ -7570,57 +8005,58 @@
       <c r="V66" s="3">
         <v>40</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="X66" t="s">
+      <c r="X66" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Y66" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Z66" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AA66" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB66" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AC66" s="4" t="s">
+      <c r="AC66" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3">
         <v>8</v>
       </c>
       <c r="B67" s="3">
         <v>34</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I67" s="3">
@@ -7665,57 +8101,58 @@
       <c r="V67" s="3">
         <v>10</v>
       </c>
-      <c r="W67" t="s">
+      <c r="W67" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="X67" t="s">
+      <c r="X67" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Y67" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Z67" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AA67" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AB67" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AC67" s="4" t="s">
+      <c r="AC67" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3">
         <v>8</v>
       </c>
       <c r="B68" s="3">
         <v>35</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I68" s="3">
@@ -7760,39 +8197,46 @@
       <c r="V68" s="3">
         <v>20</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF68" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3">
         <v>8</v>
       </c>
       <c r="B69" s="3">
         <v>35</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I69" s="3">
@@ -7837,57 +8281,58 @@
       <c r="V69" s="3">
         <v>5</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="X69" t="s">
+      <c r="X69" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Y69" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Z69" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AA69" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AB69" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AC69" s="4" t="s">
+      <c r="AC69" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF69" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3">
         <v>8</v>
       </c>
       <c r="B70" s="3">
         <v>35</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I70" s="3">
@@ -7932,39 +8377,46 @@
       <c r="V70" s="3">
         <v>20</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3">
         <v>8</v>
       </c>
       <c r="B71" s="3">
         <v>35</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I71" s="3">
@@ -8009,39 +8461,46 @@
       <c r="V71" s="3">
         <v>5</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3">
         <v>8</v>
       </c>
       <c r="B72" s="3">
         <v>34</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="4" t="s">
         <v>382</v>
       </c>
       <c r="I72" s="3">
@@ -8086,39 +8545,46 @@
       <c r="V72" s="3">
         <v>65</v>
       </c>
-      <c r="W72" t="s">
+      <c r="W72" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF72" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3">
         <v>8</v>
       </c>
       <c r="B73" s="3">
         <v>34</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I73" s="3">
@@ -8163,39 +8629,46 @@
       <c r="V73" s="3">
         <v>10</v>
       </c>
-      <c r="W73" t="s">
+      <c r="W73" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF73" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3">
         <v>8</v>
       </c>
       <c r="B74" s="3">
         <v>33</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I74" s="3">
@@ -8240,57 +8713,58 @@
       <c r="V74" s="3">
         <v>10</v>
       </c>
-      <c r="W74" t="s">
+      <c r="W74" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="X74" t="s">
+      <c r="X74" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Y74" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Z74" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AA74" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AB74" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AC74" s="4" t="s">
+      <c r="AC74" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3">
         <v>8</v>
       </c>
       <c r="B75" s="3">
         <v>33</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I75" s="3">
@@ -8335,39 +8809,46 @@
       <c r="V75" s="3">
         <v>10</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF75" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3">
         <v>8</v>
       </c>
       <c r="B76" s="3">
         <v>33</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="3">
@@ -8412,39 +8893,46 @@
       <c r="V76" s="3">
         <v>10</v>
       </c>
-      <c r="W76" t="s">
+      <c r="W76" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF76" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3">
         <v>8</v>
       </c>
       <c r="B77" s="3">
         <v>32</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I77" s="3">
@@ -8489,39 +8977,46 @@
       <c r="V77" s="3">
         <v>10</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W77" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF77" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3">
         <v>8</v>
       </c>
       <c r="B78" s="3">
         <v>32</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I78" s="3">
@@ -8566,39 +9061,46 @@
       <c r="V78" s="3">
         <v>30</v>
       </c>
-      <c r="W78" t="s">
+      <c r="W78" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF78" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3">
         <v>8</v>
       </c>
       <c r="B79" s="3">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I79" s="3">
@@ -8643,39 +9145,46 @@
       <c r="V79" s="3">
         <v>5</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W79" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AE79" t="s">
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF79" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3">
         <v>8</v>
       </c>
       <c r="B80" s="3">
         <v>31</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I80" s="3">
@@ -8720,39 +9229,46 @@
       <c r="V80" s="3">
         <v>40</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF80" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3">
         <v>9</v>
       </c>
       <c r="B81" s="3">
         <v>39</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I81" s="3">
@@ -8797,57 +9313,58 @@
       <c r="V81" s="3">
         <v>5</v>
       </c>
-      <c r="W81" t="s">
+      <c r="W81" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="X81" t="s">
+      <c r="X81" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Y81" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Z81" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AA81" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AB81" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AC81" s="4" t="s">
+      <c r="AC81" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF81" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3">
         <v>9</v>
       </c>
       <c r="B82" s="3">
         <v>39</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I82" s="3">
@@ -8892,57 +9409,58 @@
       <c r="V82" s="3">
         <v>5</v>
       </c>
-      <c r="W82" t="s">
+      <c r="W82" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="X82" t="s">
+      <c r="X82" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Y82" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Z82" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="AA82" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AB82" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AC82" s="4" t="s">
+      <c r="AC82" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF82" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3">
         <v>9</v>
       </c>
       <c r="B83" s="3">
         <v>39</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I83" s="3">
@@ -8987,39 +9505,46 @@
       <c r="V83" s="3">
         <v>30</v>
       </c>
-      <c r="W83" t="s">
+      <c r="W83" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AE83" t="s">
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF83" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3">
         <v>9</v>
       </c>
       <c r="B84" s="3">
         <v>38</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I84" s="3">
@@ -9064,39 +9589,46 @@
       <c r="V84" s="3">
         <v>10</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3">
         <v>9</v>
       </c>
       <c r="B85" s="3">
         <v>38</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I85" s="3">
@@ -9141,39 +9673,46 @@
       <c r="V85" s="3">
         <v>20</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF85" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3">
         <v>9</v>
       </c>
       <c r="B86" s="3">
         <v>37</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I86" s="3">
@@ -9218,57 +9757,58 @@
       <c r="V86" s="3">
         <v>20</v>
       </c>
-      <c r="W86" t="s">
+      <c r="W86" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="X86" t="s">
+      <c r="X86" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Y86" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Z86" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AA86" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AB86" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AC86" s="4" t="s">
+      <c r="AC86" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AD86" s="4"/>
+      <c r="AE86" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF86" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3">
         <v>9</v>
       </c>
       <c r="B87" s="3">
         <v>37</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I87" s="3">
@@ -9313,57 +9853,58 @@
       <c r="V87" s="3">
         <v>30</v>
       </c>
-      <c r="W87" t="s">
+      <c r="W87" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="X87" t="s">
+      <c r="X87" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Y87" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Z87" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AA87" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AB87" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AC87" s="4" t="s">
+      <c r="AC87" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AD87" s="4"/>
+      <c r="AE87" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF87" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3">
         <v>9</v>
       </c>
       <c r="B88" s="3">
         <v>38</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I88" s="3">
@@ -9408,57 +9949,58 @@
       <c r="V88" s="3">
         <v>10</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="X88" t="s">
+      <c r="X88" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Y88" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Z88" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AA88" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AB88" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AC88" s="4" t="s">
+      <c r="AC88" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AD88" s="4"/>
+      <c r="AE88" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF88" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3">
         <v>9</v>
       </c>
       <c r="B89" s="3">
         <v>37</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="4" t="s">
         <v>382</v>
       </c>
       <c r="I89" s="3">
@@ -9503,39 +10045,46 @@
       <c r="V89" s="3">
         <v>65</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AE89" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3">
         <v>9</v>
       </c>
       <c r="B90" s="3">
         <v>36</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I90" s="3">
@@ -9580,39 +10129,46 @@
       <c r="V90" s="3">
         <v>5</v>
       </c>
-      <c r="W90" t="s">
+      <c r="W90" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="4"/>
+      <c r="AE90" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF90" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3">
         <v>9</v>
       </c>
       <c r="B91" s="3">
         <v>36</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I91" s="3">
@@ -9657,39 +10213,46 @@
       <c r="V91" s="3">
         <v>5</v>
       </c>
-      <c r="W91" t="s">
+      <c r="W91" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AE91" t="s">
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF91" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3">
         <v>9</v>
       </c>
       <c r="B92" s="3">
         <v>36</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I92" s="3">
@@ -9734,39 +10297,46 @@
       <c r="V92" s="3">
         <v>20</v>
       </c>
-      <c r="W92" t="s">
+      <c r="W92" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF92" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3">
         <v>9</v>
       </c>
       <c r="B93" s="3">
         <v>36</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I93" s="3">
@@ -9811,57 +10381,58 @@
       <c r="V93" s="3">
         <v>30</v>
       </c>
-      <c r="W93" t="s">
+      <c r="W93" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="X93" t="s">
+      <c r="X93" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Y93" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Z93" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="AA93" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AB93" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AC93" s="4" t="s">
+      <c r="AC93" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF93" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3">
         <v>9</v>
       </c>
       <c r="B94" s="3">
         <v>36</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I94" s="3">
@@ -9906,39 +10477,46 @@
       <c r="V94" s="3">
         <v>60</v>
       </c>
-      <c r="W94" t="s">
+      <c r="W94" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+      <c r="AE94" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3">
         <v>9</v>
       </c>
       <c r="B95" s="3">
         <v>37</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I95" s="3">
@@ -9983,39 +10561,46 @@
       <c r="V95" s="3">
         <v>40</v>
       </c>
-      <c r="W95" t="s">
+      <c r="W95" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AE95" t="s">
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF95" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3">
         <v>10</v>
       </c>
       <c r="B96" s="3">
         <v>44</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I96" s="3">
@@ -10060,39 +10645,46 @@
       <c r="V96" s="3">
         <v>30</v>
       </c>
-      <c r="W96" t="s">
+      <c r="W96" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AE96" t="s">
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3">
         <v>10</v>
       </c>
       <c r="B97" s="3">
         <v>42</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="4" t="s">
         <v>476</v>
       </c>
       <c r="I97" s="3">
@@ -10137,39 +10729,46 @@
       <c r="V97" s="3">
         <v>30</v>
       </c>
-      <c r="W97" t="s">
+      <c r="W97" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF97" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3">
         <v>10</v>
       </c>
       <c r="B98" s="3">
         <v>43</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I98" s="3">
@@ -10214,39 +10813,46 @@
       <c r="V98" s="3">
         <v>50</v>
       </c>
-      <c r="W98" t="s">
+      <c r="W98" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="4"/>
+      <c r="AE98" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF98" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3">
         <v>10</v>
       </c>
       <c r="B99" s="3">
         <v>43</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I99" s="3">
@@ -10291,39 +10897,46 @@
       <c r="V99" s="3">
         <v>5</v>
       </c>
-      <c r="W99" t="s">
+      <c r="W99" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AE99" t="s">
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF99" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3">
         <v>10</v>
       </c>
       <c r="B100" s="3">
         <v>43</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I100" s="3">
@@ -10368,39 +10981,46 @@
       <c r="V100" s="3">
         <v>20</v>
       </c>
-      <c r="W100" t="s">
+      <c r="W100" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="AE100" t="s">
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4"/>
+      <c r="AE100" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF100" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3">
         <v>10</v>
       </c>
       <c r="B101" s="3">
         <v>43</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I101" s="3">
@@ -10445,57 +11065,58 @@
       <c r="V101" s="3">
         <v>5</v>
       </c>
-      <c r="W101" t="s">
+      <c r="W101" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="X101" t="s">
+      <c r="X101" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="Y101" t="s">
+      <c r="Y101" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="Z101" t="s">
+      <c r="Z101" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AA101" t="s">
+      <c r="AA101" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="AB101" t="s">
+      <c r="AB101" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AC101" s="4" t="s">
+      <c r="AC101" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="AE101" t="s">
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3">
         <v>10</v>
       </c>
       <c r="B102" s="3">
         <v>43</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I102" s="3">
@@ -10540,39 +11161,46 @@
       <c r="V102" s="3">
         <v>20</v>
       </c>
-      <c r="W102" t="s">
+      <c r="W102" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AE102" t="s">
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3">
         <v>10</v>
       </c>
       <c r="B103" s="3">
         <v>44</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I103" s="3">
@@ -10617,39 +11245,46 @@
       <c r="V103" s="3">
         <v>30</v>
       </c>
-      <c r="W103" t="s">
+      <c r="W103" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AE103" t="s">
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF103" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3">
         <v>10</v>
       </c>
       <c r="B104" s="3">
         <v>44</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I104" s="3">
@@ -10694,39 +11329,46 @@
       <c r="V104" s="3">
         <v>20</v>
       </c>
-      <c r="W104" t="s">
+      <c r="W104" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AE104" t="s">
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+      <c r="AE104" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF104" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3">
         <v>10</v>
       </c>
       <c r="B105" s="3">
         <v>42</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I105" s="3">
@@ -10771,39 +11413,46 @@
       <c r="V105" s="3">
         <v>10</v>
       </c>
-      <c r="W105" t="s">
+      <c r="W105" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AE105" t="s">
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+      <c r="AE105" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF105" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3">
         <v>10</v>
       </c>
       <c r="B106" s="3">
         <v>43</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I106" s="3">
@@ -10848,57 +11497,58 @@
       <c r="V106" s="3">
         <v>30</v>
       </c>
-      <c r="W106" t="s">
+      <c r="W106" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="X106" t="s">
+      <c r="X106" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="Y106" t="s">
+      <c r="Y106" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="Z106" t="s">
+      <c r="Z106" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="AA106" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="AB106" t="s">
+      <c r="AB106" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AC106" s="4" t="s">
+      <c r="AC106" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AE106" t="s">
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF106" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3">
         <v>10</v>
       </c>
       <c r="B107" s="3">
         <v>42</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I107" s="3">
@@ -10943,39 +11593,46 @@
       <c r="V107" s="3">
         <v>10</v>
       </c>
-      <c r="W107" t="s">
+      <c r="W107" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AE107" t="s">
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4"/>
+      <c r="AE107" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF107" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3">
         <v>10</v>
       </c>
       <c r="B108" s="3">
         <v>42</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I108" s="3">
@@ -11020,57 +11677,58 @@
       <c r="V108" s="3">
         <v>10</v>
       </c>
-      <c r="W108" t="s">
+      <c r="W108" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="X108" t="s">
+      <c r="X108" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="Y108" t="s">
+      <c r="Y108" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="Z108" t="s">
+      <c r="Z108" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AA108" t="s">
+      <c r="AA108" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="AB108" t="s">
+      <c r="AB108" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AC108" s="4" t="s">
+      <c r="AC108" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AE108" t="s">
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF108" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3">
         <v>10</v>
       </c>
       <c r="B109" s="3">
         <v>42</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I109" s="3">
@@ -11115,39 +11773,46 @@
       <c r="V109" s="3">
         <v>20</v>
       </c>
-      <c r="W109" t="s">
+      <c r="W109" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AE109" t="s">
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF109" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3">
         <v>10</v>
       </c>
       <c r="B110" s="3">
         <v>42</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I110" s="3">
@@ -11192,39 +11857,46 @@
       <c r="V110" s="3">
         <v>30</v>
       </c>
-      <c r="W110" t="s">
+      <c r="W110" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AE110" t="s">
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="4"/>
+      <c r="AE110" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF110" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3">
         <v>10</v>
       </c>
       <c r="B111" s="3">
         <v>40</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I111" s="3">
@@ -11269,39 +11941,46 @@
       <c r="V111" s="3">
         <v>10</v>
       </c>
-      <c r="W111" t="s">
+      <c r="W111" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AE111" t="s">
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4"/>
+      <c r="AE111" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF111" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3">
         <v>10</v>
       </c>
       <c r="B112" s="3">
         <v>40</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I112" s="3">
@@ -11346,39 +12025,46 @@
       <c r="V112" s="3">
         <v>10</v>
       </c>
-      <c r="W112" t="s">
+      <c r="W112" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="AE112" t="s">
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF112" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3">
         <v>10</v>
       </c>
       <c r="B113" s="3">
         <v>40</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I113" s="3">
@@ -11423,57 +12109,58 @@
       <c r="V113" s="3">
         <v>5</v>
       </c>
-      <c r="W113" t="s">
+      <c r="W113" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="X113" t="s">
+      <c r="X113" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="Y113" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="Z113" t="s">
+      <c r="Z113" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AA113" t="s">
+      <c r="AA113" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="AB113" t="s">
+      <c r="AB113" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AC113" s="4" t="s">
+      <c r="AC113" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="AE113" t="s">
+      <c r="AD113" s="4"/>
+      <c r="AE113" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF113" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3">
         <v>10</v>
       </c>
       <c r="B114" s="3">
         <v>40</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I114" s="3">
@@ -11518,39 +12205,46 @@
       <c r="V114" s="3">
         <v>20</v>
       </c>
-      <c r="W114" t="s">
+      <c r="W114" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="AE114" t="s">
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF114" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3">
         <v>10</v>
       </c>
       <c r="B115" s="3">
         <v>40</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I115" s="3">
@@ -11595,39 +12289,46 @@
       <c r="V115" s="3">
         <v>10</v>
       </c>
-      <c r="W115" t="s">
+      <c r="W115" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AE115" t="s">
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4"/>
+      <c r="AE115" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF115" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3">
         <v>10</v>
       </c>
       <c r="B116" s="3">
         <v>41</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I116" s="3">
@@ -11672,57 +12373,58 @@
       <c r="V116" s="3">
         <v>20</v>
       </c>
-      <c r="W116" t="s">
+      <c r="W116" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="X116" t="s">
+      <c r="X116" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="Y116" t="s">
+      <c r="Y116" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="Z116" t="s">
+      <c r="Z116" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AA116" t="s">
+      <c r="AA116" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="AB116" t="s">
+      <c r="AB116" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AC116" s="4" t="s">
+      <c r="AC116" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="AE116" t="s">
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF116" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3">
         <v>10</v>
       </c>
       <c r="B117" s="3">
         <v>41</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I117" s="3">
@@ -11767,39 +12469,46 @@
       <c r="V117" s="3">
         <v>10</v>
       </c>
-      <c r="W117" t="s">
+      <c r="W117" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF117" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3">
         <v>10</v>
       </c>
       <c r="B118" s="3">
         <v>41</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I118" s="3">
@@ -11844,39 +12553,46 @@
       <c r="V118" s="3">
         <v>20</v>
       </c>
-      <c r="W118" t="s">
+      <c r="W118" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="AE118" t="s">
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF118" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3">
         <v>10</v>
       </c>
       <c r="B119" s="3">
         <v>41</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I119" s="3">
@@ -11921,57 +12637,58 @@
       <c r="V119" s="3">
         <v>10</v>
       </c>
-      <c r="W119" t="s">
+      <c r="W119" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="X119" t="s">
+      <c r="X119" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="Y119" t="s">
+      <c r="Y119" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="Z119" t="s">
+      <c r="Z119" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AA119" t="s">
+      <c r="AA119" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="AB119" t="s">
+      <c r="AB119" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AC119" s="4" t="s">
+      <c r="AC119" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="AE119" t="s">
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF119" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3">
         <v>10</v>
       </c>
       <c r="B120" s="3">
         <v>42</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I120" s="3">
@@ -12016,39 +12733,46 @@
       <c r="V120" s="3">
         <v>50</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W120" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AE120" t="s">
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4"/>
+      <c r="AE120" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF120" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3">
         <v>10</v>
       </c>
       <c r="B121" s="3">
         <v>41</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="3">
@@ -12093,57 +12817,58 @@
       <c r="V121" s="3">
         <v>40</v>
       </c>
-      <c r="W121" t="s">
+      <c r="W121" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="X121" t="s">
+      <c r="X121" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="Y121" t="s">
+      <c r="Y121" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="Z121" t="s">
+      <c r="Z121" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AA121" t="s">
+      <c r="AA121" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="AB121" t="s">
+      <c r="AB121" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AC121" s="4" t="s">
+      <c r="AC121" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="AE121" t="s">
+      <c r="AD121" s="4"/>
+      <c r="AE121" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF121" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3">
         <v>11</v>
       </c>
       <c r="B122" s="3">
         <v>47</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I122" s="3">
@@ -12188,39 +12913,46 @@
       <c r="V122" s="3">
         <v>50</v>
       </c>
-      <c r="W122" t="s">
+      <c r="W122" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="AE122" t="s">
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="4"/>
+      <c r="AE122" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF122" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3">
         <v>11</v>
       </c>
       <c r="B123" s="3">
         <v>48</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I123" s="3">
@@ -12265,57 +12997,58 @@
       <c r="V123" s="3">
         <v>5</v>
       </c>
-      <c r="W123" t="s">
+      <c r="W123" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="X123" t="s">
+      <c r="X123" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Y123" t="s">
+      <c r="Y123" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="Z123" t="s">
+      <c r="Z123" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AA123" t="s">
+      <c r="AA123" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="AB123" t="s">
+      <c r="AB123" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AC123" s="4" t="s">
+      <c r="AC123" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AD123" s="4"/>
+      <c r="AE123" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF123" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3">
         <v>11</v>
       </c>
       <c r="B124" s="3">
         <v>48</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I124" s="3">
@@ -12360,39 +13093,46 @@
       <c r="V124" s="3">
         <v>20</v>
       </c>
-      <c r="W124" t="s">
+      <c r="W124" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AE124" t="s">
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+      <c r="AD124" s="4"/>
+      <c r="AE124" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF124" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3">
         <v>11</v>
       </c>
       <c r="B125" s="3">
         <v>48</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I125" s="3">
@@ -12437,39 +13177,46 @@
       <c r="V125" s="3">
         <v>20</v>
       </c>
-      <c r="W125" t="s">
+      <c r="W125" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AE125" t="s">
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4"/>
+      <c r="AE125" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF125" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3">
         <v>11</v>
       </c>
       <c r="B126" s="3">
         <v>48</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I126" s="3">
@@ -12514,39 +13261,46 @@
       <c r="V126" s="3">
         <v>30</v>
       </c>
-      <c r="W126" t="s">
+      <c r="W126" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AE126" t="s">
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+      <c r="AB126" s="4"/>
+      <c r="AC126" s="4"/>
+      <c r="AD126" s="4"/>
+      <c r="AE126" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF126" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3">
         <v>11</v>
       </c>
       <c r="B127" s="3">
         <v>47</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I127" s="3">
@@ -12591,39 +13345,46 @@
       <c r="V127" s="3">
         <v>5</v>
       </c>
-      <c r="W127" t="s">
+      <c r="W127" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AE127" t="s">
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="4"/>
+      <c r="AE127" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF127" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3">
         <v>11</v>
       </c>
       <c r="B128" s="3">
         <v>47</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I128" s="3">
@@ -12668,57 +13429,58 @@
       <c r="V128" s="3">
         <v>10</v>
       </c>
-      <c r="W128" t="s">
+      <c r="W128" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="X128" t="s">
+      <c r="X128" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Y128" t="s">
+      <c r="Y128" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="Z128" t="s">
+      <c r="Z128" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AA128" t="s">
+      <c r="AA128" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="AB128" t="s">
+      <c r="AB128" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AC128" s="4" t="s">
+      <c r="AC128" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="AE128" t="s">
+      <c r="AD128" s="4"/>
+      <c r="AE128" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF128" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3">
         <v>11</v>
       </c>
       <c r="B129" s="3">
         <v>47</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I129" s="3">
@@ -12763,39 +13525,46 @@
       <c r="V129" s="3">
         <v>20</v>
       </c>
-      <c r="W129" t="s">
+      <c r="W129" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AE129" t="s">
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="4"/>
+      <c r="AD129" s="4"/>
+      <c r="AE129" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF129" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3">
         <v>11</v>
       </c>
       <c r="B130" s="3">
         <v>47</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="3">
@@ -12840,39 +13609,46 @@
       <c r="V130" s="3">
         <v>10</v>
       </c>
-      <c r="W130" t="s">
+      <c r="W130" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AE130" t="s">
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="4"/>
+      <c r="AD130" s="4"/>
+      <c r="AE130" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF130" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3">
         <v>11</v>
       </c>
       <c r="B131" s="3">
         <v>46</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I131" s="3">
@@ -12917,39 +13693,46 @@
       <c r="V131" s="3">
         <v>10</v>
       </c>
-      <c r="W131" t="s">
+      <c r="W131" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AE131" t="s">
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+      <c r="AB131" s="4"/>
+      <c r="AC131" s="4"/>
+      <c r="AD131" s="4"/>
+      <c r="AE131" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF131" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3">
         <v>11</v>
       </c>
       <c r="B132" s="3">
         <v>46</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I132" s="3">
@@ -12994,39 +13777,46 @@
       <c r="V132" s="3">
         <v>40</v>
       </c>
-      <c r="W132" t="s">
+      <c r="W132" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AE132" t="s">
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
+      <c r="AB132" s="4"/>
+      <c r="AC132" s="4"/>
+      <c r="AD132" s="4"/>
+      <c r="AE132" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF132" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3">
         <v>11</v>
       </c>
       <c r="B133" s="3">
         <v>46</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I133" s="3">
@@ -13071,39 +13861,46 @@
       <c r="V133" s="3">
         <v>20</v>
       </c>
-      <c r="W133" t="s">
+      <c r="W133" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AE133" t="s">
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
+      <c r="AB133" s="4"/>
+      <c r="AC133" s="4"/>
+      <c r="AD133" s="4"/>
+      <c r="AE133" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF133" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3">
         <v>11</v>
       </c>
       <c r="B134" s="3">
         <v>46</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I134" s="3">
@@ -13148,57 +13945,58 @@
       <c r="V134" s="3">
         <v>10</v>
       </c>
-      <c r="W134" t="s">
+      <c r="W134" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="X134" t="s">
+      <c r="X134" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="Y134" t="s">
+      <c r="Y134" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="Z134" t="s">
+      <c r="Z134" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AA134" t="s">
+      <c r="AA134" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="AB134" t="s">
+      <c r="AB134" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AC134" s="4" t="s">
+      <c r="AC134" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="AE134" t="s">
+      <c r="AD134" s="4"/>
+      <c r="AE134" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF134" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3">
         <v>11</v>
       </c>
       <c r="B135" s="3">
         <v>46</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I135" s="3">
@@ -13243,39 +14041,46 @@
       <c r="V135" s="3">
         <v>20</v>
       </c>
-      <c r="W135" t="s">
+      <c r="W135" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AE135" t="s">
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+      <c r="AD135" s="4"/>
+      <c r="AE135" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF135" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3">
         <v>11</v>
       </c>
       <c r="B136" s="3">
         <v>46</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I136" s="3">
@@ -13320,39 +14125,46 @@
       <c r="V136" s="3">
         <v>5</v>
       </c>
-      <c r="W136" t="s">
+      <c r="W136" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AE136" t="s">
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
+      <c r="AB136" s="4"/>
+      <c r="AC136" s="4"/>
+      <c r="AD136" s="4"/>
+      <c r="AE136" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF136" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3">
         <v>11</v>
       </c>
       <c r="B137" s="3">
         <v>45</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I137" s="3">
@@ -13397,39 +14209,46 @@
       <c r="V137" s="3">
         <v>10</v>
       </c>
-      <c r="W137" t="s">
+      <c r="W137" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AE137" t="s">
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+      <c r="AB137" s="4"/>
+      <c r="AC137" s="4"/>
+      <c r="AD137" s="4"/>
+      <c r="AE137" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF137" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3">
         <v>11</v>
       </c>
       <c r="B138" s="3">
         <v>45</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I138" s="3">
@@ -13474,39 +14293,46 @@
       <c r="V138" s="3">
         <v>10</v>
       </c>
-      <c r="W138" t="s">
+      <c r="W138" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="AE138" t="s">
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+      <c r="Z138" s="4"/>
+      <c r="AA138" s="4"/>
+      <c r="AB138" s="4"/>
+      <c r="AC138" s="4"/>
+      <c r="AD138" s="4"/>
+      <c r="AE138" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF138" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3">
         <v>11</v>
       </c>
       <c r="B139" s="3">
         <v>45</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I139" s="3">
@@ -13551,57 +14377,58 @@
       <c r="V139" s="3">
         <v>10</v>
       </c>
-      <c r="W139" t="s">
+      <c r="W139" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="X139" t="s">
+      <c r="X139" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="Y139" t="s">
+      <c r="Y139" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="Z139" t="s">
+      <c r="Z139" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AA139" t="s">
+      <c r="AA139" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="AB139" t="s">
+      <c r="AB139" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AC139" s="4" t="s">
+      <c r="AC139" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="AE139" t="s">
+      <c r="AD139" s="4"/>
+      <c r="AE139" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF139" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3">
         <v>11</v>
       </c>
       <c r="B140" s="3">
         <v>45</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="3">
@@ -13646,39 +14473,46 @@
       <c r="V140" s="3">
         <v>30</v>
       </c>
-      <c r="W140" t="s">
+      <c r="W140" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="AE140" t="s">
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+      <c r="Z140" s="4"/>
+      <c r="AA140" s="4"/>
+      <c r="AB140" s="4"/>
+      <c r="AC140" s="4"/>
+      <c r="AD140" s="4"/>
+      <c r="AE140" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF140" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3">
         <v>11</v>
       </c>
       <c r="B141" s="3">
         <v>44</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I141" s="3">
@@ -13723,39 +14557,46 @@
       <c r="V141" s="3">
         <v>10</v>
       </c>
-      <c r="W141" t="s">
+      <c r="W141" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AE141" t="s">
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
+      <c r="AA141" s="4"/>
+      <c r="AB141" s="4"/>
+      <c r="AC141" s="4"/>
+      <c r="AD141" s="4"/>
+      <c r="AE141" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF141" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3">
         <v>11</v>
       </c>
       <c r="B142" s="3">
         <v>46</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I142" s="3">
@@ -13800,33 +14641,42 @@
       <c r="V142" s="3">
         <v>10</v>
       </c>
-      <c r="W142" t="s">
+      <c r="W142" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AE142" t="s">
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
+      <c r="AA142" s="4"/>
+      <c r="AB142" s="4"/>
+      <c r="AC142" s="4"/>
+      <c r="AD142" s="4"/>
+      <c r="AE142" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF142" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3">
         <v>12</v>
       </c>
       <c r="B143" s="3">
         <v>50</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="F143" t="s">
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="4" t="s">
         <v>625</v>
       </c>
       <c r="I143" s="3">
@@ -13871,39 +14721,46 @@
       <c r="V143" s="3">
         <v>60</v>
       </c>
-      <c r="W143" t="s">
+      <c r="W143" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AE143" t="s">
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+      <c r="AB143" s="4"/>
+      <c r="AC143" s="4"/>
+      <c r="AD143" s="4"/>
+      <c r="AE143" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF143" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="3">
         <v>12</v>
       </c>
       <c r="B144" s="3">
         <v>49</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I144" s="3">
@@ -13948,57 +14805,58 @@
       <c r="V144" s="3">
         <v>20</v>
       </c>
-      <c r="W144" t="s">
+      <c r="W144" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="X144" t="s">
+      <c r="X144" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="Y144" t="s">
+      <c r="Y144" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="Z144" t="s">
+      <c r="Z144" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AA144" t="s">
+      <c r="AA144" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="AB144" t="s">
+      <c r="AB144" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="AC144" s="4" t="s">
+      <c r="AC144" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="AE144" t="s">
+      <c r="AD144" s="4"/>
+      <c r="AE144" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF144" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3">
         <v>12</v>
       </c>
       <c r="B145" s="3">
         <v>49</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I145" s="3">
@@ -14043,86 +14901,110 @@
       <c r="V145" s="3">
         <v>30</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+      <c r="AB145" s="4"/>
+      <c r="AC145" s="4"/>
+      <c r="AD145" s="4"/>
+      <c r="AE145" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF145" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="3">
         <v>12</v>
       </c>
       <c r="B146" s="3">
         <v>49</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F146" t="s">
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I146" s="3">
         <v>1</v>
       </c>
-      <c r="W146" t="s">
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="6"/>
+      <c r="W146" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="X146" t="s">
+      <c r="X146" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="Y146" t="s">
+      <c r="Y146" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="Z146" t="s">
+      <c r="Z146" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="AA146" t="s">
+      <c r="AA146" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="AB146" t="s">
+      <c r="AB146" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AC146" s="4" t="s">
+      <c r="AC146" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AE146" t="s">
+      <c r="AD146" s="4"/>
+      <c r="AE146" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF146" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3">
         <v>12</v>
       </c>
       <c r="B147" s="3">
         <v>50</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I147" s="3">
@@ -14167,39 +15049,46 @@
       <c r="V147" s="3">
         <v>30</v>
       </c>
-      <c r="X147" t="s">
+      <c r="W147" s="4"/>
+      <c r="X147" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="Z147" t="s">
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AB147" t="s">
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4" t="s">
         <v>640</v>
       </c>
+      <c r="AC147" s="4"/>
+      <c r="AD147" s="4"/>
+      <c r="AE147" s="4"/>
       <c r="AF147" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3">
         <v>12</v>
       </c>
       <c r="B148" s="3">
         <v>50</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="E148" t="s">
+      <c r="D148" s="4"/>
+      <c r="E148" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I148" s="3">
@@ -14244,10 +15133,17 @@
       <c r="V148" s="3">
         <v>5</v>
       </c>
-      <c r="W148" t="s">
+      <c r="W148" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="AE148" t="s">
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="4"/>
+      <c r="AD148" s="4"/>
+      <c r="AE148" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AF148" s="3">

--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FFBad\Season planner\BWF_TOURNAMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E631A-70D6-40B5-AA79-4866889E8C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F42AAA-6BF2-49A5-9234-4D9661F5D163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,9 +841,6 @@
     <t>Saipan</t>
   </si>
   <si>
-    <t>Saipan International 2023</t>
-  </si>
-  <si>
     <t>Hangzhou</t>
   </si>
   <si>
@@ -943,9 +940,6 @@
     <t>Italian International 2023 (Cancelled)</t>
   </si>
   <si>
-    <t>Kapal Api Group Indonesia Open 2023</t>
-  </si>
-  <si>
     <t>28 -08</t>
   </si>
   <si>
@@ -1952,6 +1946,12 @@
   </si>
   <si>
     <t>CROWNE PLAZA Northern Marianas Open 2023</t>
+  </si>
+  <si>
+    <t>KAPAL API GROUP Indonesia Open 2023</t>
+  </si>
+  <si>
+    <t>TAKECARE Saipan International 2023</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2363,7 @@
   <dimension ref="A1:AF148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6199,7 +6199,7 @@
         <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>643</v>
       </c>
       <c r="H49" t="s">
         <v>76</v>
@@ -6273,10 +6273,10 @@
         <v>176</v>
       </c>
       <c r="F50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G50" t="s">
         <v>274</v>
-      </c>
-      <c r="G50" t="s">
-        <v>275</v>
       </c>
       <c r="H50" t="s">
         <v>76</v>
@@ -6330,19 +6330,19 @@
         <v>223</v>
       </c>
       <c r="Y50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z50" t="s">
         <v>259</v>
       </c>
       <c r="AA50" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB50" t="s">
         <v>277</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="AC50" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="AE50" t="s">
         <v>41</v>
@@ -6359,19 +6359,19 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
       </c>
       <c r="E51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" t="s">
         <v>281</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>282</v>
-      </c>
-      <c r="G51" t="s">
-        <v>283</v>
       </c>
       <c r="H51" t="s">
         <v>71</v>
@@ -6436,19 +6436,19 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
       </c>
       <c r="E52" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" t="s">
         <v>284</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>285</v>
-      </c>
-      <c r="G52" t="s">
-        <v>286</v>
       </c>
       <c r="H52" t="s">
         <v>76</v>
@@ -6513,19 +6513,19 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D53" t="s">
         <v>105</v>
       </c>
       <c r="E53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F53" t="s">
         <v>288</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>289</v>
-      </c>
-      <c r="G53" t="s">
-        <v>290</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
@@ -6590,7 +6590,7 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E54" t="s">
         <v>271</v>
@@ -6599,7 +6599,7 @@
         <v>272</v>
       </c>
       <c r="G54" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H54" t="s">
         <v>76</v>
@@ -6653,19 +6653,19 @@
         <v>259</v>
       </c>
       <c r="Y54" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA54" t="s">
         <v>292</v>
       </c>
-      <c r="Z54" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>293</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="AC54" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="AE54" t="s">
         <v>41</v>
@@ -6682,19 +6682,19 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
       </c>
       <c r="E55" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" t="s">
         <v>296</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>297</v>
-      </c>
-      <c r="G55" t="s">
-        <v>298</v>
       </c>
       <c r="H55" t="s">
         <v>52</v>
@@ -6742,7 +6742,7 @@
         <v>50</v>
       </c>
       <c r="W55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AE55" t="s">
         <v>41</v>
@@ -6759,19 +6759,19 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="s">
         <v>300</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>301</v>
-      </c>
-      <c r="G56" t="s">
-        <v>302</v>
       </c>
       <c r="H56" t="s">
         <v>76</v>
@@ -6819,7 +6819,7 @@
         <v>20</v>
       </c>
       <c r="W56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AE56" t="s">
         <v>41</v>
@@ -6836,19 +6836,19 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D57" t="s">
         <v>43</v>
       </c>
       <c r="E57" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>305</v>
-      </c>
-      <c r="G57" t="s">
-        <v>306</v>
       </c>
       <c r="H57" t="s">
         <v>76</v>
@@ -6922,7 +6922,7 @@
         <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>307</v>
+        <v>642</v>
       </c>
       <c r="H58" t="s">
         <v>33</v>
@@ -6970,7 +6970,7 @@
         <v>60</v>
       </c>
       <c r="W58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE58" t="s">
         <v>41</v>
@@ -6987,7 +6987,7 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -6996,13 +6996,13 @@
         <v>176</v>
       </c>
       <c r="F59" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" t="s">
+        <v>308</v>
+      </c>
+      <c r="H59" t="s">
         <v>309</v>
-      </c>
-      <c r="G59" t="s">
-        <v>310</v>
-      </c>
-      <c r="H59" t="s">
-        <v>311</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -7047,25 +7047,25 @@
         <v>60</v>
       </c>
       <c r="W59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y59" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA59" t="s">
         <v>312</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AB59" t="s">
         <v>313</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AC59" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC59" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="AE59" t="s">
         <v>41</v>
@@ -7082,16 +7082,16 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" t="s">
         <v>317</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>318</v>
-      </c>
-      <c r="F60" t="s">
-        <v>319</v>
-      </c>
-      <c r="G60" t="s">
-        <v>320</v>
       </c>
       <c r="H60" t="s">
         <v>76</v>
@@ -7139,7 +7139,7 @@
         <v>20</v>
       </c>
       <c r="W60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AE60" t="s">
         <v>41</v>
@@ -7165,10 +7165,10 @@
         <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H61" t="s">
         <v>52</v>
@@ -7216,25 +7216,25 @@
         <v>50</v>
       </c>
       <c r="W61" t="s">
+        <v>311</v>
+      </c>
+      <c r="X61" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z61" t="s">
         <v>313</v>
       </c>
-      <c r="X61" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y61" t="s">
+      <c r="AA61" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB61" t="s">
         <v>323</v>
       </c>
-      <c r="Z61" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA61" t="s">
+      <c r="AC61" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC61" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="AE61" t="s">
         <v>41</v>
@@ -7251,19 +7251,19 @@
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
         <v>87</v>
       </c>
       <c r="E62" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" t="s">
         <v>328</v>
-      </c>
-      <c r="F62" t="s">
-        <v>329</v>
-      </c>
-      <c r="G62" t="s">
-        <v>330</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
@@ -7311,25 +7311,25 @@
         <v>10</v>
       </c>
       <c r="W62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z62" t="s">
         <v>323</v>
       </c>
-      <c r="Z62" t="s">
-        <v>325</v>
-      </c>
       <c r="AA62" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC62" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC62" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="AE62" t="s">
         <v>41</v>
@@ -7346,19 +7346,19 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s">
         <v>105</v>
       </c>
       <c r="E63" t="s">
+        <v>333</v>
+      </c>
+      <c r="F63" t="s">
+        <v>334</v>
+      </c>
+      <c r="G63" t="s">
         <v>335</v>
-      </c>
-      <c r="F63" t="s">
-        <v>336</v>
-      </c>
-      <c r="G63" t="s">
-        <v>337</v>
       </c>
       <c r="H63" t="s">
         <v>80</v>
@@ -7406,7 +7406,7 @@
         <v>30</v>
       </c>
       <c r="W63" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AE63" t="s">
         <v>41</v>
@@ -7423,7 +7423,7 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
         <v>43</v>
@@ -7432,10 +7432,10 @@
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G64" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H64" t="s">
         <v>71</v>
@@ -7483,25 +7483,25 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="X64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Y64" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB64" t="s">
         <v>341</v>
       </c>
-      <c r="Z64" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA64" t="s">
+      <c r="AC64" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC64" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="AE64" t="s">
         <v>41</v>
@@ -7524,13 +7524,13 @@
         <v>105</v>
       </c>
       <c r="E65" t="s">
+        <v>343</v>
+      </c>
+      <c r="F65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" t="s">
         <v>345</v>
-      </c>
-      <c r="F65" t="s">
-        <v>346</v>
-      </c>
-      <c r="G65" t="s">
-        <v>347</v>
       </c>
       <c r="H65" t="s">
         <v>62</v>
@@ -7578,7 +7578,7 @@
         <v>40</v>
       </c>
       <c r="W65" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AE65" t="s">
         <v>41</v>
@@ -7595,19 +7595,19 @@
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
       </c>
       <c r="E66" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" t="s">
         <v>349</v>
-      </c>
-      <c r="F66" t="s">
-        <v>350</v>
-      </c>
-      <c r="G66" t="s">
-        <v>351</v>
       </c>
       <c r="H66" t="s">
         <v>62</v>
@@ -7655,25 +7655,25 @@
         <v>40</v>
       </c>
       <c r="W66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Y66" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA66" t="s">
         <v>352</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AB66" t="s">
         <v>353</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AC66" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC66" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="AE66" t="s">
         <v>41</v>
@@ -7690,19 +7690,19 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
         <v>87</v>
       </c>
       <c r="E67" t="s">
+        <v>356</v>
+      </c>
+      <c r="F67" t="s">
+        <v>357</v>
+      </c>
+      <c r="G67" t="s">
         <v>358</v>
-      </c>
-      <c r="F67" t="s">
-        <v>359</v>
-      </c>
-      <c r="G67" t="s">
-        <v>360</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
@@ -7750,25 +7750,25 @@
         <v>10</v>
       </c>
       <c r="W67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="X67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y67" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC67" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC67" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="AE67" t="s">
         <v>41</v>
@@ -7785,19 +7785,19 @@
         <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D68" t="s">
         <v>87</v>
       </c>
       <c r="E68" t="s">
+        <v>363</v>
+      </c>
+      <c r="F68" t="s">
+        <v>364</v>
+      </c>
+      <c r="G68" t="s">
         <v>365</v>
-      </c>
-      <c r="F68" t="s">
-        <v>366</v>
-      </c>
-      <c r="G68" t="s">
-        <v>367</v>
       </c>
       <c r="H68" t="s">
         <v>76</v>
@@ -7845,7 +7845,7 @@
         <v>20</v>
       </c>
       <c r="W68" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AE68" t="s">
         <v>41</v>
@@ -7862,19 +7862,19 @@
         <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D69" t="s">
         <v>43</v>
       </c>
       <c r="E69" t="s">
+        <v>367</v>
+      </c>
+      <c r="F69" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" t="s">
         <v>369</v>
-      </c>
-      <c r="F69" t="s">
-        <v>370</v>
-      </c>
-      <c r="G69" t="s">
-        <v>371</v>
       </c>
       <c r="H69" t="s">
         <v>71</v>
@@ -7922,25 +7922,25 @@
         <v>5</v>
       </c>
       <c r="W69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X69" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Y69" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA69" t="s">
         <v>352</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AB69" t="s">
         <v>353</v>
       </c>
-      <c r="AA69" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>355</v>
-      </c>
       <c r="AC69" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AE69" t="s">
         <v>41</v>
@@ -7957,7 +7957,7 @@
         <v>35</v>
       </c>
       <c r="C70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -7966,10 +7966,10 @@
         <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G70" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H70" t="s">
         <v>76</v>
@@ -8017,7 +8017,7 @@
         <v>20</v>
       </c>
       <c r="W70" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AE70" t="s">
         <v>41</v>
@@ -8034,7 +8034,7 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D71" t="s">
         <v>105</v>
@@ -8043,10 +8043,10 @@
         <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G71" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H71" t="s">
         <v>71</v>
@@ -8094,7 +8094,7 @@
         <v>5</v>
       </c>
       <c r="W71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE71" t="s">
         <v>41</v>
@@ -8111,22 +8111,22 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D72" t="s">
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s">
+        <v>377</v>
+      </c>
+      <c r="G72" t="s">
+        <v>378</v>
+      </c>
+      <c r="H72" t="s">
         <v>379</v>
-      </c>
-      <c r="G72" t="s">
-        <v>380</v>
-      </c>
-      <c r="H72" t="s">
-        <v>381</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>65</v>
       </c>
       <c r="W72" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE72" t="s">
         <v>41</v>
@@ -8188,19 +8188,19 @@
         <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D73" t="s">
         <v>105</v>
       </c>
       <c r="E73" t="s">
+        <v>381</v>
+      </c>
+      <c r="F73" t="s">
+        <v>382</v>
+      </c>
+      <c r="G73" t="s">
         <v>383</v>
-      </c>
-      <c r="F73" t="s">
-        <v>384</v>
-      </c>
-      <c r="G73" t="s">
-        <v>385</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
@@ -8248,7 +8248,7 @@
         <v>10</v>
       </c>
       <c r="W73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE73" t="s">
         <v>41</v>
@@ -8265,19 +8265,19 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F74" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
@@ -8325,25 +8325,25 @@
         <v>10</v>
       </c>
       <c r="W74" t="s">
+        <v>387</v>
+      </c>
+      <c r="X74" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y74" t="s">
         <v>389</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Z74" t="s">
         <v>390</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="AA74" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB74" t="s">
         <v>391</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AC74" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>389</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>393</v>
-      </c>
-      <c r="AC74" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="AE74" t="s">
         <v>41</v>
@@ -8360,19 +8360,19 @@
         <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D75" t="s">
         <v>201</v>
       </c>
       <c r="E75" t="s">
+        <v>394</v>
+      </c>
+      <c r="F75" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" t="s">
         <v>396</v>
-      </c>
-      <c r="F75" t="s">
-        <v>397</v>
-      </c>
-      <c r="G75" t="s">
-        <v>398</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -8420,7 +8420,7 @@
         <v>10</v>
       </c>
       <c r="W75" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AE75" t="s">
         <v>41</v>
@@ -8437,19 +8437,19 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
       </c>
       <c r="E76" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" t="s">
+        <v>399</v>
+      </c>
+      <c r="G76" t="s">
         <v>400</v>
-      </c>
-      <c r="F76" t="s">
-        <v>401</v>
-      </c>
-      <c r="G76" t="s">
-        <v>402</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
@@ -8497,7 +8497,7 @@
         <v>10</v>
       </c>
       <c r="W76" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AE76" t="s">
         <v>41</v>
@@ -8514,19 +8514,19 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D77" t="s">
         <v>201</v>
       </c>
       <c r="E77" t="s">
+        <v>402</v>
+      </c>
+      <c r="F77" t="s">
+        <v>403</v>
+      </c>
+      <c r="G77" t="s">
         <v>404</v>
-      </c>
-      <c r="F77" t="s">
-        <v>405</v>
-      </c>
-      <c r="G77" t="s">
-        <v>406</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -8574,7 +8574,7 @@
         <v>10</v>
       </c>
       <c r="W77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE77" t="s">
         <v>41</v>
@@ -8591,7 +8591,7 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D78" t="s">
         <v>93</v>
@@ -8603,7 +8603,7 @@
         <v>95</v>
       </c>
       <c r="G78" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H78" t="s">
         <v>80</v>
@@ -8651,7 +8651,7 @@
         <v>30</v>
       </c>
       <c r="W78" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE78" t="s">
         <v>41</v>
@@ -8668,19 +8668,19 @@
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D79" t="s">
         <v>201</v>
       </c>
       <c r="E79" t="s">
+        <v>408</v>
+      </c>
+      <c r="F79" t="s">
+        <v>409</v>
+      </c>
+      <c r="G79" t="s">
         <v>410</v>
-      </c>
-      <c r="F79" t="s">
-        <v>411</v>
-      </c>
-      <c r="G79" t="s">
-        <v>412</v>
       </c>
       <c r="H79" t="s">
         <v>71</v>
@@ -8728,7 +8728,7 @@
         <v>5</v>
       </c>
       <c r="W79" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE79" t="s">
         <v>41</v>
@@ -8745,19 +8745,19 @@
         <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D80" t="s">
         <v>93</v>
       </c>
       <c r="E80" t="s">
+        <v>412</v>
+      </c>
+      <c r="F80" t="s">
+        <v>413</v>
+      </c>
+      <c r="G80" t="s">
         <v>414</v>
-      </c>
-      <c r="F80" t="s">
-        <v>415</v>
-      </c>
-      <c r="G80" t="s">
-        <v>416</v>
       </c>
       <c r="H80" t="s">
         <v>62</v>
@@ -8805,7 +8805,7 @@
         <v>40</v>
       </c>
       <c r="W80" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE80" t="s">
         <v>41</v>
@@ -8822,19 +8822,19 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
         <v>43</v>
       </c>
       <c r="E81" t="s">
+        <v>416</v>
+      </c>
+      <c r="F81" t="s">
+        <v>417</v>
+      </c>
+      <c r="G81" t="s">
         <v>418</v>
-      </c>
-      <c r="F81" t="s">
-        <v>419</v>
-      </c>
-      <c r="G81" t="s">
-        <v>420</v>
       </c>
       <c r="H81" t="s">
         <v>71</v>
@@ -8882,25 +8882,25 @@
         <v>5</v>
       </c>
       <c r="W81" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="X81" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Y81" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z81" t="s">
         <v>391</v>
       </c>
-      <c r="Z81" t="s">
-        <v>393</v>
-      </c>
       <c r="AA81" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC81" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="AE81" t="s">
         <v>41</v>
@@ -8917,7 +8917,7 @@
         <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -8929,7 +8929,7 @@
         <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H82" t="s">
         <v>71</v>
@@ -8977,25 +8977,25 @@
         <v>5</v>
       </c>
       <c r="W82" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="X82" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Y82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA82" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AB82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AC82" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AE82" t="s">
         <v>41</v>
@@ -9012,7 +9012,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -9021,10 +9021,10 @@
         <v>261</v>
       </c>
       <c r="F83" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G83" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H83" t="s">
         <v>179</v>
@@ -9072,7 +9072,7 @@
         <v>30</v>
       </c>
       <c r="W83" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE83" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D84" t="s">
         <v>43</v>
@@ -9098,10 +9098,10 @@
         <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G84" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
@@ -9149,7 +9149,7 @@
         <v>10</v>
       </c>
       <c r="W84" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE84" t="s">
         <v>41</v>
@@ -9166,7 +9166,7 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D85" t="s">
         <v>201</v>
@@ -9178,7 +9178,7 @@
         <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H85" t="s">
         <v>76</v>
@@ -9226,7 +9226,7 @@
         <v>20</v>
       </c>
       <c r="W85" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE85" t="s">
         <v>41</v>
@@ -9249,13 +9249,13 @@
         <v>43</v>
       </c>
       <c r="E86" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" t="s">
+        <v>433</v>
+      </c>
+      <c r="G86" t="s">
         <v>434</v>
-      </c>
-      <c r="F86" t="s">
-        <v>435</v>
-      </c>
-      <c r="G86" t="s">
-        <v>436</v>
       </c>
       <c r="H86" t="s">
         <v>76</v>
@@ -9303,25 +9303,25 @@
         <v>20</v>
       </c>
       <c r="W86" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="X86" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Y86" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB86" t="s">
         <v>437</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AC86" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>439</v>
-      </c>
-      <c r="AC86" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="AE86" t="s">
         <v>41</v>
@@ -9338,7 +9338,7 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
@@ -9347,10 +9347,10 @@
         <v>124</v>
       </c>
       <c r="F87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H87" t="s">
         <v>179</v>
@@ -9398,25 +9398,25 @@
         <v>30</v>
       </c>
       <c r="W87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="X87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Y87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z87" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA87" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AB87" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AC87" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AE87" t="s">
         <v>41</v>
@@ -9433,7 +9433,7 @@
         <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
@@ -9442,10 +9442,10 @@
         <v>77</v>
       </c>
       <c r="F88" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G88" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
@@ -9493,25 +9493,25 @@
         <v>10</v>
       </c>
       <c r="W88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="X88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Z88" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA88" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AB88" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AC88" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AE88" t="s">
         <v>41</v>
@@ -9528,22 +9528,22 @@
         <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F89" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G89" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -9588,7 +9588,7 @@
         <v>65</v>
       </c>
       <c r="W89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AE89" t="s">
         <v>41</v>
@@ -9605,19 +9605,19 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D90" t="s">
         <v>87</v>
       </c>
       <c r="E90" t="s">
+        <v>453</v>
+      </c>
+      <c r="F90" t="s">
+        <v>454</v>
+      </c>
+      <c r="G90" t="s">
         <v>455</v>
-      </c>
-      <c r="F90" t="s">
-        <v>456</v>
-      </c>
-      <c r="G90" t="s">
-        <v>457</v>
       </c>
       <c r="H90" t="s">
         <v>71</v>
@@ -9665,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="W90" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AE90" t="s">
         <v>41</v>
@@ -9682,7 +9682,7 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D91" t="s">
         <v>43</v>
@@ -9691,10 +9691,10 @@
         <v>226</v>
       </c>
       <c r="F91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H91" t="s">
         <v>71</v>
@@ -9742,7 +9742,7 @@
         <v>5</v>
       </c>
       <c r="W91" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AE91" t="s">
         <v>41</v>
@@ -9759,7 +9759,7 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
         <v>105</v>
@@ -9771,7 +9771,7 @@
         <v>255</v>
       </c>
       <c r="G92" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H92" t="s">
         <v>76</v>
@@ -9819,7 +9819,7 @@
         <v>20</v>
       </c>
       <c r="W92" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AE92" t="s">
         <v>41</v>
@@ -9836,7 +9836,7 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
         <v>29</v>
@@ -9845,10 +9845,10 @@
         <v>59</v>
       </c>
       <c r="F93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G93" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H93" t="s">
         <v>179</v>
@@ -9896,25 +9896,25 @@
         <v>30</v>
       </c>
       <c r="W93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="X93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y93" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB93" t="s">
         <v>462</v>
       </c>
-      <c r="Z93" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA93" t="s">
+      <c r="AC93" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC93" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="AE93" t="s">
         <v>41</v>
@@ -9931,7 +9931,7 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
         <v>29</v>
@@ -9940,10 +9940,10 @@
         <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G94" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H94" t="s">
         <v>33</v>
@@ -9991,7 +9991,7 @@
         <v>60</v>
       </c>
       <c r="W94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AE94" t="s">
         <v>41</v>
@@ -10008,19 +10008,19 @@
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D95" t="s">
         <v>29</v>
       </c>
       <c r="E95" t="s">
+        <v>466</v>
+      </c>
+      <c r="F95" t="s">
+        <v>467</v>
+      </c>
+      <c r="G95" t="s">
         <v>468</v>
-      </c>
-      <c r="F95" t="s">
-        <v>469</v>
-      </c>
-      <c r="G95" t="s">
-        <v>470</v>
       </c>
       <c r="H95" t="s">
         <v>62</v>
@@ -10068,7 +10068,7 @@
         <v>40</v>
       </c>
       <c r="W95" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AE95" t="s">
         <v>41</v>
@@ -10094,10 +10094,10 @@
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G96" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H96" t="s">
         <v>179</v>
@@ -10145,7 +10145,7 @@
         <v>30</v>
       </c>
       <c r="W96" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE96" t="s">
         <v>41</v>
@@ -10162,7 +10162,7 @@
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D97" t="s">
         <v>201</v>
@@ -10171,13 +10171,13 @@
         <v>202</v>
       </c>
       <c r="F97" t="s">
+        <v>471</v>
+      </c>
+      <c r="G97" t="s">
+        <v>472</v>
+      </c>
+      <c r="H97" t="s">
         <v>473</v>
-      </c>
-      <c r="G97" t="s">
-        <v>474</v>
-      </c>
-      <c r="H97" t="s">
-        <v>475</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>30</v>
       </c>
       <c r="W97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE97" t="s">
         <v>41</v>
@@ -10248,10 +10248,10 @@
         <v>111</v>
       </c>
       <c r="F98" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G98" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H98" t="s">
         <v>52</v>
@@ -10299,7 +10299,7 @@
         <v>50</v>
       </c>
       <c r="W98" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE98" t="s">
         <v>41</v>
@@ -10316,19 +10316,19 @@
         <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
         <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F99" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G99" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H99" t="s">
         <v>71</v>
@@ -10376,7 +10376,7 @@
         <v>5</v>
       </c>
       <c r="W99" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE99" t="s">
         <v>41</v>
@@ -10402,10 +10402,10 @@
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G100" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H100" t="s">
         <v>76</v>
@@ -10453,7 +10453,7 @@
         <v>20</v>
       </c>
       <c r="W100" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE100" t="s">
         <v>41</v>
@@ -10476,13 +10476,13 @@
         <v>29</v>
       </c>
       <c r="E101" t="s">
+        <v>480</v>
+      </c>
+      <c r="F101" t="s">
+        <v>481</v>
+      </c>
+      <c r="G101" t="s">
         <v>482</v>
-      </c>
-      <c r="F101" t="s">
-        <v>483</v>
-      </c>
-      <c r="G101" t="s">
-        <v>484</v>
       </c>
       <c r="H101" t="s">
         <v>71</v>
@@ -10530,25 +10530,25 @@
         <v>5</v>
       </c>
       <c r="W101" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="X101" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Y101" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA101" t="s">
         <v>485</v>
       </c>
-      <c r="Z101" t="s">
+      <c r="AB101" t="s">
         <v>486</v>
       </c>
-      <c r="AA101" t="s">
+      <c r="AC101" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="AB101" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC101" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="AE101" t="s">
         <v>41</v>
@@ -10565,7 +10565,7 @@
         <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D102" t="s">
         <v>93</v>
@@ -10577,7 +10577,7 @@
         <v>95</v>
       </c>
       <c r="G102" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H102" t="s">
         <v>76</v>
@@ -10625,7 +10625,7 @@
         <v>20</v>
       </c>
       <c r="W102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AE102" t="s">
         <v>41</v>
@@ -10651,10 +10651,10 @@
         <v>166</v>
       </c>
       <c r="F103" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G103" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H103" t="s">
         <v>80</v>
@@ -10702,7 +10702,7 @@
         <v>30</v>
       </c>
       <c r="W103" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AE103" t="s">
         <v>41</v>
@@ -10728,10 +10728,10 @@
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G104" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H104" t="s">
         <v>76</v>
@@ -10779,7 +10779,7 @@
         <v>20</v>
       </c>
       <c r="W104" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AE104" t="s">
         <v>41</v>
@@ -10796,19 +10796,19 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D105" t="s">
         <v>43</v>
       </c>
       <c r="E105" t="s">
+        <v>495</v>
+      </c>
+      <c r="F105" t="s">
+        <v>496</v>
+      </c>
+      <c r="G105" t="s">
         <v>497</v>
-      </c>
-      <c r="F105" t="s">
-        <v>498</v>
-      </c>
-      <c r="G105" t="s">
-        <v>499</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
@@ -10856,7 +10856,7 @@
         <v>10</v>
       </c>
       <c r="W105" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AE105" t="s">
         <v>41</v>
@@ -10873,7 +10873,7 @@
         <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
@@ -10882,10 +10882,10 @@
         <v>59</v>
       </c>
       <c r="F106" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G106" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H106" t="s">
         <v>179</v>
@@ -10933,25 +10933,25 @@
         <v>30</v>
       </c>
       <c r="W106" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="X106" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Y106" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB106" t="s">
         <v>502</v>
       </c>
-      <c r="Z106" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA106" t="s">
+      <c r="AC106" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>504</v>
-      </c>
-      <c r="AC106" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="AE106" t="s">
         <v>41</v>
@@ -10974,13 +10974,13 @@
         <v>93</v>
       </c>
       <c r="E107" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F107" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G107" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
@@ -11028,7 +11028,7 @@
         <v>10</v>
       </c>
       <c r="W107" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AE107" t="s">
         <v>41</v>
@@ -11045,19 +11045,19 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D108" t="s">
         <v>87</v>
       </c>
       <c r="E108" t="s">
+        <v>505</v>
+      </c>
+      <c r="F108" t="s">
+        <v>506</v>
+      </c>
+      <c r="G108" t="s">
         <v>507</v>
-      </c>
-      <c r="F108" t="s">
-        <v>508</v>
-      </c>
-      <c r="G108" t="s">
-        <v>509</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
@@ -11105,25 +11105,25 @@
         <v>10</v>
       </c>
       <c r="W108" t="s">
+        <v>484</v>
+      </c>
+      <c r="X108" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z108" t="s">
         <v>486</v>
       </c>
-      <c r="X108" t="s">
-        <v>486</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>488</v>
-      </c>
       <c r="AA108" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AB108" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AC108" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AE108" t="s">
         <v>41</v>
@@ -11149,10 +11149,10 @@
         <v>59</v>
       </c>
       <c r="F109" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G109" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H109" t="s">
         <v>76</v>
@@ -11200,7 +11200,7 @@
         <v>20</v>
       </c>
       <c r="W109" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AE109" t="s">
         <v>41</v>
@@ -11226,10 +11226,10 @@
         <v>120</v>
       </c>
       <c r="F110" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G110" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H110" t="s">
         <v>179</v>
@@ -11277,7 +11277,7 @@
         <v>30</v>
       </c>
       <c r="W110" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AE110" t="s">
         <v>41</v>
@@ -11294,19 +11294,19 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D111" t="s">
         <v>201</v>
       </c>
       <c r="E111" t="s">
+        <v>513</v>
+      </c>
+      <c r="F111" t="s">
+        <v>514</v>
+      </c>
+      <c r="G111" t="s">
         <v>515</v>
-      </c>
-      <c r="F111" t="s">
-        <v>516</v>
-      </c>
-      <c r="G111" t="s">
-        <v>517</v>
       </c>
       <c r="H111" t="s">
         <v>47</v>
@@ -11354,7 +11354,7 @@
         <v>10</v>
       </c>
       <c r="W111" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AE111" t="s">
         <v>41</v>
@@ -11371,7 +11371,7 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D112" t="s">
         <v>87</v>
@@ -11383,7 +11383,7 @@
         <v>89</v>
       </c>
       <c r="G112" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H112" t="s">
         <v>47</v>
@@ -11431,7 +11431,7 @@
         <v>10</v>
       </c>
       <c r="W112" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AE112" t="s">
         <v>41</v>
@@ -11448,19 +11448,19 @@
         <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D113" t="s">
         <v>43</v>
       </c>
       <c r="E113" t="s">
+        <v>518</v>
+      </c>
+      <c r="F113" t="s">
+        <v>519</v>
+      </c>
+      <c r="G113" t="s">
         <v>520</v>
-      </c>
-      <c r="F113" t="s">
-        <v>521</v>
-      </c>
-      <c r="G113" t="s">
-        <v>522</v>
       </c>
       <c r="H113" t="s">
         <v>71</v>
@@ -11508,25 +11508,25 @@
         <v>5</v>
       </c>
       <c r="W113" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X113" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y113" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z113" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA113" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC113" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC113" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="AE113" t="s">
         <v>41</v>
@@ -11543,19 +11543,19 @@
         <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D114" t="s">
         <v>43</v>
       </c>
       <c r="E114" t="s">
+        <v>524</v>
+      </c>
+      <c r="F114" t="s">
+        <v>525</v>
+      </c>
+      <c r="G114" t="s">
         <v>526</v>
-      </c>
-      <c r="F114" t="s">
-        <v>527</v>
-      </c>
-      <c r="G114" t="s">
-        <v>528</v>
       </c>
       <c r="H114" t="s">
         <v>76</v>
@@ -11603,7 +11603,7 @@
         <v>20</v>
       </c>
       <c r="W114" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AE114" t="s">
         <v>41</v>
@@ -11620,7 +11620,7 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
@@ -11629,10 +11629,10 @@
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G115" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H115" t="s">
         <v>47</v>
@@ -11680,7 +11680,7 @@
         <v>10</v>
       </c>
       <c r="W115" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AE115" t="s">
         <v>41</v>
@@ -11703,13 +11703,13 @@
         <v>93</v>
       </c>
       <c r="E116" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F116" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G116" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H116" t="s">
         <v>76</v>
@@ -11757,25 +11757,25 @@
         <v>20</v>
       </c>
       <c r="W116" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="X116" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Y116" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Z116" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA116" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AB116" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AC116" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AE116" t="s">
         <v>41</v>
@@ -11792,7 +11792,7 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D117" t="s">
         <v>201</v>
@@ -11804,7 +11804,7 @@
         <v>268</v>
       </c>
       <c r="G117" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H117" t="s">
         <v>47</v>
@@ -11852,7 +11852,7 @@
         <v>10</v>
       </c>
       <c r="W117" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AE117" t="s">
         <v>41</v>
@@ -11869,7 +11869,7 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D118" t="s">
         <v>43</v>
@@ -11878,10 +11878,10 @@
         <v>188</v>
       </c>
       <c r="F118" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G118" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H118" t="s">
         <v>76</v>
@@ -11929,7 +11929,7 @@
         <v>20</v>
       </c>
       <c r="W118" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AE118" t="s">
         <v>41</v>
@@ -11952,13 +11952,13 @@
         <v>87</v>
       </c>
       <c r="E119" t="s">
+        <v>539</v>
+      </c>
+      <c r="F119" t="s">
+        <v>540</v>
+      </c>
+      <c r="G119" t="s">
         <v>541</v>
-      </c>
-      <c r="F119" t="s">
-        <v>542</v>
-      </c>
-      <c r="G119" t="s">
-        <v>543</v>
       </c>
       <c r="H119" t="s">
         <v>47</v>
@@ -12006,25 +12006,25 @@
         <v>10</v>
       </c>
       <c r="W119" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="X119" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y119" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB119" t="s">
         <v>544</v>
       </c>
-      <c r="Z119" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA119" t="s">
+      <c r="AC119" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="AB119" t="s">
-        <v>546</v>
-      </c>
-      <c r="AC119" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="AE119" t="s">
         <v>41</v>
@@ -12047,13 +12047,13 @@
         <v>43</v>
       </c>
       <c r="E120" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F120" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G120" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H120" t="s">
         <v>52</v>
@@ -12101,7 +12101,7 @@
         <v>50</v>
       </c>
       <c r="W120" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AE120" t="s">
         <v>41</v>
@@ -12124,13 +12124,13 @@
         <v>43</v>
       </c>
       <c r="E121" t="s">
+        <v>548</v>
+      </c>
+      <c r="F121" t="s">
+        <v>549</v>
+      </c>
+      <c r="G121" t="s">
         <v>550</v>
-      </c>
-      <c r="F121" t="s">
-        <v>551</v>
-      </c>
-      <c r="G121" t="s">
-        <v>552</v>
       </c>
       <c r="H121" t="s">
         <v>62</v>
@@ -12178,25 +12178,25 @@
         <v>40</v>
       </c>
       <c r="W121" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="X121" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y121" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB121" t="s">
         <v>544</v>
       </c>
-      <c r="Z121" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>545</v>
-      </c>
-      <c r="AB121" t="s">
-        <v>546</v>
-      </c>
       <c r="AC121" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AE121" t="s">
         <v>41</v>
@@ -12222,10 +12222,10 @@
         <v>176</v>
       </c>
       <c r="F122" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G122" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H122" t="s">
         <v>52</v>
@@ -12273,7 +12273,7 @@
         <v>50</v>
       </c>
       <c r="W122" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AE122" t="s">
         <v>41</v>
@@ -12290,7 +12290,7 @@
         <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D123" t="s">
         <v>87</v>
@@ -12299,10 +12299,10 @@
         <v>99</v>
       </c>
       <c r="F123" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G123" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H123" t="s">
         <v>71</v>
@@ -12350,25 +12350,25 @@
         <v>5</v>
       </c>
       <c r="W123" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="X123" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Y123" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB123" t="s">
         <v>558</v>
       </c>
-      <c r="Z123" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA123" t="s">
+      <c r="AC123" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>560</v>
-      </c>
-      <c r="AC123" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="AE123" t="s">
         <v>41</v>
@@ -12391,13 +12391,13 @@
         <v>43</v>
       </c>
       <c r="E124" t="s">
+        <v>560</v>
+      </c>
+      <c r="F124" t="s">
+        <v>561</v>
+      </c>
+      <c r="G124" t="s">
         <v>562</v>
-      </c>
-      <c r="F124" t="s">
-        <v>563</v>
-      </c>
-      <c r="G124" t="s">
-        <v>564</v>
       </c>
       <c r="H124" t="s">
         <v>76</v>
@@ -12445,7 +12445,7 @@
         <v>20</v>
       </c>
       <c r="W124" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AE124" t="s">
         <v>41</v>
@@ -12462,19 +12462,19 @@
         <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D125" t="s">
         <v>105</v>
       </c>
       <c r="E125" t="s">
+        <v>564</v>
+      </c>
+      <c r="F125" t="s">
+        <v>565</v>
+      </c>
+      <c r="G125" t="s">
         <v>566</v>
-      </c>
-      <c r="F125" t="s">
-        <v>567</v>
-      </c>
-      <c r="G125" t="s">
-        <v>568</v>
       </c>
       <c r="H125" t="s">
         <v>76</v>
@@ -12522,7 +12522,7 @@
         <v>20</v>
       </c>
       <c r="W125" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AE125" t="s">
         <v>41</v>
@@ -12539,7 +12539,7 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
@@ -12548,10 +12548,10 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G126" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H126" t="s">
         <v>80</v>
@@ -12599,7 +12599,7 @@
         <v>30</v>
       </c>
       <c r="W126" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AE126" t="s">
         <v>41</v>
@@ -12616,19 +12616,19 @@
         <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D127" t="s">
         <v>87</v>
       </c>
       <c r="E127" t="s">
+        <v>570</v>
+      </c>
+      <c r="F127" t="s">
+        <v>571</v>
+      </c>
+      <c r="G127" t="s">
         <v>572</v>
-      </c>
-      <c r="F127" t="s">
-        <v>573</v>
-      </c>
-      <c r="G127" t="s">
-        <v>574</v>
       </c>
       <c r="H127" t="s">
         <v>71</v>
@@ -12676,7 +12676,7 @@
         <v>5</v>
       </c>
       <c r="W127" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE127" t="s">
         <v>41</v>
@@ -12702,10 +12702,10 @@
         <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G128" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H128" t="s">
         <v>47</v>
@@ -12753,25 +12753,25 @@
         <v>10</v>
       </c>
       <c r="W128" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="X128" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Y128" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z128" t="s">
         <v>558</v>
       </c>
-      <c r="Z128" t="s">
-        <v>560</v>
-      </c>
       <c r="AA128" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC128" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>578</v>
-      </c>
-      <c r="AC128" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="AE128" t="s">
         <v>41</v>
@@ -12794,13 +12794,13 @@
         <v>29</v>
       </c>
       <c r="E129" t="s">
+        <v>578</v>
+      </c>
+      <c r="F129" t="s">
+        <v>579</v>
+      </c>
+      <c r="G129" t="s">
         <v>580</v>
-      </c>
-      <c r="F129" t="s">
-        <v>581</v>
-      </c>
-      <c r="G129" t="s">
-        <v>582</v>
       </c>
       <c r="H129" t="s">
         <v>76</v>
@@ -12848,7 +12848,7 @@
         <v>20</v>
       </c>
       <c r="W129" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE129" t="s">
         <v>41</v>
@@ -12874,10 +12874,10 @@
         <v>106</v>
       </c>
       <c r="F130" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G130" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H130" t="s">
         <v>47</v>
@@ -12925,7 +12925,7 @@
         <v>10</v>
       </c>
       <c r="W130" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE130" t="s">
         <v>41</v>
@@ -12948,13 +12948,13 @@
         <v>87</v>
       </c>
       <c r="E131" t="s">
+        <v>582</v>
+      </c>
+      <c r="F131" t="s">
+        <v>583</v>
+      </c>
+      <c r="G131" t="s">
         <v>584</v>
-      </c>
-      <c r="F131" t="s">
-        <v>585</v>
-      </c>
-      <c r="G131" t="s">
-        <v>586</v>
       </c>
       <c r="H131" t="s">
         <v>47</v>
@@ -13002,7 +13002,7 @@
         <v>10</v>
       </c>
       <c r="W131" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE131" t="s">
         <v>41</v>
@@ -13028,10 +13028,10 @@
         <v>129</v>
       </c>
       <c r="F132" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G132" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H132" t="s">
         <v>62</v>
@@ -13079,7 +13079,7 @@
         <v>40</v>
       </c>
       <c r="W132" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE132" t="s">
         <v>41</v>
@@ -13102,13 +13102,13 @@
         <v>43</v>
       </c>
       <c r="E133" t="s">
+        <v>587</v>
+      </c>
+      <c r="F133" t="s">
+        <v>588</v>
+      </c>
+      <c r="G133" t="s">
         <v>589</v>
-      </c>
-      <c r="F133" t="s">
-        <v>590</v>
-      </c>
-      <c r="G133" t="s">
-        <v>591</v>
       </c>
       <c r="H133" t="s">
         <v>76</v>
@@ -13156,7 +13156,7 @@
         <v>20</v>
       </c>
       <c r="W133" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AE133" t="s">
         <v>41</v>
@@ -13179,13 +13179,13 @@
         <v>29</v>
       </c>
       <c r="E134" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F134" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G134" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H134" t="s">
         <v>47</v>
@@ -13233,25 +13233,25 @@
         <v>10</v>
       </c>
       <c r="W134" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="X134" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Y134" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB134" t="s">
         <v>593</v>
       </c>
-      <c r="Z134" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA134" t="s">
+      <c r="AC134" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="AB134" t="s">
-        <v>595</v>
-      </c>
-      <c r="AC134" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="AE134" t="s">
         <v>41</v>
@@ -13277,10 +13277,10 @@
         <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G135" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H135" t="s">
         <v>76</v>
@@ -13328,7 +13328,7 @@
         <v>20</v>
       </c>
       <c r="W135" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AE135" t="s">
         <v>41</v>
@@ -13354,10 +13354,10 @@
         <v>137</v>
       </c>
       <c r="F136" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G136" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H136" t="s">
         <v>71</v>
@@ -13405,7 +13405,7 @@
         <v>5</v>
       </c>
       <c r="W136" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AE136" t="s">
         <v>41</v>
@@ -13422,19 +13422,19 @@
         <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D137" t="s">
         <v>43</v>
       </c>
       <c r="E137" t="s">
+        <v>600</v>
+      </c>
+      <c r="F137" t="s">
+        <v>601</v>
+      </c>
+      <c r="G137" t="s">
         <v>602</v>
-      </c>
-      <c r="F137" t="s">
-        <v>603</v>
-      </c>
-      <c r="G137" t="s">
-        <v>604</v>
       </c>
       <c r="H137" t="s">
         <v>47</v>
@@ -13482,7 +13482,7 @@
         <v>10</v>
       </c>
       <c r="W137" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AE137" t="s">
         <v>41</v>
@@ -13511,7 +13511,7 @@
         <v>255</v>
       </c>
       <c r="G138" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H138" t="s">
         <v>47</v>
@@ -13559,7 +13559,7 @@
         <v>10</v>
       </c>
       <c r="W138" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AE138" t="s">
         <v>41</v>
@@ -13585,10 +13585,10 @@
         <v>124</v>
       </c>
       <c r="F139" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G139" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H139" t="s">
         <v>47</v>
@@ -13636,25 +13636,25 @@
         <v>10</v>
       </c>
       <c r="W139" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="X139" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y139" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB139" t="s">
         <v>608</v>
       </c>
-      <c r="Z139" t="s">
-        <v>595</v>
-      </c>
-      <c r="AA139" t="s">
+      <c r="AC139" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="AB139" t="s">
-        <v>610</v>
-      </c>
-      <c r="AC139" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="AE139" t="s">
         <v>41</v>
@@ -13677,13 +13677,13 @@
         <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F140" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G140" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H140" t="s">
         <v>80</v>
@@ -13731,7 +13731,7 @@
         <v>30</v>
       </c>
       <c r="W140" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AE140" t="s">
         <v>41</v>
@@ -13748,19 +13748,19 @@
         <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D141" t="s">
         <v>43</v>
       </c>
       <c r="E141" t="s">
+        <v>613</v>
+      </c>
+      <c r="F141" t="s">
+        <v>614</v>
+      </c>
+      <c r="G141" t="s">
         <v>615</v>
-      </c>
-      <c r="F141" t="s">
-        <v>616</v>
-      </c>
-      <c r="G141" t="s">
-        <v>617</v>
       </c>
       <c r="H141" t="s">
         <v>47</v>
@@ -13808,7 +13808,7 @@
         <v>10</v>
       </c>
       <c r="W141" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AE141" t="s">
         <v>41</v>
@@ -13825,19 +13825,19 @@
         <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
         <v>201</v>
       </c>
       <c r="E142" t="s">
+        <v>616</v>
+      </c>
+      <c r="F142" t="s">
+        <v>617</v>
+      </c>
+      <c r="G142" t="s">
         <v>618</v>
-      </c>
-      <c r="F142" t="s">
-        <v>619</v>
-      </c>
-      <c r="G142" t="s">
-        <v>620</v>
       </c>
       <c r="H142" t="s">
         <v>47</v>
@@ -13885,7 +13885,7 @@
         <v>10</v>
       </c>
       <c r="W142" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AE142" t="s">
         <v>41</v>
@@ -13902,16 +13902,16 @@
         <v>50</v>
       </c>
       <c r="C143" t="s">
+        <v>619</v>
+      </c>
+      <c r="F143" t="s">
+        <v>620</v>
+      </c>
+      <c r="G143" t="s">
         <v>621</v>
       </c>
-      <c r="F143" t="s">
+      <c r="H143" t="s">
         <v>622</v>
-      </c>
-      <c r="G143" t="s">
-        <v>623</v>
-      </c>
-      <c r="H143" t="s">
-        <v>624</v>
       </c>
       <c r="I143" s="3">
         <v>0</v>
@@ -13956,7 +13956,7 @@
         <v>60</v>
       </c>
       <c r="W143" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AE143" t="s">
         <v>41</v>
@@ -13973,19 +13973,19 @@
         <v>49</v>
       </c>
       <c r="C144" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D144" t="s">
         <v>105</v>
       </c>
       <c r="E144" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F144" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G144" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H144" t="s">
         <v>76</v>
@@ -14033,25 +14033,25 @@
         <v>20</v>
       </c>
       <c r="W144" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="X144" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Y144" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB144" t="s">
         <v>627</v>
       </c>
-      <c r="Z144" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA144" t="s">
+      <c r="AC144" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="AB144" t="s">
-        <v>629</v>
-      </c>
-      <c r="AC144" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="AE144" t="s">
         <v>41</v>
@@ -14068,7 +14068,7 @@
         <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
@@ -14077,10 +14077,10 @@
         <v>49</v>
       </c>
       <c r="F145" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G145" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H145" t="s">
         <v>179</v>
@@ -14142,13 +14142,13 @@
         <v>49</v>
       </c>
       <c r="C146" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F146" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G146" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H146" t="s">
         <v>97</v>
@@ -14170,25 +14170,25 @@
       <c r="U146" s="5"/>
       <c r="V146" s="5"/>
       <c r="W146" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="X146" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Y146" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB146" t="s">
         <v>634</v>
       </c>
-      <c r="Z146" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA146" t="s">
+      <c r="AC146" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="AB146" t="s">
-        <v>636</v>
-      </c>
-      <c r="AC146" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="AE146" t="s">
         <v>41</v>
@@ -14205,7 +14205,7 @@
         <v>50</v>
       </c>
       <c r="C147" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
@@ -14214,10 +14214,10 @@
         <v>49</v>
       </c>
       <c r="F147" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G147" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H147" t="s">
         <v>179</v>
@@ -14265,13 +14265,13 @@
         <v>30</v>
       </c>
       <c r="X147" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Z147" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AB147" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AF147" s="3">
         <v>0</v>
@@ -14285,16 +14285,16 @@
         <v>50</v>
       </c>
       <c r="C148" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E148" t="s">
+        <v>638</v>
+      </c>
+      <c r="F148" t="s">
+        <v>639</v>
+      </c>
+      <c r="G148" t="s">
         <v>640</v>
-      </c>
-      <c r="F148" t="s">
-        <v>641</v>
-      </c>
-      <c r="G148" t="s">
-        <v>642</v>
       </c>
       <c r="H148" t="s">
         <v>71</v>
@@ -14342,7 +14342,7 @@
         <v>5</v>
       </c>
       <c r="W148" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AE148" t="s">
         <v>41</v>

--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FFBad\Season planner\BWF_TOURNAMENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965AF477-E66C-4F60-A5C5-A078DBB90E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1951,8 +1957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2024,38 +2029,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2066,10 +2068,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2107,71 +2109,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2199,7 +2201,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2222,11 +2224,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2235,13 +2237,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2251,7 +2253,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2260,7 +2262,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2269,7 +2271,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2277,10 +2279,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2345,51 +2347,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="22" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.59765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,29 +2462,29 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="3">
@@ -2554,60 +2529,60 @@
       <c r="V2" s="3">
         <v>60</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" t="s">
         <v>41</v>
       </c>
       <c r="AF2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="3">
@@ -2652,46 +2627,39 @@
       <c r="V3" s="3">
         <v>10</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" t="s">
         <v>41</v>
       </c>
       <c r="AF3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="3">
@@ -2736,58 +2704,57 @@
       <c r="V4" s="3">
         <v>50</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" t="s">
         <v>41</v>
       </c>
       <c r="AF4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="3">
@@ -2832,58 +2799,57 @@
       <c r="V5" s="3">
         <v>40</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" t="s">
         <v>63</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" t="s">
         <v>65</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="3">
@@ -2928,46 +2894,39 @@
       <c r="V6" s="3">
         <v>5</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" t="s">
         <v>41</v>
       </c>
       <c r="AF6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="3">
@@ -3012,46 +2971,39 @@
       <c r="V7" s="3">
         <v>20</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" t="s">
         <v>65</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" t="s">
         <v>41</v>
       </c>
       <c r="AF7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row r="8" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="3">
@@ -3096,60 +3048,60 @@
       <c r="V8" s="3">
         <v>30</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" t="s">
         <v>82</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" t="s">
         <v>83</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" t="s">
         <v>41</v>
       </c>
       <c r="AF8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row r="9" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="3">
@@ -3194,46 +3146,39 @@
       <c r="V9" s="3">
         <v>20</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" t="s">
         <v>41</v>
       </c>
       <c r="AF9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row r="10" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="3">
@@ -3252,46 +3197,39 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="4" t="s">
+      <c r="W10" t="s">
         <v>98</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" t="s">
         <v>41</v>
       </c>
       <c r="AF10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row r="11" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" t="s">
         <v>102</v>
       </c>
       <c r="I11" s="3">
@@ -3336,46 +3274,39 @@
       <c r="V11" s="3">
         <v>20</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" t="s">
         <v>103</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" t="s">
         <v>41</v>
       </c>
       <c r="AF11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row r="12" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="3">
@@ -3394,46 +3325,39 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="4" t="s">
+      <c r="W12" t="s">
         <v>109</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" t="s">
         <v>41</v>
       </c>
       <c r="AF12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row r="13" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
       <c r="I13" s="3">
@@ -3452,46 +3376,39 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="4" t="s">
+      <c r="W13" t="s">
         <v>114</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" t="s">
         <v>41</v>
       </c>
       <c r="AF13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row r="14" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="3">
@@ -3536,46 +3453,39 @@
       <c r="V14" s="3">
         <v>20</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" t="s">
         <v>98</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" t="s">
         <v>41</v>
       </c>
       <c r="AF14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row r="15" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" t="s">
         <v>97</v>
       </c>
       <c r="I15" s="3">
@@ -3594,46 +3504,39 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="4" t="s">
+      <c r="W15" t="s">
         <v>118</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row r="16" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" t="s">
         <v>97</v>
       </c>
       <c r="I16" s="3">
@@ -3652,46 +3555,39 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="4" t="s">
+      <c r="W16" t="s">
         <v>91</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" t="s">
         <v>41</v>
       </c>
       <c r="AF16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row r="17" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="3">
@@ -3736,46 +3632,39 @@
       <c r="V17" s="3">
         <v>20</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" t="s">
         <v>41</v>
       </c>
       <c r="AF17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row r="18" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="3">
@@ -3820,58 +3709,57 @@
       <c r="V18" s="3">
         <v>20</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" t="s">
         <v>114</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" t="s">
         <v>114</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" t="s">
         <v>132</v>
       </c>
-      <c r="Z18" s="4" t="s">
+      <c r="Z18" t="s">
         <v>127</v>
       </c>
-      <c r="AA18" s="4" t="s">
+      <c r="AA18" t="s">
         <v>133</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AB18" t="s">
         <v>134</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AC18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" t="s">
         <v>41</v>
       </c>
       <c r="AF18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row r="19" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="3">
@@ -3916,46 +3804,39 @@
       <c r="V19" s="3">
         <v>30</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="W19" t="s">
         <v>127</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4" t="s">
+      <c r="AE19" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="3">
@@ -4000,46 +3881,39 @@
       <c r="V20" s="3">
         <v>20</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" t="s">
         <v>134</v>
       </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" t="s">
         <v>41</v>
       </c>
       <c r="AF20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="3">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="3">
@@ -4084,58 +3958,57 @@
       <c r="V21" s="3">
         <v>30</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" t="s">
         <v>114</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" t="s">
         <v>114</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" t="s">
         <v>132</v>
       </c>
-      <c r="Z21" s="4" t="s">
+      <c r="Z21" t="s">
         <v>134</v>
       </c>
-      <c r="AA21" s="4" t="s">
+      <c r="AA21" t="s">
         <v>146</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AB21" t="s">
         <v>147</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" t="s">
         <v>41</v>
       </c>
       <c r="AF21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>3</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="3">
@@ -4180,58 +4053,57 @@
       <c r="V22" s="3">
         <v>10</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W22" t="s">
         <v>127</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" t="s">
         <v>127</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" t="s">
         <v>153</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z22" t="s">
         <v>134</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" t="s">
         <v>146</v>
       </c>
-      <c r="AB22" s="4" t="s">
+      <c r="AB22" t="s">
         <v>147</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AC22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" t="s">
         <v>41</v>
       </c>
       <c r="AF22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="3">
@@ -4276,58 +4148,57 @@
       <c r="V23" s="3">
         <v>60</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W23" t="s">
         <v>134</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="X23" t="s">
         <v>134</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" t="s">
         <v>158</v>
       </c>
-      <c r="Z23" s="4" t="s">
+      <c r="Z23" t="s">
         <v>147</v>
       </c>
-      <c r="AA23" s="4" t="s">
+      <c r="AA23" t="s">
         <v>159</v>
       </c>
-      <c r="AB23" s="4" t="s">
+      <c r="AB23" t="s">
         <v>160</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AC23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" t="s">
         <v>41</v>
       </c>
       <c r="AF23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>3</v>
       </c>
       <c r="B24" s="3">
         <v>11</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
         <v>164</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" t="s">
         <v>71</v>
       </c>
       <c r="I24" s="3">
@@ -4372,46 +4243,39 @@
       <c r="V24" s="3">
         <v>5</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="W24" t="s">
         <v>147</v>
       </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4" t="s">
+      <c r="AE24" t="s">
         <v>41</v>
       </c>
       <c r="AF24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="3">
         <v>10</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" t="s">
         <v>80</v>
       </c>
       <c r="I25" s="3">
@@ -4456,46 +4320,39 @@
       <c r="V25" s="3">
         <v>30</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" t="s">
         <v>147</v>
       </c>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" t="s">
         <v>41</v>
       </c>
       <c r="AF25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="I26" s="3">
@@ -4540,60 +4397,60 @@
       <c r="V26" s="3">
         <v>20</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="W26" t="s">
         <v>147</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="X26" t="s">
         <v>147</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Y26" t="s">
         <v>171</v>
       </c>
-      <c r="Z26" s="4" t="s">
+      <c r="Z26" t="s">
         <v>160</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AA26" t="s">
         <v>172</v>
       </c>
-      <c r="AB26" s="4" t="s">
+      <c r="AB26" t="s">
         <v>173</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC26" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AE26" t="s">
         <v>41</v>
       </c>
       <c r="AF26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>3</v>
       </c>
       <c r="B27" s="3">
         <v>11</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" t="s">
         <v>178</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" t="s">
         <v>179</v>
       </c>
       <c r="I27" s="3">
@@ -4638,46 +4495,39 @@
       <c r="V27" s="3">
         <v>30</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="W27" t="s">
         <v>160</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4" t="s">
+      <c r="AE27" t="s">
         <v>41</v>
       </c>
       <c r="AF27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>4</v>
       </c>
       <c r="B28" s="3">
         <v>14</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="3">
@@ -4722,60 +4572,60 @@
       <c r="V28" s="3">
         <v>30</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="W28" t="s">
         <v>160</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X28" t="s">
         <v>160</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="Y28" t="s">
         <v>183</v>
       </c>
-      <c r="Z28" s="4" t="s">
+      <c r="Z28" t="s">
         <v>173</v>
       </c>
-      <c r="AA28" s="4" t="s">
+      <c r="AA28" t="s">
         <v>184</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AB28" t="s">
         <v>185</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AC28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AE28" t="s">
         <v>41</v>
       </c>
       <c r="AF28" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>4</v>
       </c>
       <c r="B29" s="3">
         <v>15</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="3">
@@ -4820,46 +4670,39 @@
       <c r="V29" s="3">
         <v>10</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="W29" t="s">
         <v>185</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4" t="s">
+      <c r="AE29" t="s">
         <v>41</v>
       </c>
       <c r="AF29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>4</v>
       </c>
       <c r="B30" s="3">
         <v>17</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
         <v>192</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="3">
@@ -4904,44 +4747,36 @@
       <c r="V30" s="3">
         <v>60</v>
       </c>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4" t="s">
+      <c r="AE30" t="s">
         <v>41</v>
       </c>
       <c r="AF30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>4</v>
       </c>
       <c r="B31" s="3">
         <v>17</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="3">
@@ -4986,46 +4821,39 @@
       <c r="V31" s="3">
         <v>30</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="W31" t="s">
         <v>196</v>
       </c>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4" t="s">
+      <c r="AE31" t="s">
         <v>41</v>
       </c>
       <c r="AF31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="3">
         <v>22</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="3">
@@ -5070,46 +4898,39 @@
       <c r="V32" s="3">
         <v>40</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="W32" t="s">
         <v>199</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4" t="s">
+      <c r="AE32" t="s">
         <v>41</v>
       </c>
       <c r="AF32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>22</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" t="s">
         <v>71</v>
       </c>
       <c r="I33" s="3">
@@ -5154,46 +4975,39 @@
       <c r="V33" s="3">
         <v>5</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="W33" t="s">
         <v>199</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4" t="s">
+      <c r="AE33" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="3">
         <v>22</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>207</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" t="s">
         <v>208</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" t="s">
         <v>71</v>
       </c>
       <c r="I34" s="3">
@@ -5238,46 +5052,39 @@
       <c r="V34" s="3">
         <v>5</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="W34" t="s">
         <v>209</v>
       </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4" t="s">
+      <c r="AE34" t="s">
         <v>41</v>
       </c>
       <c r="AF34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>5</v>
       </c>
       <c r="B35" s="3">
         <v>22</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" t="s">
         <v>71</v>
       </c>
       <c r="I35" s="3">
@@ -5322,48 +5129,42 @@
       <c r="V35" s="3">
         <v>5</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="W35" t="s">
         <v>173</v>
       </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4" t="s">
+      <c r="AE35" t="s">
         <v>41</v>
       </c>
       <c r="AF35" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>5</v>
       </c>
       <c r="B36" s="3">
         <v>21</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>215</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>216</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" t="s">
         <v>47</v>
       </c>
       <c r="I36" s="3">
@@ -5408,46 +5209,39 @@
       <c r="V36" s="3">
         <v>10</v>
       </c>
-      <c r="W36" s="4" t="s">
+      <c r="W36" t="s">
         <v>217</v>
       </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4" t="s">
+      <c r="AE36" t="s">
         <v>41</v>
       </c>
       <c r="AF36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>5</v>
       </c>
       <c r="B37" s="3">
         <v>21</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="3">
@@ -5492,58 +5286,57 @@
       <c r="V37" s="3">
         <v>40</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="W37" t="s">
         <v>209</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="X37" t="s">
         <v>209</v>
       </c>
-      <c r="Y37" s="4" t="s">
+      <c r="Y37" t="s">
         <v>220</v>
       </c>
-      <c r="Z37" s="4" t="s">
+      <c r="Z37" t="s">
         <v>221</v>
       </c>
-      <c r="AA37" s="4" t="s">
+      <c r="AA37" t="s">
         <v>222</v>
       </c>
-      <c r="AB37" s="4" t="s">
+      <c r="AB37" t="s">
         <v>223</v>
       </c>
-      <c r="AC37" s="5" t="s">
+      <c r="AC37" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4" t="s">
+      <c r="AE37" t="s">
         <v>41</v>
       </c>
       <c r="AF37" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>5</v>
       </c>
       <c r="B38" s="3">
         <v>20</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="3">
@@ -5588,46 +5381,39 @@
       <c r="V38" s="3">
         <v>20</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="W38" t="s">
         <v>221</v>
       </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4" t="s">
+      <c r="AE38" t="s">
         <v>41</v>
       </c>
       <c r="AF38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+    <row r="39" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>5</v>
       </c>
       <c r="B39" s="3">
         <v>19</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" t="s">
         <v>176</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" t="s">
         <v>232</v>
       </c>
       <c r="I39" s="3">
@@ -5646,58 +5432,57 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="4" t="s">
+      <c r="W39" t="s">
         <v>217</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="X39" t="s">
         <v>217</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="Y39" t="s">
         <v>233</v>
       </c>
-      <c r="Z39" s="4" t="s">
+      <c r="Z39" t="s">
         <v>223</v>
       </c>
-      <c r="AA39" s="4" t="s">
+      <c r="AA39" t="s">
         <v>234</v>
       </c>
-      <c r="AB39" s="4" t="s">
+      <c r="AB39" t="s">
         <v>235</v>
       </c>
-      <c r="AC39" s="5" t="s">
+      <c r="AC39" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4" t="s">
+      <c r="AE39" t="s">
         <v>41</v>
       </c>
       <c r="AF39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+    <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>5</v>
       </c>
       <c r="B40" s="3">
         <v>19</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>240</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="3">
@@ -5742,46 +5527,39 @@
       <c r="V40" s="3">
         <v>10</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" t="s">
         <v>223</v>
       </c>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4" t="s">
+      <c r="AE40" t="s">
         <v>41</v>
       </c>
       <c r="AF40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
+    <row r="41" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>5</v>
       </c>
       <c r="B41" s="3">
         <v>18</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>243</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="3">
@@ -5826,46 +5604,39 @@
       <c r="V41" s="3">
         <v>10</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="W41" t="s">
         <v>223</v>
       </c>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4" t="s">
+      <c r="AE41" t="s">
         <v>41</v>
       </c>
       <c r="AF41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
+    <row r="42" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>5</v>
       </c>
       <c r="B42" s="3">
         <v>18</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="3">
@@ -5910,46 +5681,39 @@
       <c r="V42" s="3">
         <v>20</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="W42" t="s">
         <v>223</v>
       </c>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4" t="s">
+      <c r="AE42" t="s">
         <v>41</v>
       </c>
       <c r="AF42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+    <row r="43" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>6</v>
       </c>
       <c r="B43" s="3">
         <v>26</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" t="s">
         <v>250</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" t="s">
         <v>76</v>
       </c>
       <c r="I43" s="3">
@@ -5994,46 +5758,39 @@
       <c r="V43" s="3">
         <v>20</v>
       </c>
-      <c r="W43" s="4" t="s">
+      <c r="W43" t="s">
         <v>223</v>
       </c>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4" t="s">
+      <c r="AE43" t="s">
         <v>41</v>
       </c>
       <c r="AF43" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
+    <row r="44" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>6</v>
       </c>
       <c r="B44" s="3">
         <v>26</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" t="s">
         <v>252</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" t="s">
         <v>102</v>
       </c>
       <c r="I44" s="3">
@@ -6078,46 +5835,39 @@
       <c r="V44" s="3">
         <v>40</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="W44" t="s">
         <v>235</v>
       </c>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4" t="s">
+      <c r="AE44" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+    <row r="45" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>6</v>
       </c>
       <c r="B45" s="3">
         <v>25</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" t="s">
         <v>254</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>255</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" t="s">
         <v>256</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" t="s">
         <v>71</v>
       </c>
       <c r="I45" s="3">
@@ -6162,58 +5912,57 @@
       <c r="V45" s="3">
         <v>5</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="W45" t="s">
         <v>221</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="X45" t="s">
         <v>221</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" t="s">
         <v>257</v>
       </c>
-      <c r="Z45" s="4" t="s">
+      <c r="Z45" t="s">
         <v>235</v>
       </c>
-      <c r="AA45" s="4" t="s">
+      <c r="AA45" t="s">
         <v>258</v>
       </c>
-      <c r="AB45" s="4" t="s">
+      <c r="AB45" t="s">
         <v>259</v>
       </c>
-      <c r="AC45" s="5" t="s">
+      <c r="AC45" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4" t="s">
+      <c r="AE45" t="s">
         <v>41</v>
       </c>
       <c r="AF45" s="3">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
+    <row r="46" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>6</v>
       </c>
       <c r="B46" s="3">
         <v>25</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" t="s">
         <v>261</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>262</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" t="s">
         <v>80</v>
       </c>
       <c r="I46" s="3">
@@ -6258,46 +6007,39 @@
       <c r="V46" s="3">
         <v>30</v>
       </c>
-      <c r="W46" s="4" t="s">
+      <c r="W46" t="s">
         <v>235</v>
       </c>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4" t="s">
+      <c r="AE46" t="s">
         <v>41</v>
       </c>
       <c r="AF46" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
+    <row r="47" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>6</v>
       </c>
       <c r="B47" s="3">
         <v>24</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>264</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>265</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" t="s">
         <v>266</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" t="s">
         <v>76</v>
       </c>
       <c r="I47" s="3">
@@ -6342,46 +6084,39 @@
       <c r="V47" s="3">
         <v>20</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="W47" t="s">
         <v>235</v>
       </c>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4" t="s">
+      <c r="AE47" t="s">
         <v>41</v>
       </c>
       <c r="AF47" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
+    <row r="48" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>6</v>
       </c>
       <c r="B48" s="3">
         <v>24</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>267</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>268</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>269</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" t="s">
         <v>71</v>
       </c>
       <c r="I48" s="3">
@@ -6426,44 +6161,36 @@
       <c r="V48" s="3">
         <v>5</v>
       </c>
-      <c r="W48" s="4" t="s">
+      <c r="W48" t="s">
         <v>235</v>
       </c>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4" t="s">
+      <c r="AE48" t="s">
         <v>41</v>
       </c>
       <c r="AF48" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
+    <row r="49" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>6</v>
       </c>
       <c r="B49" s="3">
         <v>24</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>270</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="E49" t="s">
         <v>271</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>273</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" t="s">
         <v>76</v>
       </c>
       <c r="I49" s="3">
@@ -6508,46 +6235,39 @@
       <c r="V49" s="3">
         <v>20</v>
       </c>
-      <c r="W49" s="4" t="s">
+      <c r="W49" t="s">
         <v>235</v>
       </c>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4" t="s">
+      <c r="AE49" t="s">
         <v>41</v>
       </c>
       <c r="AF49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
+    <row r="50" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>6</v>
       </c>
       <c r="B50" s="3">
         <v>25</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>253</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>274</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" t="s">
         <v>275</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="3">
@@ -6592,58 +6312,57 @@
       <c r="V50" s="3">
         <v>20</v>
       </c>
-      <c r="W50" s="4" t="s">
+      <c r="W50" t="s">
         <v>223</v>
       </c>
-      <c r="X50" s="4" t="s">
+      <c r="X50" t="s">
         <v>223</v>
       </c>
-      <c r="Y50" s="4" t="s">
+      <c r="Y50" t="s">
         <v>276</v>
       </c>
-      <c r="Z50" s="4" t="s">
+      <c r="Z50" t="s">
         <v>259</v>
       </c>
-      <c r="AA50" s="4" t="s">
+      <c r="AA50" t="s">
         <v>277</v>
       </c>
-      <c r="AB50" s="4" t="s">
+      <c r="AB50" t="s">
         <v>278</v>
       </c>
-      <c r="AC50" s="5" t="s">
+      <c r="AC50" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4" t="s">
+      <c r="AE50" t="s">
         <v>41</v>
       </c>
       <c r="AF50" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
+    <row r="51" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>6</v>
       </c>
       <c r="B51" s="3">
         <v>23</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>280</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" t="s">
         <v>281</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>282</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" t="s">
         <v>283</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" t="s">
         <v>71</v>
       </c>
       <c r="I51" s="3">
@@ -6688,46 +6407,39 @@
       <c r="V51" s="3">
         <v>5</v>
       </c>
-      <c r="W51" s="4" t="s">
+      <c r="W51" t="s">
         <v>259</v>
       </c>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4" t="s">
+      <c r="AE51" t="s">
         <v>41</v>
       </c>
       <c r="AF51" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
+    <row r="52" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>6</v>
       </c>
       <c r="B52" s="3">
         <v>23</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>286</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" t="s">
         <v>76</v>
       </c>
       <c r="I52" s="3">
@@ -6772,46 +6484,39 @@
       <c r="V52" s="3">
         <v>20</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="W52" t="s">
         <v>259</v>
       </c>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4" t="s">
+      <c r="AE52" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
+    <row r="53" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>6</v>
       </c>
       <c r="B53" s="3">
         <v>23</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" t="s">
         <v>289</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>290</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" t="s">
         <v>47</v>
       </c>
       <c r="I53" s="3">
@@ -6856,44 +6561,36 @@
       <c r="V53" s="3">
         <v>10</v>
       </c>
-      <c r="W53" s="4" t="s">
+      <c r="W53" t="s">
         <v>259</v>
       </c>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4" t="s">
+      <c r="AE53" t="s">
         <v>41</v>
       </c>
       <c r="AF53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
+    <row r="54" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>6</v>
       </c>
       <c r="B54" s="3">
         <v>23</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
+      <c r="E54" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" t="s">
         <v>292</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" t="s">
         <v>76</v>
       </c>
       <c r="I54" s="3">
@@ -6938,58 +6635,57 @@
       <c r="V54" s="3">
         <v>20</v>
       </c>
-      <c r="W54" s="4" t="s">
+      <c r="W54" t="s">
         <v>259</v>
       </c>
-      <c r="X54" s="4" t="s">
+      <c r="X54" t="s">
         <v>259</v>
       </c>
-      <c r="Y54" s="4" t="s">
+      <c r="Y54" t="s">
         <v>293</v>
       </c>
-      <c r="Z54" s="4" t="s">
+      <c r="Z54" t="s">
         <v>278</v>
       </c>
-      <c r="AA54" s="4" t="s">
+      <c r="AA54" t="s">
         <v>294</v>
       </c>
-      <c r="AB54" s="4" t="s">
+      <c r="AB54" t="s">
         <v>295</v>
       </c>
-      <c r="AC54" s="5" t="s">
+      <c r="AC54" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4" t="s">
+      <c r="AE54" t="s">
         <v>41</v>
       </c>
       <c r="AF54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
+    <row r="55" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>23</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>291</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" t="s">
         <v>297</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" t="s">
         <v>298</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>299</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" t="s">
         <v>52</v>
       </c>
       <c r="I55" s="3">
@@ -7034,46 +6730,39 @@
       <c r="V55" s="3">
         <v>50</v>
       </c>
-      <c r="W55" s="4" t="s">
+      <c r="W55" t="s">
         <v>278</v>
       </c>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4" t="s">
+      <c r="AE55" t="s">
         <v>41</v>
       </c>
       <c r="AF55" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
+    <row r="56" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>6</v>
       </c>
       <c r="B56" s="3">
         <v>23</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>300</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" t="s">
         <v>301</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>302</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" t="s">
         <v>303</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" t="s">
         <v>76</v>
       </c>
       <c r="I56" s="3">
@@ -7118,46 +6807,39 @@
       <c r="V56" s="3">
         <v>20</v>
       </c>
-      <c r="W56" s="4" t="s">
+      <c r="W56" t="s">
         <v>278</v>
       </c>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4" t="s">
+      <c r="AE56" t="s">
         <v>41</v>
       </c>
       <c r="AF56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
+    <row r="57" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>6</v>
       </c>
       <c r="B57" s="3">
         <v>22</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>304</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" t="s">
         <v>305</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>306</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" t="s">
         <v>307</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" t="s">
         <v>76</v>
       </c>
       <c r="I57" s="3">
@@ -7202,44 +6884,36 @@
       <c r="V57" s="3">
         <v>20</v>
       </c>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4" t="s">
+      <c r="AE57" t="s">
         <v>41</v>
       </c>
       <c r="AF57" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
+    <row r="58" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>6</v>
       </c>
       <c r="B58" s="3">
         <v>24</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>270</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" t="s">
         <v>308</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" t="s">
         <v>33</v>
       </c>
       <c r="I58" s="3">
@@ -7284,46 +6958,39 @@
       <c r="V58" s="3">
         <v>60</v>
       </c>
-      <c r="W58" s="4" t="s">
+      <c r="W58" t="s">
         <v>295</v>
       </c>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4" t="s">
+      <c r="AE58" t="s">
         <v>41</v>
       </c>
       <c r="AF58" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>7</v>
       </c>
       <c r="B59" s="3">
         <v>30</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>310</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" t="s">
         <v>312</v>
       </c>
       <c r="I59" s="3">
@@ -7368,56 +7035,54 @@
       <c r="V59" s="3">
         <v>60</v>
       </c>
-      <c r="W59" s="4" t="s">
+      <c r="W59" t="s">
         <v>278</v>
       </c>
-      <c r="X59" s="4" t="s">
+      <c r="X59" t="s">
         <v>278</v>
       </c>
-      <c r="Y59" s="4" t="s">
+      <c r="Y59" t="s">
         <v>313</v>
       </c>
-      <c r="Z59" s="4" t="s">
+      <c r="Z59" t="s">
         <v>314</v>
       </c>
-      <c r="AA59" s="4" t="s">
+      <c r="AA59" t="s">
         <v>315</v>
       </c>
-      <c r="AB59" s="4" t="s">
+      <c r="AB59" t="s">
         <v>316</v>
       </c>
-      <c r="AC59" s="5" t="s">
+      <c r="AC59" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4" t="s">
+      <c r="AE59" t="s">
         <v>41</v>
       </c>
       <c r="AF59" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>7</v>
       </c>
       <c r="B60" s="3">
         <v>30</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>318</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="E60" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" t="s">
         <v>321</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" t="s">
         <v>76</v>
       </c>
       <c r="I60" s="3">
@@ -7462,46 +7127,39 @@
       <c r="V60" s="3">
         <v>20</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="W60" t="s">
         <v>314</v>
       </c>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4" t="s">
+      <c r="AE60" t="s">
         <v>41</v>
       </c>
       <c r="AF60" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>7</v>
       </c>
       <c r="B61" s="3">
         <v>30</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>322</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" t="s">
         <v>323</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" t="s">
         <v>52</v>
       </c>
       <c r="I61" s="3">
@@ -7546,58 +7204,57 @@
       <c r="V61" s="3">
         <v>50</v>
       </c>
-      <c r="W61" s="4" t="s">
+      <c r="W61" t="s">
         <v>314</v>
       </c>
-      <c r="X61" s="4" t="s">
+      <c r="X61" t="s">
         <v>314</v>
       </c>
-      <c r="Y61" s="4" t="s">
+      <c r="Y61" t="s">
         <v>324</v>
       </c>
-      <c r="Z61" s="4" t="s">
+      <c r="Z61" t="s">
         <v>316</v>
       </c>
-      <c r="AA61" s="4" t="s">
+      <c r="AA61" t="s">
         <v>325</v>
       </c>
-      <c r="AB61" s="4" t="s">
+      <c r="AB61" t="s">
         <v>326</v>
       </c>
-      <c r="AC61" s="5" t="s">
+      <c r="AC61" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4" t="s">
+      <c r="AE61" t="s">
         <v>41</v>
       </c>
       <c r="AF61" s="3">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>7</v>
       </c>
       <c r="B62" s="3">
         <v>29</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>328</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" t="s">
         <v>329</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" t="s">
         <v>330</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" t="s">
         <v>331</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" t="s">
         <v>47</v>
       </c>
       <c r="I62" s="3">
@@ -7642,58 +7299,57 @@
       <c r="V62" s="3">
         <v>10</v>
       </c>
-      <c r="W62" s="4" t="s">
+      <c r="W62" t="s">
         <v>314</v>
       </c>
-      <c r="X62" s="4" t="s">
+      <c r="X62" t="s">
         <v>314</v>
       </c>
-      <c r="Y62" s="4" t="s">
+      <c r="Y62" t="s">
         <v>324</v>
       </c>
-      <c r="Z62" s="4" t="s">
+      <c r="Z62" t="s">
         <v>326</v>
       </c>
-      <c r="AA62" s="4" t="s">
+      <c r="AA62" t="s">
         <v>332</v>
       </c>
-      <c r="AB62" s="4" t="s">
+      <c r="AB62" t="s">
         <v>333</v>
       </c>
-      <c r="AC62" s="5" t="s">
+      <c r="AC62" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4" t="s">
+      <c r="AE62" t="s">
         <v>41</v>
       </c>
       <c r="AF62" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>7</v>
       </c>
       <c r="B63" s="3">
         <v>28</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>335</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" t="s">
         <v>336</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" t="s">
         <v>337</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" t="s">
         <v>338</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" t="s">
         <v>80</v>
       </c>
       <c r="I63" s="3">
@@ -7738,46 +7394,39 @@
       <c r="V63" s="3">
         <v>30</v>
       </c>
-      <c r="W63" s="4" t="s">
+      <c r="W63" t="s">
         <v>326</v>
       </c>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4" t="s">
+      <c r="AE63" t="s">
         <v>41</v>
       </c>
       <c r="AF63" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>7</v>
       </c>
       <c r="B64" s="3">
         <v>27</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>339</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" t="s">
         <v>111</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" t="s">
         <v>340</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" t="s">
         <v>341</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" t="s">
         <v>71</v>
       </c>
       <c r="I64" s="3">
@@ -7822,58 +7471,57 @@
       <c r="V64" s="3">
         <v>5</v>
       </c>
-      <c r="W64" s="4" t="s">
+      <c r="W64" t="s">
         <v>316</v>
       </c>
-      <c r="X64" s="4" t="s">
+      <c r="X64" t="s">
         <v>316</v>
       </c>
-      <c r="Y64" s="4" t="s">
+      <c r="Y64" t="s">
         <v>342</v>
       </c>
-      <c r="Z64" s="4" t="s">
+      <c r="Z64" t="s">
         <v>333</v>
       </c>
-      <c r="AA64" s="4" t="s">
+      <c r="AA64" t="s">
         <v>343</v>
       </c>
-      <c r="AB64" s="4" t="s">
+      <c r="AB64" t="s">
         <v>344</v>
       </c>
-      <c r="AC64" s="5" t="s">
+      <c r="AC64" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4" t="s">
+      <c r="AE64" t="s">
         <v>41</v>
       </c>
       <c r="AF64" s="3">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>7</v>
       </c>
       <c r="B65" s="3">
         <v>27</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" t="s">
         <v>346</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" t="s">
         <v>347</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" t="s">
         <v>348</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" t="s">
         <v>62</v>
       </c>
       <c r="I65" s="3">
@@ -7918,46 +7566,39 @@
       <c r="V65" s="3">
         <v>40</v>
       </c>
-      <c r="W65" s="4" t="s">
+      <c r="W65" t="s">
         <v>333</v>
       </c>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4" t="s">
+      <c r="AE65" t="s">
         <v>41</v>
       </c>
       <c r="AF65" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>7</v>
       </c>
       <c r="B66" s="3">
         <v>29</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>349</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" t="s">
         <v>350</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" t="s">
         <v>351</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" t="s">
         <v>352</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" t="s">
         <v>62</v>
       </c>
       <c r="I66" s="3">
@@ -8002,58 +7643,57 @@
       <c r="V66" s="3">
         <v>40</v>
       </c>
-      <c r="W66" s="4" t="s">
+      <c r="W66" t="s">
         <v>344</v>
       </c>
-      <c r="X66" s="4" t="s">
+      <c r="X66" t="s">
         <v>344</v>
       </c>
-      <c r="Y66" s="4" t="s">
+      <c r="Y66" t="s">
         <v>353</v>
       </c>
-      <c r="Z66" s="4" t="s">
+      <c r="Z66" t="s">
         <v>354</v>
       </c>
-      <c r="AA66" s="4" t="s">
+      <c r="AA66" t="s">
         <v>355</v>
       </c>
-      <c r="AB66" s="4" t="s">
+      <c r="AB66" t="s">
         <v>356</v>
       </c>
-      <c r="AC66" s="5" t="s">
+      <c r="AC66" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4" t="s">
+      <c r="AE66" t="s">
         <v>41</v>
       </c>
       <c r="AF66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>8</v>
       </c>
       <c r="B67" s="3">
         <v>34</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>358</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" t="s">
         <v>359</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" t="s">
         <v>360</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" t="s">
         <v>361</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" t="s">
         <v>47</v>
       </c>
       <c r="I67" s="3">
@@ -8098,58 +7738,57 @@
       <c r="V67" s="3">
         <v>10</v>
       </c>
-      <c r="W67" s="4" t="s">
+      <c r="W67" t="s">
         <v>326</v>
       </c>
-      <c r="X67" s="4" t="s">
+      <c r="X67" t="s">
         <v>326</v>
       </c>
-      <c r="Y67" s="4" t="s">
+      <c r="Y67" t="s">
         <v>362</v>
       </c>
-      <c r="Z67" s="4" t="s">
+      <c r="Z67" t="s">
         <v>344</v>
       </c>
-      <c r="AA67" s="4" t="s">
+      <c r="AA67" t="s">
         <v>363</v>
       </c>
-      <c r="AB67" s="4" t="s">
+      <c r="AB67" t="s">
         <v>354</v>
       </c>
-      <c r="AC67" s="5" t="s">
+      <c r="AC67" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4" t="s">
+      <c r="AE67" t="s">
         <v>41</v>
       </c>
       <c r="AF67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>8</v>
       </c>
       <c r="B68" s="3">
         <v>35</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>365</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" t="s">
         <v>368</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" t="s">
         <v>76</v>
       </c>
       <c r="I68" s="3">
@@ -8194,46 +7833,39 @@
       <c r="V68" s="3">
         <v>20</v>
       </c>
-      <c r="W68" s="4" t="s">
+      <c r="W68" t="s">
         <v>344</v>
       </c>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4" t="s">
+      <c r="AE68" t="s">
         <v>41</v>
       </c>
       <c r="AF68" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>8</v>
       </c>
       <c r="B69" s="3">
         <v>35</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>369</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" t="s">
         <v>370</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" t="s">
         <v>371</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" t="s">
         <v>372</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" t="s">
         <v>71</v>
       </c>
       <c r="I69" s="3">
@@ -8278,58 +7910,57 @@
       <c r="V69" s="3">
         <v>5</v>
       </c>
-      <c r="W69" s="4" t="s">
+      <c r="W69" t="s">
         <v>344</v>
       </c>
-      <c r="X69" s="4" t="s">
+      <c r="X69" t="s">
         <v>344</v>
       </c>
-      <c r="Y69" s="4" t="s">
+      <c r="Y69" t="s">
         <v>353</v>
       </c>
-      <c r="Z69" s="4" t="s">
+      <c r="Z69" t="s">
         <v>354</v>
       </c>
-      <c r="AA69" s="4" t="s">
+      <c r="AA69" t="s">
         <v>355</v>
       </c>
-      <c r="AB69" s="4" t="s">
+      <c r="AB69" t="s">
         <v>356</v>
       </c>
-      <c r="AC69" s="5" t="s">
+      <c r="AC69" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4" t="s">
+      <c r="AE69" t="s">
         <v>41</v>
       </c>
       <c r="AF69" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>8</v>
       </c>
       <c r="B70" s="3">
         <v>35</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>374</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>375</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" t="s">
         <v>376</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" t="s">
         <v>76</v>
       </c>
       <c r="I70" s="3">
@@ -8374,46 +8005,39 @@
       <c r="V70" s="3">
         <v>20</v>
       </c>
-      <c r="W70" s="4" t="s">
+      <c r="W70" t="s">
         <v>354</v>
       </c>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4" t="s">
+      <c r="AE70" t="s">
         <v>41</v>
       </c>
       <c r="AF70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>8</v>
       </c>
       <c r="B71" s="3">
         <v>35</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>374</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>105</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" t="s">
         <v>106</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" t="s">
         <v>377</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" t="s">
         <v>378</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" t="s">
         <v>71</v>
       </c>
       <c r="I71" s="3">
@@ -8458,46 +8082,39 @@
       <c r="V71" s="3">
         <v>5</v>
       </c>
-      <c r="W71" s="4" t="s">
+      <c r="W71" t="s">
         <v>356</v>
       </c>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4" t="s">
+      <c r="AE71" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>8</v>
       </c>
       <c r="B72" s="3">
         <v>34</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>379</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" t="s">
         <v>284</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" t="s">
         <v>380</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" t="s">
         <v>381</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" t="s">
         <v>382</v>
       </c>
       <c r="I72" s="3">
@@ -8542,46 +8159,39 @@
       <c r="V72" s="3">
         <v>65</v>
       </c>
-      <c r="W72" s="4" t="s">
+      <c r="W72" t="s">
         <v>356</v>
       </c>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4" t="s">
+      <c r="AE72" t="s">
         <v>41</v>
       </c>
       <c r="AF72" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>8</v>
       </c>
       <c r="B73" s="3">
         <v>34</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>383</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>105</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" t="s">
         <v>384</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" t="s">
         <v>385</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" t="s">
         <v>386</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" t="s">
         <v>47</v>
       </c>
       <c r="I73" s="3">
@@ -8626,46 +8236,39 @@
       <c r="V73" s="3">
         <v>10</v>
       </c>
-      <c r="W73" s="4" t="s">
+      <c r="W73" t="s">
         <v>356</v>
       </c>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4" t="s">
+      <c r="AE73" t="s">
         <v>41</v>
       </c>
       <c r="AF73" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>8</v>
       </c>
       <c r="B74" s="3">
         <v>33</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>387</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" t="s">
         <v>301</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" t="s">
         <v>388</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" t="s">
         <v>389</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" t="s">
         <v>47</v>
       </c>
       <c r="I74" s="3">
@@ -8710,58 +8313,57 @@
       <c r="V74" s="3">
         <v>10</v>
       </c>
-      <c r="W74" s="4" t="s">
+      <c r="W74" t="s">
         <v>390</v>
       </c>
-      <c r="X74" s="4" t="s">
+      <c r="X74" t="s">
         <v>391</v>
       </c>
-      <c r="Y74" s="4" t="s">
+      <c r="Y74" t="s">
         <v>392</v>
       </c>
-      <c r="Z74" s="4" t="s">
+      <c r="Z74" t="s">
         <v>393</v>
       </c>
-      <c r="AA74" s="4" t="s">
+      <c r="AA74" t="s">
         <v>390</v>
       </c>
-      <c r="AB74" s="4" t="s">
+      <c r="AB74" t="s">
         <v>394</v>
       </c>
-      <c r="AC74" s="5" t="s">
+      <c r="AC74" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4" t="s">
+      <c r="AE74" t="s">
         <v>41</v>
       </c>
       <c r="AF74" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>8</v>
       </c>
       <c r="B75" s="3">
         <v>33</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>396</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>201</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" t="s">
         <v>397</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" t="s">
         <v>398</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" t="s">
         <v>399</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" t="s">
         <v>47</v>
       </c>
       <c r="I75" s="3">
@@ -8806,46 +8408,39 @@
       <c r="V75" s="3">
         <v>10</v>
       </c>
-      <c r="W75" s="4" t="s">
+      <c r="W75" t="s">
         <v>391</v>
       </c>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4" t="s">
+      <c r="AE75" t="s">
         <v>41</v>
       </c>
       <c r="AF75" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>8</v>
       </c>
       <c r="B76" s="3">
         <v>33</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" t="s">
         <v>401</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" t="s">
         <v>403</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="3">
@@ -8890,46 +8485,39 @@
       <c r="V76" s="3">
         <v>10</v>
       </c>
-      <c r="W76" s="4" t="s">
+      <c r="W76" t="s">
         <v>391</v>
       </c>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4" t="s">
+      <c r="AE76" t="s">
         <v>41</v>
       </c>
       <c r="AF76" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>8</v>
       </c>
       <c r="B77" s="3">
         <v>32</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>404</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" t="s">
         <v>405</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" t="s">
         <v>406</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" t="s">
         <v>407</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" t="s">
         <v>47</v>
       </c>
       <c r="I77" s="3">
@@ -8974,46 +8562,39 @@
       <c r="V77" s="3">
         <v>10</v>
       </c>
-      <c r="W77" s="4" t="s">
+      <c r="W77" t="s">
         <v>393</v>
       </c>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4" t="s">
+      <c r="AE77" t="s">
         <v>41</v>
       </c>
       <c r="AF77" s="3">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>8</v>
       </c>
       <c r="B78" s="3">
         <v>32</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>408</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>93</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" t="s">
         <v>95</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" t="s">
         <v>409</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" t="s">
         <v>80</v>
       </c>
       <c r="I78" s="3">
@@ -9058,46 +8639,39 @@
       <c r="V78" s="3">
         <v>30</v>
       </c>
-      <c r="W78" s="4" t="s">
+      <c r="W78" t="s">
         <v>393</v>
       </c>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4" t="s">
+      <c r="AE78" t="s">
         <v>41</v>
       </c>
       <c r="AF78" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>8</v>
       </c>
       <c r="B79" s="3">
         <v>31</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>410</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" t="s">
         <v>411</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>412</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" t="s">
         <v>413</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" t="s">
         <v>71</v>
       </c>
       <c r="I79" s="3">
@@ -9142,46 +8716,39 @@
       <c r="V79" s="3">
         <v>5</v>
       </c>
-      <c r="W79" s="4" t="s">
+      <c r="W79" t="s">
         <v>393</v>
       </c>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4" t="s">
+      <c r="AE79" t="s">
         <v>41</v>
       </c>
       <c r="AF79" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>8</v>
       </c>
       <c r="B80" s="3">
         <v>31</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>414</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>93</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" t="s">
         <v>415</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" t="s">
         <v>416</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" t="s">
         <v>417</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" t="s">
         <v>62</v>
       </c>
       <c r="I80" s="3">
@@ -9226,46 +8793,39 @@
       <c r="V80" s="3">
         <v>40</v>
       </c>
-      <c r="W80" s="4" t="s">
+      <c r="W80" t="s">
         <v>393</v>
       </c>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4" t="s">
+      <c r="AE80" t="s">
         <v>41</v>
       </c>
       <c r="AF80" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>9</v>
       </c>
       <c r="B81" s="3">
         <v>39</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>418</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" t="s">
         <v>419</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" t="s">
         <v>420</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" t="s">
         <v>421</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" t="s">
         <v>71</v>
       </c>
       <c r="I81" s="3">
@@ -9310,58 +8870,57 @@
       <c r="V81" s="3">
         <v>5</v>
       </c>
-      <c r="W81" s="4" t="s">
+      <c r="W81" t="s">
         <v>391</v>
       </c>
-      <c r="X81" s="4" t="s">
+      <c r="X81" t="s">
         <v>391</v>
       </c>
-      <c r="Y81" s="4" t="s">
+      <c r="Y81" t="s">
         <v>392</v>
       </c>
-      <c r="Z81" s="4" t="s">
+      <c r="Z81" t="s">
         <v>394</v>
       </c>
-      <c r="AA81" s="4" t="s">
+      <c r="AA81" t="s">
         <v>422</v>
       </c>
-      <c r="AB81" s="4" t="s">
+      <c r="AB81" t="s">
         <v>423</v>
       </c>
-      <c r="AC81" s="5" t="s">
+      <c r="AC81" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4" t="s">
+      <c r="AE81" t="s">
         <v>41</v>
       </c>
       <c r="AF81" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>9</v>
       </c>
       <c r="B82" s="3">
         <v>39</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>418</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>87</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" t="s">
         <v>89</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" t="s">
         <v>425</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" t="s">
         <v>71</v>
       </c>
       <c r="I82" s="3">
@@ -9406,58 +8965,57 @@
       <c r="V82" s="3">
         <v>5</v>
       </c>
-      <c r="W82" s="4" t="s">
+      <c r="W82" t="s">
         <v>393</v>
       </c>
-      <c r="X82" s="4" t="s">
+      <c r="X82" t="s">
         <v>393</v>
       </c>
-      <c r="Y82" s="4" t="s">
+      <c r="Y82" t="s">
         <v>426</v>
       </c>
-      <c r="Z82" s="4" t="s">
+      <c r="Z82" t="s">
         <v>394</v>
       </c>
-      <c r="AA82" s="4" t="s">
+      <c r="AA82" t="s">
         <v>422</v>
       </c>
-      <c r="AB82" s="4" t="s">
+      <c r="AB82" t="s">
         <v>423</v>
       </c>
-      <c r="AC82" s="5" t="s">
+      <c r="AC82" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4" t="s">
+      <c r="AE82" t="s">
         <v>41</v>
       </c>
       <c r="AF82" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>9</v>
       </c>
       <c r="B83" s="3">
         <v>39</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>428</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" t="s">
         <v>429</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" t="s">
         <v>430</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" t="s">
         <v>179</v>
       </c>
       <c r="I83" s="3">
@@ -9502,46 +9060,39 @@
       <c r="V83" s="3">
         <v>30</v>
       </c>
-      <c r="W83" s="4" t="s">
+      <c r="W83" t="s">
         <v>394</v>
       </c>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4" t="s">
+      <c r="AE83" t="s">
         <v>41</v>
       </c>
       <c r="AF83" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>9</v>
       </c>
       <c r="B84" s="3">
         <v>38</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>431</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" t="s">
         <v>432</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" t="s">
         <v>433</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" t="s">
         <v>47</v>
       </c>
       <c r="I84" s="3">
@@ -9586,46 +9137,39 @@
       <c r="V84" s="3">
         <v>10</v>
       </c>
-      <c r="W84" s="4" t="s">
+      <c r="W84" t="s">
         <v>394</v>
       </c>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4" t="s">
+      <c r="AE84" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>9</v>
       </c>
       <c r="B85" s="3">
         <v>38</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>431</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" t="s">
         <v>267</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" t="s">
         <v>268</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" t="s">
         <v>434</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" t="s">
         <v>76</v>
       </c>
       <c r="I85" s="3">
@@ -9670,46 +9214,39 @@
       <c r="V85" s="3">
         <v>20</v>
       </c>
-      <c r="W85" s="4" t="s">
+      <c r="W85" t="s">
         <v>394</v>
       </c>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4" t="s">
+      <c r="AE85" t="s">
         <v>41</v>
       </c>
       <c r="AF85" s="3">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>9</v>
       </c>
       <c r="B86" s="3">
         <v>37</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" t="s">
         <v>435</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" t="s">
         <v>436</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" t="s">
         <v>437</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" t="s">
         <v>76</v>
       </c>
       <c r="I86" s="3">
@@ -9754,58 +9291,57 @@
       <c r="V86" s="3">
         <v>20</v>
       </c>
-      <c r="W86" s="4" t="s">
+      <c r="W86" t="s">
         <v>354</v>
       </c>
-      <c r="X86" s="4" t="s">
+      <c r="X86" t="s">
         <v>423</v>
       </c>
-      <c r="Y86" s="4" t="s">
+      <c r="Y86" t="s">
         <v>438</v>
       </c>
-      <c r="Z86" s="4" t="s">
+      <c r="Z86" t="s">
         <v>439</v>
       </c>
-      <c r="AA86" s="4" t="s">
+      <c r="AA86" t="s">
         <v>439</v>
       </c>
-      <c r="AB86" s="4" t="s">
+      <c r="AB86" t="s">
         <v>440</v>
       </c>
-      <c r="AC86" s="5" t="s">
+      <c r="AC86" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4" t="s">
+      <c r="AE86" t="s">
         <v>41</v>
       </c>
       <c r="AF86" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>9</v>
       </c>
       <c r="B87" s="3">
         <v>37</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>442</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" t="s">
         <v>124</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" t="s">
         <v>443</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" t="s">
         <v>444</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" t="s">
         <v>179</v>
       </c>
       <c r="I87" s="3">
@@ -9850,58 +9386,57 @@
       <c r="V87" s="3">
         <v>30</v>
       </c>
-      <c r="W87" s="4" t="s">
+      <c r="W87" t="s">
         <v>393</v>
       </c>
-      <c r="X87" s="4" t="s">
+      <c r="X87" t="s">
         <v>393</v>
       </c>
-      <c r="Y87" s="4" t="s">
+      <c r="Y87" t="s">
         <v>426</v>
       </c>
-      <c r="Z87" s="4" t="s">
+      <c r="Z87" t="s">
         <v>423</v>
       </c>
-      <c r="AA87" s="4" t="s">
+      <c r="AA87" t="s">
         <v>445</v>
       </c>
-      <c r="AB87" s="4" t="s">
+      <c r="AB87" t="s">
         <v>439</v>
       </c>
-      <c r="AC87" s="5" t="s">
+      <c r="AC87" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4" t="s">
+      <c r="AE87" t="s">
         <v>41</v>
       </c>
       <c r="AF87" s="3">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>9</v>
       </c>
       <c r="B88" s="3">
         <v>38</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>447</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" t="s">
         <v>77</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" t="s">
         <v>448</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" t="s">
         <v>449</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" t="s">
         <v>47</v>
       </c>
       <c r="I88" s="3">
@@ -9946,58 +9481,57 @@
       <c r="V88" s="3">
         <v>10</v>
       </c>
-      <c r="W88" s="4" t="s">
+      <c r="W88" t="s">
         <v>394</v>
       </c>
-      <c r="X88" s="4" t="s">
+      <c r="X88" t="s">
         <v>394</v>
       </c>
-      <c r="Y88" s="4" t="s">
+      <c r="Y88" t="s">
         <v>450</v>
       </c>
-      <c r="Z88" s="4" t="s">
+      <c r="Z88" t="s">
         <v>423</v>
       </c>
-      <c r="AA88" s="4" t="s">
+      <c r="AA88" t="s">
         <v>445</v>
       </c>
-      <c r="AB88" s="4" t="s">
+      <c r="AB88" t="s">
         <v>439</v>
       </c>
-      <c r="AC88" s="5" t="s">
+      <c r="AC88" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4" t="s">
+      <c r="AE88" t="s">
         <v>41</v>
       </c>
       <c r="AF88" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>9</v>
       </c>
       <c r="B89" s="3">
         <v>37</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>452</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" t="s">
         <v>350</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" t="s">
         <v>453</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" t="s">
         <v>454</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" t="s">
         <v>382</v>
       </c>
       <c r="I89" s="3">
@@ -10042,46 +9576,39 @@
       <c r="V89" s="3">
         <v>65</v>
       </c>
-      <c r="W89" s="4" t="s">
+      <c r="W89" t="s">
         <v>423</v>
       </c>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="4" t="s">
+      <c r="AE89" t="s">
         <v>41</v>
       </c>
       <c r="AF89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>9</v>
       </c>
       <c r="B90" s="3">
         <v>36</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" t="s">
         <v>456</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" t="s">
         <v>457</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" t="s">
         <v>458</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" t="s">
         <v>71</v>
       </c>
       <c r="I90" s="3">
@@ -10126,46 +9653,39 @@
       <c r="V90" s="3">
         <v>5</v>
       </c>
-      <c r="W90" s="4" t="s">
+      <c r="W90" t="s">
         <v>439</v>
       </c>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="4" t="s">
+      <c r="AE90" t="s">
         <v>41</v>
       </c>
       <c r="AF90" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>9</v>
       </c>
       <c r="B91" s="3">
         <v>36</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>455</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" t="s">
         <v>226</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" t="s">
         <v>459</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" t="s">
         <v>460</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" t="s">
         <v>71</v>
       </c>
       <c r="I91" s="3">
@@ -10210,46 +9730,39 @@
       <c r="V91" s="3">
         <v>5</v>
       </c>
-      <c r="W91" s="4" t="s">
+      <c r="W91" t="s">
         <v>439</v>
       </c>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="4" t="s">
+      <c r="AE91" t="s">
         <v>41</v>
       </c>
       <c r="AF91" s="3">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
         <v>9</v>
       </c>
       <c r="B92" s="3">
         <v>36</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>300</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" t="s">
         <v>254</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" t="s">
         <v>255</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" t="s">
         <v>461</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" t="s">
         <v>76</v>
       </c>
       <c r="I92" s="3">
@@ -10294,46 +9807,39 @@
       <c r="V92" s="3">
         <v>20</v>
       </c>
-      <c r="W92" s="4" t="s">
+      <c r="W92" t="s">
         <v>439</v>
       </c>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4" t="s">
+      <c r="AE92" t="s">
         <v>41</v>
       </c>
       <c r="AF92" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
         <v>9</v>
       </c>
       <c r="B93" s="3">
         <v>36</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" t="s">
         <v>29</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" t="s">
         <v>337</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" t="s">
         <v>462</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" t="s">
         <v>179</v>
       </c>
       <c r="I93" s="3">
@@ -10378,58 +9884,57 @@
       <c r="V93" s="3">
         <v>30</v>
       </c>
-      <c r="W93" s="4" t="s">
+      <c r="W93" t="s">
         <v>439</v>
       </c>
-      <c r="X93" s="4" t="s">
+      <c r="X93" t="s">
         <v>439</v>
       </c>
-      <c r="Y93" s="4" t="s">
+      <c r="Y93" t="s">
         <v>463</v>
       </c>
-      <c r="Z93" s="4" t="s">
+      <c r="Z93" t="s">
         <v>440</v>
       </c>
-      <c r="AA93" s="4" t="s">
+      <c r="AA93" t="s">
         <v>464</v>
       </c>
-      <c r="AB93" s="4" t="s">
+      <c r="AB93" t="s">
         <v>465</v>
       </c>
-      <c r="AC93" s="5" t="s">
+      <c r="AC93" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="4" t="s">
+      <c r="AE93" t="s">
         <v>41</v>
       </c>
       <c r="AF93" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>9</v>
       </c>
       <c r="B94" s="3">
         <v>36</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>300</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" t="s">
         <v>176</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" t="s">
         <v>467</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" t="s">
         <v>468</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" t="s">
         <v>33</v>
       </c>
       <c r="I94" s="3">
@@ -10474,46 +9979,39 @@
       <c r="V94" s="3">
         <v>60</v>
       </c>
-      <c r="W94" s="4" t="s">
+      <c r="W94" t="s">
         <v>440</v>
       </c>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AC94" s="4"/>
-      <c r="AD94" s="4"/>
-      <c r="AE94" s="4" t="s">
+      <c r="AE94" t="s">
         <v>41</v>
       </c>
       <c r="AF94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
         <v>9</v>
       </c>
       <c r="B95" s="3">
         <v>37</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>442</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" t="s">
         <v>29</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" t="s">
         <v>469</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" t="s">
         <v>470</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" t="s">
         <v>471</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="H95" t="s">
         <v>62</v>
       </c>
       <c r="I95" s="3">
@@ -10558,46 +10056,39 @@
       <c r="V95" s="3">
         <v>40</v>
       </c>
-      <c r="W95" s="4" t="s">
+      <c r="W95" t="s">
         <v>440</v>
       </c>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-      <c r="AE95" s="4" t="s">
+      <c r="AE95" t="s">
         <v>41</v>
       </c>
       <c r="AF95" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
         <v>10</v>
       </c>
       <c r="B96" s="3">
         <v>44</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>72</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" t="s">
         <v>29</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" t="s">
         <v>337</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" t="s">
         <v>472</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" t="s">
         <v>179</v>
       </c>
       <c r="I96" s="3">
@@ -10642,46 +10133,39 @@
       <c r="V96" s="3">
         <v>30</v>
       </c>
-      <c r="W96" s="4" t="s">
+      <c r="W96" t="s">
         <v>465</v>
       </c>
-      <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-      <c r="AE96" s="4" t="s">
+      <c r="AE96" t="s">
         <v>41</v>
       </c>
       <c r="AF96" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
         <v>10</v>
       </c>
       <c r="B97" s="3">
         <v>42</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>473</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" t="s">
         <v>202</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" t="s">
         <v>474</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" t="s">
         <v>475</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H97" t="s">
         <v>476</v>
       </c>
       <c r="I97" s="3">
@@ -10726,46 +10210,39 @@
       <c r="V97" s="3">
         <v>30</v>
       </c>
-      <c r="W97" s="4" t="s">
+      <c r="W97" t="s">
         <v>465</v>
       </c>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
-      <c r="AA97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AC97" s="4"/>
-      <c r="AD97" s="4"/>
-      <c r="AE97" s="4" t="s">
+      <c r="AE97" t="s">
         <v>41</v>
       </c>
       <c r="AF97" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
         <v>10</v>
       </c>
       <c r="B98" s="3">
         <v>43</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" t="s">
         <v>111</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" t="s">
         <v>477</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" t="s">
         <v>478</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" t="s">
         <v>52</v>
       </c>
       <c r="I98" s="3">
@@ -10810,46 +10287,39 @@
       <c r="V98" s="3">
         <v>50</v>
       </c>
-      <c r="W98" s="4" t="s">
+      <c r="W98" t="s">
         <v>465</v>
       </c>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
-      <c r="AA98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AC98" s="4"/>
-      <c r="AD98" s="4"/>
-      <c r="AE98" s="4" t="s">
+      <c r="AE98" t="s">
         <v>41</v>
       </c>
       <c r="AF98" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
         <v>10</v>
       </c>
       <c r="B99" s="3">
         <v>43</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>358</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" t="s">
         <v>105</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" t="s">
         <v>288</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" t="s">
         <v>479</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" t="s">
         <v>480</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" t="s">
         <v>71</v>
       </c>
       <c r="I99" s="3">
@@ -10894,46 +10364,39 @@
       <c r="V99" s="3">
         <v>5</v>
       </c>
-      <c r="W99" s="4" t="s">
+      <c r="W99" t="s">
         <v>465</v>
       </c>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-      <c r="AE99" s="4" t="s">
+      <c r="AE99" t="s">
         <v>41</v>
       </c>
       <c r="AF99" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
         <v>10</v>
       </c>
       <c r="B100" s="3">
         <v>43</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" t="s">
         <v>49</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" t="s">
         <v>481</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" t="s">
         <v>482</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" t="s">
         <v>76</v>
       </c>
       <c r="I100" s="3">
@@ -10978,46 +10441,39 @@
       <c r="V100" s="3">
         <v>20</v>
       </c>
-      <c r="W100" s="4" t="s">
+      <c r="W100" t="s">
         <v>465</v>
       </c>
-      <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
-      <c r="AA100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AC100" s="4"/>
-      <c r="AD100" s="4"/>
-      <c r="AE100" s="4" t="s">
+      <c r="AE100" t="s">
         <v>41</v>
       </c>
       <c r="AF100" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
         <v>10</v>
       </c>
       <c r="B101" s="3">
         <v>43</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>67</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" t="s">
         <v>483</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" t="s">
         <v>484</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" t="s">
         <v>485</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" t="s">
         <v>71</v>
       </c>
       <c r="I101" s="3">
@@ -11062,58 +10518,57 @@
       <c r="V101" s="3">
         <v>5</v>
       </c>
-      <c r="W101" s="4" t="s">
+      <c r="W101" t="s">
         <v>440</v>
       </c>
-      <c r="X101" s="4" t="s">
+      <c r="X101" t="s">
         <v>440</v>
       </c>
-      <c r="Y101" s="4" t="s">
+      <c r="Y101" t="s">
         <v>486</v>
       </c>
-      <c r="Z101" s="4" t="s">
+      <c r="Z101" t="s">
         <v>487</v>
       </c>
-      <c r="AA101" s="4" t="s">
+      <c r="AA101" t="s">
         <v>488</v>
       </c>
-      <c r="AB101" s="4" t="s">
+      <c r="AB101" t="s">
         <v>489</v>
       </c>
-      <c r="AC101" s="5" t="s">
+      <c r="AC101" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4" t="s">
+      <c r="AE101" t="s">
         <v>41</v>
       </c>
       <c r="AF101" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
         <v>10</v>
       </c>
       <c r="B102" s="3">
         <v>43</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>491</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" t="s">
         <v>93</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" t="s">
         <v>94</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" t="s">
         <v>95</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G102" t="s">
         <v>492</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" t="s">
         <v>76</v>
       </c>
       <c r="I102" s="3">
@@ -11158,46 +10613,39 @@
       <c r="V102" s="3">
         <v>20</v>
       </c>
-      <c r="W102" s="4" t="s">
+      <c r="W102" t="s">
         <v>487</v>
       </c>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-      <c r="AE102" s="4" t="s">
+      <c r="AE102" t="s">
         <v>41</v>
       </c>
       <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
         <v>10</v>
       </c>
       <c r="B103" s="3">
         <v>44</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>72</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" t="s">
         <v>43</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" t="s">
         <v>166</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" t="s">
         <v>493</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" t="s">
         <v>494</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H103" t="s">
         <v>80</v>
       </c>
       <c r="I103" s="3">
@@ -11242,46 +10690,39 @@
       <c r="V103" s="3">
         <v>30</v>
       </c>
-      <c r="W103" s="4" t="s">
+      <c r="W103" t="s">
         <v>487</v>
       </c>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4" t="s">
+      <c r="AE103" t="s">
         <v>41</v>
       </c>
       <c r="AF103" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
         <v>10</v>
       </c>
       <c r="B104" s="3">
         <v>44</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>72</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" t="s">
         <v>495</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" t="s">
         <v>496</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" t="s">
         <v>76</v>
       </c>
       <c r="I104" s="3">
@@ -11326,46 +10767,39 @@
       <c r="V104" s="3">
         <v>20</v>
       </c>
-      <c r="W104" s="4" t="s">
+      <c r="W104" t="s">
         <v>487</v>
       </c>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="4"/>
-      <c r="AB104" s="4"/>
-      <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
-      <c r="AE104" s="4" t="s">
+      <c r="AE104" t="s">
         <v>41</v>
       </c>
       <c r="AF104" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
         <v>10</v>
       </c>
       <c r="B105" s="3">
         <v>42</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>497</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" t="s">
         <v>43</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" t="s">
         <v>498</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" t="s">
         <v>499</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" t="s">
         <v>500</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H105" t="s">
         <v>47</v>
       </c>
       <c r="I105" s="3">
@@ -11410,46 +10844,39 @@
       <c r="V105" s="3">
         <v>10</v>
       </c>
-      <c r="W105" s="4" t="s">
+      <c r="W105" t="s">
         <v>487</v>
       </c>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4" t="s">
+      <c r="AE105" t="s">
         <v>41</v>
       </c>
       <c r="AF105" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
         <v>10</v>
       </c>
       <c r="B106" s="3">
         <v>43</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>501</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" t="s">
         <v>337</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" t="s">
         <v>502</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" t="s">
         <v>179</v>
       </c>
       <c r="I106" s="3">
@@ -11494,58 +10921,57 @@
       <c r="V106" s="3">
         <v>30</v>
       </c>
-      <c r="W106" s="4" t="s">
+      <c r="W106" t="s">
         <v>465</v>
       </c>
-      <c r="X106" s="4" t="s">
+      <c r="X106" t="s">
         <v>465</v>
       </c>
-      <c r="Y106" s="4" t="s">
+      <c r="Y106" t="s">
         <v>503</v>
       </c>
-      <c r="Z106" s="4" t="s">
+      <c r="Z106" t="s">
         <v>489</v>
       </c>
-      <c r="AA106" s="4" t="s">
+      <c r="AA106" t="s">
         <v>504</v>
       </c>
-      <c r="AB106" s="4" t="s">
+      <c r="AB106" t="s">
         <v>505</v>
       </c>
-      <c r="AC106" s="5" t="s">
+      <c r="AC106" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="AD106" s="4"/>
-      <c r="AE106" s="4" t="s">
+      <c r="AE106" t="s">
         <v>41</v>
       </c>
       <c r="AF106" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
         <v>10</v>
       </c>
       <c r="B107" s="3">
         <v>42</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" t="s">
         <v>415</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" t="s">
         <v>416</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" t="s">
         <v>507</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" t="s">
         <v>47</v>
       </c>
       <c r="I107" s="3">
@@ -11590,46 +11016,39 @@
       <c r="V107" s="3">
         <v>10</v>
       </c>
-      <c r="W107" s="4" t="s">
+      <c r="W107" t="s">
         <v>489</v>
       </c>
-      <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
-      <c r="Z107" s="4"/>
-      <c r="AA107" s="4"/>
-      <c r="AB107" s="4"/>
-      <c r="AC107" s="4"/>
-      <c r="AD107" s="4"/>
-      <c r="AE107" s="4" t="s">
+      <c r="AE107" t="s">
         <v>41</v>
       </c>
       <c r="AF107" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
         <v>10</v>
       </c>
       <c r="B108" s="3">
         <v>42</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>497</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" t="s">
         <v>87</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" t="s">
         <v>508</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" t="s">
         <v>509</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" t="s">
         <v>510</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" t="s">
         <v>47</v>
       </c>
       <c r="I108" s="3">
@@ -11674,58 +11093,57 @@
       <c r="V108" s="3">
         <v>10</v>
       </c>
-      <c r="W108" s="4" t="s">
+      <c r="W108" t="s">
         <v>487</v>
       </c>
-      <c r="X108" s="4" t="s">
+      <c r="X108" t="s">
         <v>487</v>
       </c>
-      <c r="Y108" s="4" t="s">
+      <c r="Y108" t="s">
         <v>511</v>
       </c>
-      <c r="Z108" s="4" t="s">
+      <c r="Z108" t="s">
         <v>489</v>
       </c>
-      <c r="AA108" s="4" t="s">
+      <c r="AA108" t="s">
         <v>504</v>
       </c>
-      <c r="AB108" s="4" t="s">
+      <c r="AB108" t="s">
         <v>505</v>
       </c>
-      <c r="AC108" s="5" t="s">
+      <c r="AC108" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="AD108" s="4"/>
-      <c r="AE108" s="4" t="s">
+      <c r="AE108" t="s">
         <v>41</v>
       </c>
       <c r="AF108" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
         <v>10</v>
       </c>
       <c r="B109" s="3">
         <v>42</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" t="s">
         <v>59</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" t="s">
         <v>375</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" t="s">
         <v>376</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H109" t="s">
         <v>76</v>
       </c>
       <c r="I109" s="3">
@@ -11770,46 +11188,39 @@
       <c r="V109" s="3">
         <v>20</v>
       </c>
-      <c r="W109" s="4" t="s">
+      <c r="W109" t="s">
         <v>489</v>
       </c>
-      <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
-      <c r="Z109" s="4"/>
-      <c r="AA109" s="4"/>
-      <c r="AB109" s="4"/>
-      <c r="AC109" s="4"/>
-      <c r="AD109" s="4"/>
-      <c r="AE109" s="4" t="s">
+      <c r="AE109" t="s">
         <v>41</v>
       </c>
       <c r="AF109" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
         <v>10</v>
       </c>
       <c r="B110" s="3">
         <v>42</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" t="s">
         <v>120</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" t="s">
         <v>513</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" t="s">
         <v>514</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" t="s">
         <v>179</v>
       </c>
       <c r="I110" s="3">
@@ -11854,46 +11265,39 @@
       <c r="V110" s="3">
         <v>30</v>
       </c>
-      <c r="W110" s="4" t="s">
+      <c r="W110" t="s">
         <v>489</v>
       </c>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
-      <c r="AA110" s="4"/>
-      <c r="AB110" s="4"/>
-      <c r="AC110" s="4"/>
-      <c r="AD110" s="4"/>
-      <c r="AE110" s="4" t="s">
+      <c r="AE110" t="s">
         <v>41</v>
       </c>
       <c r="AF110" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
         <v>10</v>
       </c>
       <c r="B111" s="3">
         <v>40</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>515</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" t="s">
         <v>201</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" t="s">
         <v>516</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" t="s">
         <v>517</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" t="s">
         <v>518</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" t="s">
         <v>47</v>
       </c>
       <c r="I111" s="3">
@@ -11938,46 +11342,39 @@
       <c r="V111" s="3">
         <v>10</v>
       </c>
-      <c r="W111" s="4" t="s">
+      <c r="W111" t="s">
         <v>489</v>
       </c>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
-      <c r="AA111" s="4"/>
-      <c r="AB111" s="4"/>
-      <c r="AC111" s="4"/>
-      <c r="AD111" s="4"/>
-      <c r="AE111" s="4" t="s">
+      <c r="AE111" t="s">
         <v>41</v>
       </c>
       <c r="AF111" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
         <v>10</v>
       </c>
       <c r="B112" s="3">
         <v>40</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" t="s">
         <v>519</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" t="s">
         <v>88</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" t="s">
         <v>89</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" t="s">
         <v>520</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H112" t="s">
         <v>47</v>
       </c>
       <c r="I112" s="3">
@@ -12022,46 +11419,39 @@
       <c r="V112" s="3">
         <v>10</v>
       </c>
-      <c r="W112" s="4" t="s">
+      <c r="W112" t="s">
         <v>489</v>
       </c>
-      <c r="X112" s="4"/>
-      <c r="Y112" s="4"/>
-      <c r="Z112" s="4"/>
-      <c r="AA112" s="4"/>
-      <c r="AB112" s="4"/>
-      <c r="AC112" s="4"/>
-      <c r="AD112" s="4"/>
-      <c r="AE112" s="4" t="s">
+      <c r="AE112" t="s">
         <v>41</v>
       </c>
       <c r="AF112" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
         <v>10</v>
       </c>
       <c r="B113" s="3">
         <v>40</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>519</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" t="s">
         <v>521</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" t="s">
         <v>522</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" t="s">
         <v>523</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H113" t="s">
         <v>71</v>
       </c>
       <c r="I113" s="3">
@@ -12106,58 +11496,57 @@
       <c r="V113" s="3">
         <v>5</v>
       </c>
-      <c r="W113" s="4" t="s">
+      <c r="W113" t="s">
         <v>487</v>
       </c>
-      <c r="X113" s="4" t="s">
+      <c r="X113" t="s">
         <v>487</v>
       </c>
-      <c r="Y113" s="4" t="s">
+      <c r="Y113" t="s">
         <v>511</v>
       </c>
-      <c r="Z113" s="4" t="s">
+      <c r="Z113" t="s">
         <v>505</v>
       </c>
-      <c r="AA113" s="4" t="s">
+      <c r="AA113" t="s">
         <v>524</v>
       </c>
-      <c r="AB113" s="4" t="s">
+      <c r="AB113" t="s">
         <v>525</v>
       </c>
-      <c r="AC113" s="5" t="s">
+      <c r="AC113" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AD113" s="4"/>
-      <c r="AE113" s="4" t="s">
+      <c r="AE113" t="s">
         <v>41</v>
       </c>
       <c r="AF113" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
         <v>10</v>
       </c>
       <c r="B114" s="3">
         <v>40</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" t="s">
         <v>519</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" t="s">
         <v>43</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" t="s">
         <v>527</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" t="s">
         <v>528</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" t="s">
         <v>529</v>
       </c>
-      <c r="H114" s="4" t="s">
+      <c r="H114" t="s">
         <v>76</v>
       </c>
       <c r="I114" s="3">
@@ -12202,46 +11591,39 @@
       <c r="V114" s="3">
         <v>20</v>
       </c>
-      <c r="W114" s="4" t="s">
+      <c r="W114" t="s">
         <v>530</v>
       </c>
-      <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
-      <c r="Z114" s="4"/>
-      <c r="AA114" s="4"/>
-      <c r="AB114" s="4"/>
-      <c r="AC114" s="4"/>
-      <c r="AD114" s="4"/>
-      <c r="AE114" s="4" t="s">
+      <c r="AE114" t="s">
         <v>41</v>
       </c>
       <c r="AF114" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
         <v>10</v>
       </c>
       <c r="B115" s="3">
         <v>40</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>531</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" t="s">
         <v>29</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" t="s">
         <v>532</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" t="s">
         <v>533</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H115" t="s">
         <v>47</v>
       </c>
       <c r="I115" s="3">
@@ -12286,46 +11668,39 @@
       <c r="V115" s="3">
         <v>10</v>
       </c>
-      <c r="W115" s="4" t="s">
+      <c r="W115" t="s">
         <v>505</v>
       </c>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="4"/>
-      <c r="AA115" s="4"/>
-      <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
-      <c r="AD115" s="4"/>
-      <c r="AE115" s="4" t="s">
+      <c r="AE115" t="s">
         <v>41</v>
       </c>
       <c r="AF115" s="3">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
         <v>10</v>
       </c>
       <c r="B116" s="3">
         <v>41</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" t="s">
         <v>28</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" t="s">
         <v>415</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" t="s">
         <v>534</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" t="s">
         <v>535</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" t="s">
         <v>76</v>
       </c>
       <c r="I116" s="3">
@@ -12370,58 +11745,57 @@
       <c r="V116" s="3">
         <v>20</v>
       </c>
-      <c r="W116" s="4" t="s">
+      <c r="W116" t="s">
         <v>489</v>
       </c>
-      <c r="X116" s="4" t="s">
+      <c r="X116" t="s">
         <v>489</v>
       </c>
-      <c r="Y116" s="4" t="s">
+      <c r="Y116" t="s">
         <v>536</v>
       </c>
-      <c r="Z116" s="4" t="s">
+      <c r="Z116" t="s">
         <v>505</v>
       </c>
-      <c r="AA116" s="4" t="s">
+      <c r="AA116" t="s">
         <v>524</v>
       </c>
-      <c r="AB116" s="4" t="s">
+      <c r="AB116" t="s">
         <v>525</v>
       </c>
-      <c r="AC116" s="5" t="s">
+      <c r="AC116" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="4" t="s">
+      <c r="AE116" t="s">
         <v>41</v>
       </c>
       <c r="AF116" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
         <v>10</v>
       </c>
       <c r="B117" s="3">
         <v>41</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>538</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" t="s">
         <v>201</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" t="s">
         <v>267</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" t="s">
         <v>268</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" t="s">
         <v>539</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" t="s">
         <v>47</v>
       </c>
       <c r="I117" s="3">
@@ -12466,46 +11840,39 @@
       <c r="V117" s="3">
         <v>10</v>
       </c>
-      <c r="W117" s="4" t="s">
+      <c r="W117" t="s">
         <v>505</v>
       </c>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4" t="s">
+      <c r="AE117" t="s">
         <v>41</v>
       </c>
       <c r="AF117" s="3">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
         <v>10</v>
       </c>
       <c r="B118" s="3">
         <v>41</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" t="s">
         <v>538</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" t="s">
         <v>43</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" t="s">
         <v>188</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" t="s">
         <v>540</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" t="s">
         <v>541</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H118" t="s">
         <v>76</v>
       </c>
       <c r="I118" s="3">
@@ -12550,46 +11917,39 @@
       <c r="V118" s="3">
         <v>20</v>
       </c>
-      <c r="W118" s="4" t="s">
+      <c r="W118" t="s">
         <v>505</v>
       </c>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-      <c r="AB118" s="4"/>
-      <c r="AC118" s="4"/>
-      <c r="AD118" s="4"/>
-      <c r="AE118" s="4" t="s">
+      <c r="AE118" t="s">
         <v>41</v>
       </c>
       <c r="AF118" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
         <v>10</v>
       </c>
       <c r="B119" s="3">
         <v>41</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" t="s">
         <v>87</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" t="s">
         <v>542</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" t="s">
         <v>543</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" t="s">
         <v>544</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" t="s">
         <v>47</v>
       </c>
       <c r="I119" s="3">
@@ -12634,58 +11994,57 @@
       <c r="V119" s="3">
         <v>10</v>
       </c>
-      <c r="W119" s="4" t="s">
+      <c r="W119" t="s">
         <v>505</v>
       </c>
-      <c r="X119" s="4" t="s">
+      <c r="X119" t="s">
         <v>505</v>
       </c>
-      <c r="Y119" s="4" t="s">
+      <c r="Y119" t="s">
         <v>545</v>
       </c>
-      <c r="Z119" s="4" t="s">
+      <c r="Z119" t="s">
         <v>525</v>
       </c>
-      <c r="AA119" s="4" t="s">
+      <c r="AA119" t="s">
         <v>546</v>
       </c>
-      <c r="AB119" s="4" t="s">
+      <c r="AB119" t="s">
         <v>547</v>
       </c>
-      <c r="AC119" s="5" t="s">
+      <c r="AC119" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="AD119" s="4"/>
-      <c r="AE119" s="4" t="s">
+      <c r="AE119" t="s">
         <v>41</v>
       </c>
       <c r="AF119" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
         <v>10</v>
       </c>
       <c r="B120" s="3">
         <v>42</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" t="s">
         <v>48</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" t="s">
         <v>43</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" t="s">
         <v>284</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" t="s">
         <v>549</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" t="s">
         <v>550</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H120" t="s">
         <v>52</v>
       </c>
       <c r="I120" s="3">
@@ -12730,46 +12089,39 @@
       <c r="V120" s="3">
         <v>50</v>
       </c>
-      <c r="W120" s="4" t="s">
+      <c r="W120" t="s">
         <v>525</v>
       </c>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
-      <c r="AA120" s="4"/>
-      <c r="AB120" s="4"/>
-      <c r="AC120" s="4"/>
-      <c r="AD120" s="4"/>
-      <c r="AE120" s="4" t="s">
+      <c r="AE120" t="s">
         <v>41</v>
       </c>
       <c r="AF120" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
         <v>10</v>
       </c>
       <c r="B121" s="3">
         <v>41</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" t="s">
         <v>43</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" t="s">
         <v>551</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" t="s">
         <v>552</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" t="s">
         <v>553</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="H121" t="s">
         <v>62</v>
       </c>
       <c r="I121" s="3">
@@ -12814,58 +12166,57 @@
       <c r="V121" s="3">
         <v>40</v>
       </c>
-      <c r="W121" s="4" t="s">
+      <c r="W121" t="s">
         <v>505</v>
       </c>
-      <c r="X121" s="4" t="s">
+      <c r="X121" t="s">
         <v>505</v>
       </c>
-      <c r="Y121" s="4" t="s">
+      <c r="Y121" t="s">
         <v>545</v>
       </c>
-      <c r="Z121" s="4" t="s">
+      <c r="Z121" t="s">
         <v>525</v>
       </c>
-      <c r="AA121" s="4" t="s">
+      <c r="AA121" t="s">
         <v>546</v>
       </c>
-      <c r="AB121" s="4" t="s">
+      <c r="AB121" t="s">
         <v>547</v>
       </c>
-      <c r="AC121" s="5" t="s">
+      <c r="AC121" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="4" t="s">
+      <c r="AE121" t="s">
         <v>41</v>
       </c>
       <c r="AF121" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>11</v>
       </c>
       <c r="B122" s="3">
         <v>47</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" t="s">
         <v>123</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" t="s">
         <v>29</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" t="s">
         <v>176</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" t="s">
         <v>555</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" t="s">
         <v>556</v>
       </c>
-      <c r="H122" s="4" t="s">
+      <c r="H122" t="s">
         <v>52</v>
       </c>
       <c r="I122" s="3">
@@ -12910,46 +12261,39 @@
       <c r="V122" s="3">
         <v>50</v>
       </c>
-      <c r="W122" s="4" t="s">
+      <c r="W122" t="s">
         <v>525</v>
       </c>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="4" t="s">
+      <c r="AE122" t="s">
         <v>41</v>
       </c>
       <c r="AF122" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>11</v>
       </c>
       <c r="B123" s="3">
         <v>48</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" t="s">
         <v>369</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" t="s">
         <v>87</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" t="s">
         <v>99</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" t="s">
         <v>557</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" t="s">
         <v>558</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" t="s">
         <v>71</v>
       </c>
       <c r="I123" s="3">
@@ -12994,58 +12338,57 @@
       <c r="V123" s="3">
         <v>5</v>
       </c>
-      <c r="W123" s="4" t="s">
+      <c r="W123" t="s">
         <v>525</v>
       </c>
-      <c r="X123" s="4" t="s">
+      <c r="X123" t="s">
         <v>525</v>
       </c>
-      <c r="Y123" s="4" t="s">
+      <c r="Y123" t="s">
         <v>559</v>
       </c>
-      <c r="Z123" s="4" t="s">
+      <c r="Z123" t="s">
         <v>547</v>
       </c>
-      <c r="AA123" s="4" t="s">
+      <c r="AA123" t="s">
         <v>560</v>
       </c>
-      <c r="AB123" s="4" t="s">
+      <c r="AB123" t="s">
         <v>561</v>
       </c>
-      <c r="AC123" s="5" t="s">
+      <c r="AC123" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="AD123" s="4"/>
-      <c r="AE123" s="4" t="s">
+      <c r="AE123" t="s">
         <v>41</v>
       </c>
       <c r="AF123" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>11</v>
       </c>
       <c r="B124" s="3">
         <v>48</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" t="s">
         <v>136</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" t="s">
         <v>563</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" t="s">
         <v>564</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" t="s">
         <v>565</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="H124" t="s">
         <v>76</v>
       </c>
       <c r="I124" s="3">
@@ -13090,46 +12433,39 @@
       <c r="V124" s="3">
         <v>20</v>
       </c>
-      <c r="W124" s="4" t="s">
+      <c r="W124" t="s">
         <v>547</v>
       </c>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-      <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
-      <c r="AD124" s="4"/>
-      <c r="AE124" s="4" t="s">
+      <c r="AE124" t="s">
         <v>41</v>
       </c>
       <c r="AF124" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>11</v>
       </c>
       <c r="B125" s="3">
         <v>48</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" t="s">
         <v>566</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" t="s">
         <v>105</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" t="s">
         <v>567</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" t="s">
         <v>568</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" t="s">
         <v>569</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" t="s">
         <v>76</v>
       </c>
       <c r="I125" s="3">
@@ -13174,46 +12510,39 @@
       <c r="V125" s="3">
         <v>20</v>
       </c>
-      <c r="W125" s="4" t="s">
+      <c r="W125" t="s">
         <v>547</v>
       </c>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="4" t="s">
+      <c r="AE125" t="s">
         <v>41</v>
       </c>
       <c r="AF125" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>11</v>
       </c>
       <c r="B126" s="3">
         <v>48</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" t="s">
         <v>566</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" t="s">
         <v>29</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" t="s">
         <v>49</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" t="s">
         <v>570</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G126" t="s">
         <v>571</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" t="s">
         <v>80</v>
       </c>
       <c r="I126" s="3">
@@ -13258,46 +12587,39 @@
       <c r="V126" s="3">
         <v>30</v>
       </c>
-      <c r="W126" s="4" t="s">
+      <c r="W126" t="s">
         <v>547</v>
       </c>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
-      <c r="AD126" s="4"/>
-      <c r="AE126" s="4" t="s">
+      <c r="AE126" t="s">
         <v>41</v>
       </c>
       <c r="AF126" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>11</v>
       </c>
       <c r="B127" s="3">
         <v>47</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" t="s">
         <v>572</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" t="s">
         <v>87</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" t="s">
         <v>573</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" t="s">
         <v>574</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" t="s">
         <v>575</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H127" t="s">
         <v>71</v>
       </c>
       <c r="I127" s="3">
@@ -13342,46 +12664,39 @@
       <c r="V127" s="3">
         <v>5</v>
       </c>
-      <c r="W127" s="4" t="s">
+      <c r="W127" t="s">
         <v>561</v>
       </c>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
-      <c r="AD127" s="4"/>
-      <c r="AE127" s="4" t="s">
+      <c r="AE127" t="s">
         <v>41</v>
       </c>
       <c r="AF127" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>11</v>
       </c>
       <c r="B128" s="3">
         <v>47</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" t="s">
         <v>86</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" t="s">
         <v>43</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" t="s">
         <v>226</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" t="s">
         <v>576</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" t="s">
         <v>577</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H128" t="s">
         <v>47</v>
       </c>
       <c r="I128" s="3">
@@ -13426,58 +12741,57 @@
       <c r="V128" s="3">
         <v>10</v>
       </c>
-      <c r="W128" s="4" t="s">
+      <c r="W128" t="s">
         <v>525</v>
       </c>
-      <c r="X128" s="4" t="s">
+      <c r="X128" t="s">
         <v>525</v>
       </c>
-      <c r="Y128" s="4" t="s">
+      <c r="Y128" t="s">
         <v>559</v>
       </c>
-      <c r="Z128" s="4" t="s">
+      <c r="Z128" t="s">
         <v>561</v>
       </c>
-      <c r="AA128" s="4" t="s">
+      <c r="AA128" t="s">
         <v>578</v>
       </c>
-      <c r="AB128" s="4" t="s">
+      <c r="AB128" t="s">
         <v>579</v>
       </c>
-      <c r="AC128" s="5" t="s">
+      <c r="AC128" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="AD128" s="4"/>
-      <c r="AE128" s="4" t="s">
+      <c r="AE128" t="s">
         <v>41</v>
       </c>
       <c r="AF128" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>11</v>
       </c>
       <c r="B129" s="3">
         <v>47</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" t="s">
         <v>123</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" t="s">
         <v>581</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" t="s">
         <v>582</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" t="s">
         <v>583</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" t="s">
         <v>76</v>
       </c>
       <c r="I129" s="3">
@@ -13522,46 +12836,39 @@
       <c r="V129" s="3">
         <v>20</v>
       </c>
-      <c r="W129" s="4" t="s">
+      <c r="W129" t="s">
         <v>561</v>
       </c>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4" t="s">
+      <c r="AE129" t="s">
         <v>41</v>
       </c>
       <c r="AF129" s="3">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>11</v>
       </c>
       <c r="B130" s="3">
         <v>47</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" t="s">
         <v>123</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" t="s">
         <v>105</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" t="s">
         <v>106</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" t="s">
         <v>377</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" t="s">
         <v>584</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="3">
@@ -13606,46 +12913,39 @@
       <c r="V130" s="3">
         <v>10</v>
       </c>
-      <c r="W130" s="4" t="s">
+      <c r="W130" t="s">
         <v>561</v>
       </c>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="4"/>
-      <c r="AE130" s="4" t="s">
+      <c r="AE130" t="s">
         <v>41</v>
       </c>
       <c r="AF130" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>11</v>
       </c>
       <c r="B131" s="3">
         <v>46</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>104</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" t="s">
         <v>87</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" t="s">
         <v>585</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" t="s">
         <v>586</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" t="s">
         <v>587</v>
       </c>
-      <c r="H131" s="4" t="s">
+      <c r="H131" t="s">
         <v>47</v>
       </c>
       <c r="I131" s="3">
@@ -13690,46 +12990,39 @@
       <c r="V131" s="3">
         <v>10</v>
       </c>
-      <c r="W131" s="4" t="s">
+      <c r="W131" t="s">
         <v>561</v>
       </c>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
-      <c r="AD131" s="4"/>
-      <c r="AE131" s="4" t="s">
+      <c r="AE131" t="s">
         <v>41</v>
       </c>
       <c r="AF131" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>11</v>
       </c>
       <c r="B132" s="3">
         <v>46</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" t="s">
         <v>29</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" t="s">
         <v>129</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" t="s">
         <v>588</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G132" t="s">
         <v>589</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="H132" t="s">
         <v>62</v>
       </c>
       <c r="I132" s="3">
@@ -13774,46 +13067,39 @@
       <c r="V132" s="3">
         <v>40</v>
       </c>
-      <c r="W132" s="4" t="s">
+      <c r="W132" t="s">
         <v>561</v>
       </c>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
-      <c r="AD132" s="4"/>
-      <c r="AE132" s="4" t="s">
+      <c r="AE132" t="s">
         <v>41</v>
       </c>
       <c r="AF132" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>11</v>
       </c>
       <c r="B133" s="3">
         <v>46</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" t="s">
         <v>264</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" t="s">
         <v>590</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" t="s">
         <v>591</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" t="s">
         <v>592</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H133" t="s">
         <v>76</v>
       </c>
       <c r="I133" s="3">
@@ -13858,46 +13144,39 @@
       <c r="V133" s="3">
         <v>20</v>
       </c>
-      <c r="W133" s="4" t="s">
+      <c r="W133" t="s">
         <v>561</v>
       </c>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="4"/>
-      <c r="AE133" s="4" t="s">
+      <c r="AE133" t="s">
         <v>41</v>
       </c>
       <c r="AF133" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>11</v>
       </c>
       <c r="B134" s="3">
         <v>46</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" t="s">
         <v>581</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" t="s">
         <v>593</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" t="s">
         <v>47</v>
       </c>
       <c r="I134" s="3">
@@ -13942,58 +13221,57 @@
       <c r="V134" s="3">
         <v>10</v>
       </c>
-      <c r="W134" s="4" t="s">
+      <c r="W134" t="s">
         <v>547</v>
       </c>
-      <c r="X134" s="4" t="s">
+      <c r="X134" t="s">
         <v>547</v>
       </c>
-      <c r="Y134" s="4" t="s">
+      <c r="Y134" t="s">
         <v>594</v>
       </c>
-      <c r="Z134" s="4" t="s">
+      <c r="Z134" t="s">
         <v>579</v>
       </c>
-      <c r="AA134" s="4" t="s">
+      <c r="AA134" t="s">
         <v>595</v>
       </c>
-      <c r="AB134" s="4" t="s">
+      <c r="AB134" t="s">
         <v>596</v>
       </c>
-      <c r="AC134" s="5" t="s">
+      <c r="AC134" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="AD134" s="4"/>
-      <c r="AE134" s="4" t="s">
+      <c r="AE134" t="s">
         <v>41</v>
       </c>
       <c r="AF134" s="3">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>11</v>
       </c>
       <c r="B135" s="3">
         <v>46</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>119</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" t="s">
         <v>29</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" t="s">
         <v>598</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" t="s">
         <v>599</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" t="s">
         <v>76</v>
       </c>
       <c r="I135" s="3">
@@ -14038,46 +13316,39 @@
       <c r="V135" s="3">
         <v>20</v>
       </c>
-      <c r="W135" s="4" t="s">
+      <c r="W135" t="s">
         <v>579</v>
       </c>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-      <c r="AE135" s="4" t="s">
+      <c r="AE135" t="s">
         <v>41</v>
       </c>
       <c r="AF135" s="3">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>11</v>
       </c>
       <c r="B136" s="3">
         <v>46</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" t="s">
         <v>115</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" t="s">
         <v>43</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" t="s">
         <v>137</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" t="s">
         <v>600</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="G136" t="s">
         <v>601</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" t="s">
         <v>71</v>
       </c>
       <c r="I136" s="3">
@@ -14122,46 +13393,39 @@
       <c r="V136" s="3">
         <v>5</v>
       </c>
-      <c r="W136" s="4" t="s">
+      <c r="W136" t="s">
         <v>579</v>
       </c>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
-      <c r="AD136" s="4"/>
-      <c r="AE136" s="4" t="s">
+      <c r="AE136" t="s">
         <v>41</v>
       </c>
       <c r="AF136" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>11</v>
       </c>
       <c r="B137" s="3">
         <v>45</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>602</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" t="s">
         <v>43</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" t="s">
         <v>603</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" t="s">
         <v>604</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" t="s">
         <v>605</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H137" t="s">
         <v>47</v>
       </c>
       <c r="I137" s="3">
@@ -14206,46 +13470,39 @@
       <c r="V137" s="3">
         <v>10</v>
       </c>
-      <c r="W137" s="4" t="s">
+      <c r="W137" t="s">
         <v>579</v>
       </c>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="4"/>
-      <c r="AE137" s="4" t="s">
+      <c r="AE137" t="s">
         <v>41</v>
       </c>
       <c r="AF137" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>11</v>
       </c>
       <c r="B138" s="3">
         <v>45</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" t="s">
         <v>149</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" t="s">
         <v>105</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" t="s">
         <v>254</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" t="s">
         <v>255</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" t="s">
         <v>606</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H138" t="s">
         <v>47</v>
       </c>
       <c r="I138" s="3">
@@ -14290,46 +13547,39 @@
       <c r="V138" s="3">
         <v>10</v>
       </c>
-      <c r="W138" s="4" t="s">
+      <c r="W138" t="s">
         <v>579</v>
       </c>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
-      <c r="AD138" s="4"/>
-      <c r="AE138" s="4" t="s">
+      <c r="AE138" t="s">
         <v>41</v>
       </c>
       <c r="AF138" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>11</v>
       </c>
       <c r="B139" s="3">
         <v>45</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>165</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" t="s">
         <v>29</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" t="s">
         <v>124</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" t="s">
         <v>607</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" t="s">
         <v>608</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H139" t="s">
         <v>47</v>
       </c>
       <c r="I139" s="3">
@@ -14374,58 +13624,57 @@
       <c r="V139" s="3">
         <v>10</v>
       </c>
-      <c r="W139" s="4" t="s">
+      <c r="W139" t="s">
         <v>579</v>
       </c>
-      <c r="X139" s="4" t="s">
+      <c r="X139" t="s">
         <v>579</v>
       </c>
-      <c r="Y139" s="4" t="s">
+      <c r="Y139" t="s">
         <v>609</v>
       </c>
-      <c r="Z139" s="4" t="s">
+      <c r="Z139" t="s">
         <v>596</v>
       </c>
-      <c r="AA139" s="4" t="s">
+      <c r="AA139" t="s">
         <v>610</v>
       </c>
-      <c r="AB139" s="4" t="s">
+      <c r="AB139" t="s">
         <v>611</v>
       </c>
-      <c r="AC139" s="5" t="s">
+      <c r="AC139" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="AD139" s="4"/>
-      <c r="AE139" s="4" t="s">
+      <c r="AE139" t="s">
         <v>41</v>
       </c>
       <c r="AF139" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>11</v>
       </c>
       <c r="B140" s="3">
         <v>45</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" t="s">
         <v>165</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" t="s">
         <v>29</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" t="s">
         <v>350</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" t="s">
         <v>613</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" t="s">
         <v>614</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="H140" t="s">
         <v>80</v>
       </c>
       <c r="I140" s="3">
@@ -14470,46 +13719,39 @@
       <c r="V140" s="3">
         <v>30</v>
       </c>
-      <c r="W140" s="4" t="s">
+      <c r="W140" t="s">
         <v>615</v>
       </c>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-      <c r="AB140" s="4"/>
-      <c r="AC140" s="4"/>
-      <c r="AD140" s="4"/>
-      <c r="AE140" s="4" t="s">
+      <c r="AE140" t="s">
         <v>41</v>
       </c>
       <c r="AF140" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>11</v>
       </c>
       <c r="B141" s="3">
         <v>44</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" t="s">
         <v>304</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" t="s">
         <v>43</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" t="s">
         <v>616</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" t="s">
         <v>617</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" t="s">
         <v>618</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H141" t="s">
         <v>47</v>
       </c>
       <c r="I141" s="3">
@@ -14554,46 +13796,39 @@
       <c r="V141" s="3">
         <v>10</v>
       </c>
-      <c r="W141" s="4" t="s">
+      <c r="W141" t="s">
         <v>596</v>
       </c>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-      <c r="AB141" s="4"/>
-      <c r="AC141" s="4"/>
-      <c r="AD141" s="4"/>
-      <c r="AE141" s="4" t="s">
+      <c r="AE141" t="s">
         <v>41</v>
       </c>
       <c r="AF141" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>11</v>
       </c>
       <c r="B142" s="3">
         <v>46</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" t="s">
         <v>201</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" t="s">
         <v>619</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" t="s">
         <v>620</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G142" t="s">
         <v>621</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H142" t="s">
         <v>47</v>
       </c>
       <c r="I142" s="3">
@@ -14638,42 +13873,33 @@
       <c r="V142" s="3">
         <v>10</v>
       </c>
-      <c r="W142" s="4" t="s">
+      <c r="W142" t="s">
         <v>596</v>
       </c>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-      <c r="AB142" s="4"/>
-      <c r="AC142" s="4"/>
-      <c r="AD142" s="4"/>
-      <c r="AE142" s="4" t="s">
+      <c r="AE142" t="s">
         <v>41</v>
       </c>
       <c r="AF142" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>12</v>
       </c>
       <c r="B143" s="3">
         <v>50</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" t="s">
         <v>622</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
+      <c r="F143" t="s">
         <v>623</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" t="s">
         <v>624</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H143" t="s">
         <v>625</v>
       </c>
       <c r="I143" s="3">
@@ -14718,46 +13944,39 @@
       <c r="V143" s="3">
         <v>60</v>
       </c>
-      <c r="W143" s="4" t="s">
+      <c r="W143" t="s">
         <v>611</v>
       </c>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
-      <c r="AB143" s="4"/>
-      <c r="AC143" s="4"/>
-      <c r="AD143" s="4"/>
-      <c r="AE143" s="4" t="s">
+      <c r="AE143" t="s">
         <v>41</v>
       </c>
       <c r="AF143" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>12</v>
       </c>
       <c r="B144" s="3">
         <v>49</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" t="s">
         <v>300</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" t="s">
         <v>105</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" t="s">
         <v>346</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" t="s">
         <v>626</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" t="s">
         <v>627</v>
       </c>
-      <c r="H144" s="4" t="s">
+      <c r="H144" t="s">
         <v>76</v>
       </c>
       <c r="I144" s="3">
@@ -14802,58 +14021,57 @@
       <c r="V144" s="3">
         <v>20</v>
       </c>
-      <c r="W144" s="4" t="s">
+      <c r="W144" t="s">
         <v>596</v>
       </c>
-      <c r="X144" s="4" t="s">
+      <c r="X144" t="s">
         <v>596</v>
       </c>
-      <c r="Y144" s="4" t="s">
+      <c r="Y144" t="s">
         <v>628</v>
       </c>
-      <c r="Z144" s="4" t="s">
+      <c r="Z144" t="s">
         <v>611</v>
       </c>
-      <c r="AA144" s="4" t="s">
+      <c r="AA144" t="s">
         <v>629</v>
       </c>
-      <c r="AB144" s="4" t="s">
+      <c r="AB144" t="s">
         <v>630</v>
       </c>
-      <c r="AC144" s="5" t="s">
+      <c r="AC144" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="AD144" s="4"/>
-      <c r="AE144" s="4" t="s">
+      <c r="AE144" t="s">
         <v>41</v>
       </c>
       <c r="AF144" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>12</v>
       </c>
       <c r="B145" s="3">
         <v>49</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" t="s">
         <v>300</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" t="s">
         <v>29</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" t="s">
         <v>49</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" t="s">
         <v>337</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" t="s">
         <v>632</v>
       </c>
-      <c r="H145" s="4" t="s">
+      <c r="H145" t="s">
         <v>179</v>
       </c>
       <c r="I145" s="3">
@@ -14898,40 +14116,30 @@
       <c r="V145" s="3">
         <v>30</v>
       </c>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-      <c r="AB145" s="4"/>
-      <c r="AC145" s="4"/>
-      <c r="AD145" s="4"/>
-      <c r="AE145" s="4" t="s">
+      <c r="AE145" t="s">
         <v>41</v>
       </c>
       <c r="AF145" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>12</v>
       </c>
       <c r="B146" s="3">
         <v>49</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" t="s">
         <v>455</v>
       </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4" t="s">
+      <c r="F146" t="s">
         <v>633</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="G146" t="s">
         <v>634</v>
       </c>
-      <c r="H146" s="4" t="s">
+      <c r="H146" t="s">
         <v>97</v>
       </c>
       <c r="I146" s="3">
@@ -14950,58 +14158,57 @@
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
-      <c r="W146" s="4" t="s">
+      <c r="W146" t="s">
         <v>611</v>
       </c>
-      <c r="X146" s="4" t="s">
+      <c r="X146" t="s">
         <v>611</v>
       </c>
-      <c r="Y146" s="4" t="s">
+      <c r="Y146" t="s">
         <v>635</v>
       </c>
-      <c r="Z146" s="4" t="s">
+      <c r="Z146" t="s">
         <v>630</v>
       </c>
-      <c r="AA146" s="4" t="s">
+      <c r="AA146" t="s">
         <v>636</v>
       </c>
-      <c r="AB146" s="4" t="s">
+      <c r="AB146" t="s">
         <v>637</v>
       </c>
-      <c r="AC146" s="5" t="s">
+      <c r="AC146" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="AD146" s="4"/>
-      <c r="AE146" s="4" t="s">
+      <c r="AE146" t="s">
         <v>41</v>
       </c>
       <c r="AF146" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>12</v>
       </c>
       <c r="B147" s="3">
         <v>50</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" t="s">
         <v>442</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" t="s">
         <v>49</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" t="s">
         <v>337</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" t="s">
         <v>639</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" t="s">
         <v>179</v>
       </c>
       <c r="I147" s="3">
@@ -15046,46 +14253,39 @@
       <c r="V147" s="3">
         <v>30</v>
       </c>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4" t="s">
+      <c r="X147" t="s">
         <v>630</v>
       </c>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4" t="s">
+      <c r="Z147" t="s">
         <v>637</v>
       </c>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4" t="s">
+      <c r="AB147" t="s">
         <v>640</v>
       </c>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-      <c r="AE147" s="4"/>
       <c r="AF147" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>12</v>
       </c>
       <c r="B148" s="3">
         <v>50</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" t="s">
         <v>622</v>
       </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4" t="s">
+      <c r="E148" t="s">
         <v>641</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" t="s">
         <v>642</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" t="s">
         <v>643</v>
       </c>
-      <c r="H148" s="4" t="s">
+      <c r="H148" t="s">
         <v>71</v>
       </c>
       <c r="I148" s="3">
@@ -15130,17 +14330,10 @@
       <c r="V148" s="3">
         <v>5</v>
       </c>
-      <c r="W148" s="4" t="s">
+      <c r="W148" t="s">
         <v>630</v>
       </c>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-      <c r="AB148" s="4"/>
-      <c r="AC148" s="4"/>
-      <c r="AD148" s="4"/>
-      <c r="AE148" s="4" t="s">
+      <c r="AE148" t="s">
         <v>41</v>
       </c>
       <c r="AF148" s="3">

--- a/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
+++ b/BWF_TOURNAMENTS/2023_BWF_TOURNAMENTS_LIST_WITH_DISTRIBUTION_AND_KEY_DATES_AND_MATCHING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FFBad\Season planner\BWF_TOURNAMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965AF477-E66C-4F60-A5C5-A078DBB90E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC401D2-A32F-456E-B8B0-52124496D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="645">
   <si>
     <t>Month</t>
   </si>
@@ -1150,9 +1150,6 @@
     <t>To be informed</t>
   </si>
   <si>
-    <t>Indonesia International Challenge 2023</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -1273,9 +1270,6 @@
     <t>Sydney</t>
   </si>
   <si>
-    <t>CROWN SATHIO Australian Open 2023</t>
-  </si>
-  <si>
     <t>28 -01</t>
   </si>
   <si>
@@ -1312,9 +1306,6 @@
     <t>Kaohsiung</t>
   </si>
   <si>
-    <t>Kaohsiung Open Super 100 2023</t>
-  </si>
-  <si>
     <t>20 -24</t>
   </si>
   <si>
@@ -1354,9 +1345,6 @@
     <t>Ho Chi Minh City</t>
   </si>
   <si>
-    <t>Vietnam Open 2023</t>
-  </si>
-  <si>
     <t>21/08/2023</t>
   </si>
   <si>
@@ -1402,15 +1390,9 @@
     <t>Otočec</t>
   </si>
   <si>
-    <t>Slovenia Future Series 2023</t>
-  </si>
-  <si>
     <t>Guatemala International Challenge 2023</t>
   </si>
   <si>
-    <t>Indonesia Super 100 I 2023</t>
-  </si>
-  <si>
     <t>25/08/2023</t>
   </si>
   <si>
@@ -1426,21 +1408,12 @@
     <t>Changzhou</t>
   </si>
   <si>
-    <t>China Open 2023</t>
-  </si>
-  <si>
     <t>HKG</t>
   </si>
   <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Hong Kong Open 2023</t>
-  </si>
-  <si>
-    <t>Malaysia Super 100 2023</t>
-  </si>
-  <si>
     <t>21 -25</t>
   </si>
   <si>
@@ -1477,9 +1450,6 @@
     <t>Kibbutz Hatzor</t>
   </si>
   <si>
-    <t>Israel Open 2023</t>
-  </si>
-  <si>
     <t>01/09/2023</t>
   </si>
   <si>
@@ -1522,15 +1492,9 @@
     <t>Prague</t>
   </si>
   <si>
-    <t>Czech Open 2023</t>
-  </si>
-  <si>
     <t>24  -29</t>
   </si>
   <si>
-    <t>Indonesia Super 100 II 2023</t>
-  </si>
-  <si>
     <t>08/09/2023</t>
   </si>
   <si>
@@ -1591,9 +1555,6 @@
     <t>Sofia</t>
   </si>
   <si>
-    <t>BABOLAT Bulgarian International Championship 2023</t>
-  </si>
-  <si>
     <t>02/10/2023</t>
   </si>
   <si>
@@ -1627,9 +1588,6 @@
     <t>Bendigo West</t>
   </si>
   <si>
-    <t>Bendigo International 2023</t>
-  </si>
-  <si>
     <t>22/09/2023</t>
   </si>
   <si>
@@ -1672,18 +1630,12 @@
     <t>Odense</t>
   </si>
   <si>
-    <t>Denmark Open 2023</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
     <t>Vantaa</t>
   </si>
   <si>
-    <t>CLASH OF CLANS Arctic Open powered by YONEX</t>
-  </si>
-  <si>
     <t>https://bwf.tournamentsoftware.com/sport/tournament.aspx?id=54E9ADB9-8717-4AE3-B8D6-9A856F925D54</t>
   </si>
   <si>
@@ -1798,9 +1750,6 @@
     <t>Dublin</t>
   </si>
   <si>
-    <t>Irish Open 2023</t>
-  </si>
-  <si>
     <t>Bahrain International Series 2023</t>
   </si>
   <si>
@@ -1819,9 +1768,6 @@
     <t>Ipoh</t>
   </si>
   <si>
-    <t>Malaysia International Challenge 2023</t>
-  </si>
-  <si>
     <t>Blanca Dona</t>
   </si>
   <si>
@@ -1894,9 +1840,6 @@
     <t>Tbc</t>
   </si>
   <si>
-    <t>BWF World Tour Finals 2023</t>
-  </si>
-  <si>
     <t>HSBC BWF World Tour Finals</t>
   </si>
   <si>
@@ -1918,15 +1861,9 @@
     <t>https://bwf.tournamentsoftware.com/sport/tournament.aspx?id=B2309B69-9D99-416C-94F3-99A5C6D14723</t>
   </si>
   <si>
-    <t>India Super 100 I 2023</t>
-  </si>
-  <si>
     <t>Various locations</t>
   </si>
   <si>
-    <t>2024 European Men's &amp; Women's Team Championships - Qualification Stage</t>
-  </si>
-  <si>
     <t>10/11/2023</t>
   </si>
   <si>
@@ -1952,6 +1889,72 @@
   </si>
   <si>
     <t>I French Guiana International 2023</t>
+  </si>
+  <si>
+    <t>VICTOR Hong Kong Open 2023</t>
+  </si>
+  <si>
+    <t>VICTOR China Open 2023</t>
+  </si>
+  <si>
+    <t>XPORA Indonesia International Challenge 2023</t>
+  </si>
+  <si>
+    <t>SATHIO GROUP Australian Open 2023</t>
+  </si>
+  <si>
+    <t>VICTOR Kaohsiung Open Masters 2023</t>
+  </si>
+  <si>
+    <t>YONEX-SUNRISE Vietnam Open 2023</t>
+  </si>
+  <si>
+    <t>YONEX Slovenia Future Series 2023</t>
+  </si>
+  <si>
+    <t>BNI Indonesia Masters I 2023</t>
+  </si>
+  <si>
+    <t>KL Masters Malaysia Super 100 2023</t>
+  </si>
+  <si>
+    <t>YONEX Israel Open 2023</t>
+  </si>
+  <si>
+    <t>YONEX Czech Open 2023</t>
+  </si>
+  <si>
+    <t>BNI Indonesia Masters II 2023</t>
+  </si>
+  <si>
+    <t>XPORA Indonesia International Challenge 2023 (Surabaya)</t>
+  </si>
+  <si>
+    <t>YONEX Bulgarian International Championship 2023</t>
+  </si>
+  <si>
+    <t>YONEX Bendigo International 2023</t>
+  </si>
+  <si>
+    <t>VICTOR Denmark Open 2023</t>
+  </si>
+  <si>
+    <t>CLASH OF CLANS Arctic Open 2023 powered by YONEX</t>
+  </si>
+  <si>
+    <t>AIG FZ FORZA Irish Open 2023</t>
+  </si>
+  <si>
+    <t>PETRONAS Malaysia International Challenge 2023</t>
+  </si>
+  <si>
+    <t>HSBC BWF World Tour Finals 2023</t>
+  </si>
+  <si>
+    <t>YONEX-SUNRISE Guwahati Masters 2023</t>
+  </si>
+  <si>
+    <t>2024 European Men's &amp; Women's Team Championships - France</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2356,9 @@
   </sheetPr>
   <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7958,7 +7963,7 @@
         <v>375</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>625</v>
       </c>
       <c r="H70" t="s">
         <v>76</v>
@@ -8032,10 +8037,10 @@
         <v>106</v>
       </c>
       <c r="F71" t="s">
+        <v>376</v>
+      </c>
+      <c r="G71" t="s">
         <v>377</v>
-      </c>
-      <c r="G71" t="s">
-        <v>378</v>
       </c>
       <c r="H71" t="s">
         <v>71</v>
@@ -8100,7 +8105,7 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D72" t="s">
         <v>43</v>
@@ -8109,13 +8114,13 @@
         <v>284</v>
       </c>
       <c r="F72" t="s">
+        <v>379</v>
+      </c>
+      <c r="G72" t="s">
         <v>380</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>381</v>
-      </c>
-      <c r="H72" t="s">
-        <v>382</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -8177,19 +8182,19 @@
         <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D73" t="s">
         <v>105</v>
       </c>
       <c r="E73" t="s">
+        <v>383</v>
+      </c>
+      <c r="F73" t="s">
         <v>384</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>385</v>
-      </c>
-      <c r="G73" t="s">
-        <v>386</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
@@ -8254,7 +8259,7 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -8263,10 +8268,10 @@
         <v>301</v>
       </c>
       <c r="F74" t="s">
+        <v>387</v>
+      </c>
+      <c r="G74" t="s">
         <v>388</v>
-      </c>
-      <c r="G74" t="s">
-        <v>389</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
@@ -8314,25 +8319,25 @@
         <v>10</v>
       </c>
       <c r="W74" t="s">
+        <v>389</v>
+      </c>
+      <c r="X74" t="s">
         <v>390</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>391</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>392</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB74" t="s">
         <v>393</v>
       </c>
-      <c r="AA74" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB74" t="s">
+      <c r="AC74" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="AC74" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="AE74" t="s">
         <v>41</v>
@@ -8349,19 +8354,19 @@
         <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D75" t="s">
         <v>201</v>
       </c>
       <c r="E75" t="s">
+        <v>396</v>
+      </c>
+      <c r="F75" t="s">
         <v>397</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>398</v>
-      </c>
-      <c r="G75" t="s">
-        <v>399</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -8409,7 +8414,7 @@
         <v>10</v>
       </c>
       <c r="W75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE75" t="s">
         <v>41</v>
@@ -8426,19 +8431,19 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
       </c>
       <c r="E76" t="s">
+        <v>400</v>
+      </c>
+      <c r="F76" t="s">
         <v>401</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>402</v>
-      </c>
-      <c r="G76" t="s">
-        <v>403</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
@@ -8486,7 +8491,7 @@
         <v>10</v>
       </c>
       <c r="W76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE76" t="s">
         <v>41</v>
@@ -8503,19 +8508,19 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D77" t="s">
         <v>201</v>
       </c>
       <c r="E77" t="s">
+        <v>404</v>
+      </c>
+      <c r="F77" t="s">
         <v>405</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>406</v>
-      </c>
-      <c r="G77" t="s">
-        <v>407</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -8563,7 +8568,7 @@
         <v>10</v>
       </c>
       <c r="W77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE77" t="s">
         <v>41</v>
@@ -8580,7 +8585,7 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D78" t="s">
         <v>93</v>
@@ -8592,7 +8597,7 @@
         <v>95</v>
       </c>
       <c r="G78" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H78" t="s">
         <v>80</v>
@@ -8640,7 +8645,7 @@
         <v>30</v>
       </c>
       <c r="W78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE78" t="s">
         <v>41</v>
@@ -8657,19 +8662,19 @@
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D79" t="s">
         <v>201</v>
       </c>
       <c r="E79" t="s">
+        <v>410</v>
+      </c>
+      <c r="F79" t="s">
         <v>411</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>412</v>
-      </c>
-      <c r="G79" t="s">
-        <v>413</v>
       </c>
       <c r="H79" t="s">
         <v>71</v>
@@ -8717,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="W79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE79" t="s">
         <v>41</v>
@@ -8734,19 +8739,19 @@
         <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D80" t="s">
         <v>93</v>
       </c>
       <c r="E80" t="s">
+        <v>414</v>
+      </c>
+      <c r="F80" t="s">
         <v>415</v>
       </c>
-      <c r="F80" t="s">
-        <v>416</v>
-      </c>
       <c r="G80" t="s">
-        <v>417</v>
+        <v>626</v>
       </c>
       <c r="H80" t="s">
         <v>62</v>
@@ -8794,7 +8799,7 @@
         <v>40</v>
       </c>
       <c r="W80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE80" t="s">
         <v>41</v>
@@ -8811,19 +8816,19 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D81" t="s">
         <v>43</v>
       </c>
       <c r="E81" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" t="s">
+        <v>418</v>
+      </c>
+      <c r="G81" t="s">
         <v>419</v>
-      </c>
-      <c r="F81" t="s">
-        <v>420</v>
-      </c>
-      <c r="G81" t="s">
-        <v>421</v>
       </c>
       <c r="H81" t="s">
         <v>71</v>
@@ -8871,25 +8876,25 @@
         <v>5</v>
       </c>
       <c r="W81" t="s">
+        <v>390</v>
+      </c>
+      <c r="X81" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y81" t="s">
         <v>391</v>
       </c>
-      <c r="X81" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>392</v>
-      </c>
       <c r="Z81" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA81" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC81" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="AE81" t="s">
         <v>41</v>
@@ -8906,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -8918,7 +8923,7 @@
         <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H82" t="s">
         <v>71</v>
@@ -8966,25 +8971,25 @@
         <v>5</v>
       </c>
       <c r="W82" t="s">
+        <v>392</v>
+      </c>
+      <c r="X82" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z82" t="s">
         <v>393</v>
       </c>
-      <c r="X82" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>394</v>
-      </c>
       <c r="AA82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC82" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AE82" t="s">
         <v>41</v>
@@ -9001,7 +9006,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -9010,10 +9015,10 @@
         <v>261</v>
       </c>
       <c r="F83" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G83" t="s">
-        <v>430</v>
+        <v>627</v>
       </c>
       <c r="H83" t="s">
         <v>179</v>
@@ -9061,7 +9066,7 @@
         <v>30</v>
       </c>
       <c r="W83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE83" t="s">
         <v>41</v>
@@ -9078,7 +9083,7 @@
         <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D84" t="s">
         <v>43</v>
@@ -9087,10 +9092,10 @@
         <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G84" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
@@ -9138,7 +9143,7 @@
         <v>10</v>
       </c>
       <c r="W84" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE84" t="s">
         <v>41</v>
@@ -9155,7 +9160,7 @@
         <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D85" t="s">
         <v>201</v>
@@ -9167,7 +9172,7 @@
         <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H85" t="s">
         <v>76</v>
@@ -9215,7 +9220,7 @@
         <v>20</v>
       </c>
       <c r="W85" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE85" t="s">
         <v>41</v>
@@ -9238,13 +9243,13 @@
         <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F86" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G86" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H86" t="s">
         <v>76</v>
@@ -9295,22 +9300,22 @@
         <v>354</v>
       </c>
       <c r="X86" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Y86" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC86" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC86" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="AE86" t="s">
         <v>41</v>
@@ -9327,7 +9332,7 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
@@ -9336,10 +9341,10 @@
         <v>124</v>
       </c>
       <c r="F87" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G87" t="s">
-        <v>444</v>
+        <v>628</v>
       </c>
       <c r="H87" t="s">
         <v>179</v>
@@ -9387,25 +9392,25 @@
         <v>30</v>
       </c>
       <c r="W87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y87" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Z87" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AA87" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AB87" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AC87" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AE87" t="s">
         <v>41</v>
@@ -9422,7 +9427,7 @@
         <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
@@ -9431,10 +9436,10 @@
         <v>77</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G88" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
@@ -9482,25 +9487,25 @@
         <v>10</v>
       </c>
       <c r="W88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Y88" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Z88" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AA88" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AB88" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AC88" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AE88" t="s">
         <v>41</v>
@@ -9517,7 +9522,7 @@
         <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D89" t="s">
         <v>29</v>
@@ -9526,13 +9531,13 @@
         <v>350</v>
       </c>
       <c r="F89" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G89" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -9577,7 +9582,7 @@
         <v>65</v>
       </c>
       <c r="W89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AE89" t="s">
         <v>41</v>
@@ -9594,19 +9599,19 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D90" t="s">
         <v>87</v>
       </c>
       <c r="E90" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F90" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G90" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H90" t="s">
         <v>71</v>
@@ -9654,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="W90" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AE90" t="s">
         <v>41</v>
@@ -9671,7 +9676,7 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D91" t="s">
         <v>43</v>
@@ -9680,10 +9685,10 @@
         <v>226</v>
       </c>
       <c r="F91" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G91" t="s">
-        <v>460</v>
+        <v>629</v>
       </c>
       <c r="H91" t="s">
         <v>71</v>
@@ -9731,7 +9736,7 @@
         <v>5</v>
       </c>
       <c r="W91" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AE91" t="s">
         <v>41</v>
@@ -9760,7 +9765,7 @@
         <v>255</v>
       </c>
       <c r="G92" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H92" t="s">
         <v>76</v>
@@ -9808,7 +9813,7 @@
         <v>20</v>
       </c>
       <c r="W92" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AE92" t="s">
         <v>41</v>
@@ -9837,7 +9842,7 @@
         <v>337</v>
       </c>
       <c r="G93" t="s">
-        <v>462</v>
+        <v>630</v>
       </c>
       <c r="H93" t="s">
         <v>179</v>
@@ -9885,25 +9890,25 @@
         <v>30</v>
       </c>
       <c r="W93" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="X93" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Y93" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Z93" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AA93" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AB93" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AC93" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AE93" t="s">
         <v>41</v>
@@ -9929,10 +9934,10 @@
         <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G94" t="s">
-        <v>468</v>
+        <v>624</v>
       </c>
       <c r="H94" t="s">
         <v>33</v>
@@ -9980,7 +9985,7 @@
         <v>60</v>
       </c>
       <c r="W94" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AE94" t="s">
         <v>41</v>
@@ -9997,19 +10002,19 @@
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D95" t="s">
         <v>29</v>
       </c>
       <c r="E95" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F95" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G95" t="s">
-        <v>471</v>
+        <v>623</v>
       </c>
       <c r="H95" t="s">
         <v>62</v>
@@ -10057,7 +10062,7 @@
         <v>40</v>
       </c>
       <c r="W95" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AE95" t="s">
         <v>41</v>
@@ -10086,7 +10091,7 @@
         <v>337</v>
       </c>
       <c r="G96" t="s">
-        <v>472</v>
+        <v>631</v>
       </c>
       <c r="H96" t="s">
         <v>179</v>
@@ -10134,7 +10139,7 @@
         <v>30</v>
       </c>
       <c r="W96" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE96" t="s">
         <v>41</v>
@@ -10151,7 +10156,7 @@
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D97" t="s">
         <v>201</v>
@@ -10160,13 +10165,13 @@
         <v>202</v>
       </c>
       <c r="F97" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G97" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="H97" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I97" s="3">
         <v>0</v>
@@ -10211,7 +10216,7 @@
         <v>30</v>
       </c>
       <c r="W97" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE97" t="s">
         <v>41</v>
@@ -10237,10 +10242,10 @@
         <v>111</v>
       </c>
       <c r="F98" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G98" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H98" t="s">
         <v>52</v>
@@ -10288,7 +10293,7 @@
         <v>50</v>
       </c>
       <c r="W98" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE98" t="s">
         <v>41</v>
@@ -10314,10 +10319,10 @@
         <v>288</v>
       </c>
       <c r="F99" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G99" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H99" t="s">
         <v>71</v>
@@ -10365,7 +10370,7 @@
         <v>5</v>
       </c>
       <c r="W99" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE99" t="s">
         <v>41</v>
@@ -10391,10 +10396,10 @@
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G100" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H100" t="s">
         <v>76</v>
@@ -10442,7 +10447,7 @@
         <v>20</v>
       </c>
       <c r="W100" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AE100" t="s">
         <v>41</v>
@@ -10465,13 +10470,13 @@
         <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F101" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G101" t="s">
-        <v>485</v>
+        <v>632</v>
       </c>
       <c r="H101" t="s">
         <v>71</v>
@@ -10519,25 +10524,25 @@
         <v>5</v>
       </c>
       <c r="W101" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="X101" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Y101" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="Z101" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AA101" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AB101" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AC101" s="4" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AE101" t="s">
         <v>41</v>
@@ -10554,7 +10559,7 @@
         <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D102" t="s">
         <v>93</v>
@@ -10566,7 +10571,7 @@
         <v>95</v>
       </c>
       <c r="G102" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H102" t="s">
         <v>76</v>
@@ -10614,7 +10619,7 @@
         <v>20</v>
       </c>
       <c r="W102" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AE102" t="s">
         <v>41</v>
@@ -10640,10 +10645,10 @@
         <v>166</v>
       </c>
       <c r="F103" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G103" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H103" t="s">
         <v>80</v>
@@ -10691,7 +10696,7 @@
         <v>30</v>
       </c>
       <c r="W103" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AE103" t="s">
         <v>41</v>
@@ -10717,10 +10722,10 @@
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G104" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H104" t="s">
         <v>76</v>
@@ -10768,7 +10773,7 @@
         <v>20</v>
       </c>
       <c r="W104" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AE104" t="s">
         <v>41</v>
@@ -10785,19 +10790,19 @@
         <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D105" t="s">
         <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F105" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G105" t="s">
-        <v>500</v>
+        <v>633</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
@@ -10845,7 +10850,7 @@
         <v>10</v>
       </c>
       <c r="W105" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AE105" t="s">
         <v>41</v>
@@ -10862,7 +10867,7 @@
         <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
@@ -10874,7 +10879,7 @@
         <v>337</v>
       </c>
       <c r="G106" t="s">
-        <v>502</v>
+        <v>634</v>
       </c>
       <c r="H106" t="s">
         <v>179</v>
@@ -10922,25 +10927,25 @@
         <v>30</v>
       </c>
       <c r="W106" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="X106" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Y106" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="Z106" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AA106" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AB106" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AC106" s="4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="AE106" t="s">
         <v>41</v>
@@ -10963,13 +10968,13 @@
         <v>93</v>
       </c>
       <c r="E107" t="s">
+        <v>414</v>
+      </c>
+      <c r="F107" t="s">
         <v>415</v>
       </c>
-      <c r="F107" t="s">
-        <v>416</v>
-      </c>
       <c r="G107" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
@@ -11017,7 +11022,7 @@
         <v>10</v>
       </c>
       <c r="W107" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AE107" t="s">
         <v>41</v>
@@ -11034,19 +11039,19 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D108" t="s">
         <v>87</v>
       </c>
       <c r="E108" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F108" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="G108" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
@@ -11094,25 +11099,25 @@
         <v>10</v>
       </c>
       <c r="W108" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="X108" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="Y108" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Z108" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AA108" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AB108" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AC108" s="4" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="AE108" t="s">
         <v>41</v>
@@ -11141,7 +11146,7 @@
         <v>375</v>
       </c>
       <c r="G109" t="s">
-        <v>376</v>
+        <v>635</v>
       </c>
       <c r="H109" t="s">
         <v>76</v>
@@ -11189,7 +11194,7 @@
         <v>20</v>
       </c>
       <c r="W109" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AE109" t="s">
         <v>41</v>
@@ -11215,10 +11220,10 @@
         <v>120</v>
       </c>
       <c r="F110" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G110" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H110" t="s">
         <v>179</v>
@@ -11266,7 +11271,7 @@
         <v>30</v>
       </c>
       <c r="W110" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AE110" t="s">
         <v>41</v>
@@ -11283,19 +11288,19 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D111" t="s">
         <v>201</v>
       </c>
       <c r="E111" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F111" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G111" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="H111" t="s">
         <v>47</v>
@@ -11343,7 +11348,7 @@
         <v>10</v>
       </c>
       <c r="W111" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AE111" t="s">
         <v>41</v>
@@ -11360,7 +11365,7 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D112" t="s">
         <v>87</v>
@@ -11372,7 +11377,7 @@
         <v>89</v>
       </c>
       <c r="G112" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="H112" t="s">
         <v>47</v>
@@ -11420,7 +11425,7 @@
         <v>10</v>
       </c>
       <c r="W112" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AE112" t="s">
         <v>41</v>
@@ -11437,19 +11442,19 @@
         <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D113" t="s">
         <v>43</v>
       </c>
       <c r="E113" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F113" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G113" t="s">
-        <v>523</v>
+        <v>636</v>
       </c>
       <c r="H113" t="s">
         <v>71</v>
@@ -11497,25 +11502,25 @@
         <v>5</v>
       </c>
       <c r="W113" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="X113" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="Y113" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA113" t="s">
         <v>511</v>
       </c>
-      <c r="Z113" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>524</v>
-      </c>
       <c r="AB113" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AC113" s="4" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="AE113" t="s">
         <v>41</v>
@@ -11532,19 +11537,19 @@
         <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D114" t="s">
         <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F114" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G114" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H114" t="s">
         <v>76</v>
@@ -11592,7 +11597,7 @@
         <v>20</v>
       </c>
       <c r="W114" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="AE114" t="s">
         <v>41</v>
@@ -11609,7 +11614,7 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
@@ -11618,10 +11623,10 @@
         <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G115" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H115" t="s">
         <v>47</v>
@@ -11669,7 +11674,7 @@
         <v>10</v>
       </c>
       <c r="W115" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AE115" t="s">
         <v>41</v>
@@ -11692,13 +11697,13 @@
         <v>93</v>
       </c>
       <c r="E116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F116" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G116" t="s">
-        <v>535</v>
+        <v>637</v>
       </c>
       <c r="H116" t="s">
         <v>76</v>
@@ -11746,25 +11751,25 @@
         <v>20</v>
       </c>
       <c r="W116" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="X116" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Y116" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="Z116" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AA116" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AB116" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AC116" s="4" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AE116" t="s">
         <v>41</v>
@@ -11781,7 +11786,7 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D117" t="s">
         <v>201</v>
@@ -11793,7 +11798,7 @@
         <v>268</v>
       </c>
       <c r="G117" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H117" t="s">
         <v>47</v>
@@ -11841,7 +11846,7 @@
         <v>10</v>
       </c>
       <c r="W117" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AE117" t="s">
         <v>41</v>
@@ -11858,7 +11863,7 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D118" t="s">
         <v>43</v>
@@ -11867,10 +11872,10 @@
         <v>188</v>
       </c>
       <c r="F118" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G118" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H118" t="s">
         <v>76</v>
@@ -11918,7 +11923,7 @@
         <v>20</v>
       </c>
       <c r="W118" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="AE118" t="s">
         <v>41</v>
@@ -11941,13 +11946,13 @@
         <v>87</v>
       </c>
       <c r="E119" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="F119" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G119" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="H119" t="s">
         <v>47</v>
@@ -11995,25 +12000,25 @@
         <v>10</v>
       </c>
       <c r="W119" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="X119" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Y119" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="Z119" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AA119" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AB119" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AC119" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="AE119" t="s">
         <v>41</v>
@@ -12039,10 +12044,10 @@
         <v>284</v>
       </c>
       <c r="F120" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G120" t="s">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="H120" t="s">
         <v>52</v>
@@ -12090,7 +12095,7 @@
         <v>50</v>
       </c>
       <c r="W120" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AE120" t="s">
         <v>41</v>
@@ -12113,13 +12118,13 @@
         <v>43</v>
       </c>
       <c r="E121" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F121" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G121" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
       <c r="H121" t="s">
         <v>62</v>
@@ -12167,25 +12172,25 @@
         <v>40</v>
       </c>
       <c r="W121" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="X121" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Y121" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="Z121" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AA121" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AB121" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AC121" s="4" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AE121" t="s">
         <v>41</v>
@@ -12211,10 +12216,10 @@
         <v>176</v>
       </c>
       <c r="F122" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G122" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="H122" t="s">
         <v>52</v>
@@ -12262,7 +12267,7 @@
         <v>50</v>
       </c>
       <c r="W122" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="AE122" t="s">
         <v>41</v>
@@ -12288,10 +12293,10 @@
         <v>99</v>
       </c>
       <c r="F123" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="G123" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="H123" t="s">
         <v>71</v>
@@ -12339,25 +12344,25 @@
         <v>5</v>
       </c>
       <c r="W123" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="X123" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="Y123" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="Z123" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AA123" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AB123" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AC123" s="4" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AE123" t="s">
         <v>41</v>
@@ -12380,13 +12385,13 @@
         <v>43</v>
       </c>
       <c r="E124" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="F124" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="G124" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="H124" t="s">
         <v>76</v>
@@ -12434,7 +12439,7 @@
         <v>20</v>
       </c>
       <c r="W124" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AE124" t="s">
         <v>41</v>
@@ -12451,19 +12456,19 @@
         <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D125" t="s">
         <v>105</v>
       </c>
       <c r="E125" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F125" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G125" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H125" t="s">
         <v>76</v>
@@ -12511,7 +12516,7 @@
         <v>20</v>
       </c>
       <c r="W125" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AE125" t="s">
         <v>41</v>
@@ -12528,7 +12533,7 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
@@ -12537,10 +12542,10 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="G126" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="H126" t="s">
         <v>80</v>
@@ -12588,7 +12593,7 @@
         <v>30</v>
       </c>
       <c r="W126" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="AE126" t="s">
         <v>41</v>
@@ -12605,19 +12610,19 @@
         <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D127" t="s">
         <v>87</v>
       </c>
       <c r="E127" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F127" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="G127" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="H127" t="s">
         <v>71</v>
@@ -12665,7 +12670,7 @@
         <v>5</v>
       </c>
       <c r="W127" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AE127" t="s">
         <v>41</v>
@@ -12691,10 +12696,10 @@
         <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G128" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="H128" t="s">
         <v>47</v>
@@ -12742,25 +12747,25 @@
         <v>10</v>
       </c>
       <c r="W128" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="X128" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="Y128" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="Z128" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AA128" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="AB128" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AC128" s="4" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AE128" t="s">
         <v>41</v>
@@ -12783,13 +12788,13 @@
         <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F129" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G129" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="H129" t="s">
         <v>76</v>
@@ -12837,7 +12842,7 @@
         <v>20</v>
       </c>
       <c r="W129" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AE129" t="s">
         <v>41</v>
@@ -12863,10 +12868,10 @@
         <v>106</v>
       </c>
       <c r="F130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G130" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="H130" t="s">
         <v>47</v>
@@ -12914,7 +12919,7 @@
         <v>10</v>
       </c>
       <c r="W130" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AE130" t="s">
         <v>41</v>
@@ -12937,13 +12942,13 @@
         <v>87</v>
       </c>
       <c r="E131" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="F131" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="G131" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="H131" t="s">
         <v>47</v>
@@ -12991,7 +12996,7 @@
         <v>10</v>
       </c>
       <c r="W131" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AE131" t="s">
         <v>41</v>
@@ -13017,10 +13022,10 @@
         <v>129</v>
       </c>
       <c r="F132" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G132" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H132" t="s">
         <v>62</v>
@@ -13068,7 +13073,7 @@
         <v>40</v>
       </c>
       <c r="W132" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AE132" t="s">
         <v>41</v>
@@ -13091,13 +13096,13 @@
         <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="F133" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="G133" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="H133" t="s">
         <v>76</v>
@@ -13145,7 +13150,7 @@
         <v>20</v>
       </c>
       <c r="W133" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AE133" t="s">
         <v>41</v>
@@ -13168,13 +13173,13 @@
         <v>29</v>
       </c>
       <c r="E134" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F134" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G134" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="H134" t="s">
         <v>47</v>
@@ -13222,25 +13227,25 @@
         <v>10</v>
       </c>
       <c r="W134" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="X134" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="Y134" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="Z134" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB134" t="s">
         <v>579</v>
       </c>
-      <c r="AA134" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB134" t="s">
-        <v>596</v>
-      </c>
       <c r="AC134" s="4" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AE134" t="s">
         <v>41</v>
@@ -13266,10 +13271,10 @@
         <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="G135" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="H135" t="s">
         <v>76</v>
@@ -13317,7 +13322,7 @@
         <v>20</v>
       </c>
       <c r="W135" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AE135" t="s">
         <v>41</v>
@@ -13343,10 +13348,10 @@
         <v>137</v>
       </c>
       <c r="F136" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G136" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="H136" t="s">
         <v>71</v>
@@ -13394,7 +13399,7 @@
         <v>5</v>
       </c>
       <c r="W136" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AE136" t="s">
         <v>41</v>
@@ -13411,19 +13416,19 @@
         <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="D137" t="s">
         <v>43</v>
       </c>
       <c r="E137" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="F137" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="G137" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="H137" t="s">
         <v>47</v>
@@ -13471,7 +13476,7 @@
         <v>10</v>
       </c>
       <c r="W137" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AE137" t="s">
         <v>41</v>
@@ -13500,7 +13505,7 @@
         <v>255</v>
       </c>
       <c r="G138" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="H138" t="s">
         <v>47</v>
@@ -13548,7 +13553,7 @@
         <v>10</v>
       </c>
       <c r="W138" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AE138" t="s">
         <v>41</v>
@@ -13574,10 +13579,10 @@
         <v>124</v>
       </c>
       <c r="F139" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="G139" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="H139" t="s">
         <v>47</v>
@@ -13625,25 +13630,25 @@
         <v>10</v>
       </c>
       <c r="W139" t="s">
+        <v>563</v>
+      </c>
+      <c r="X139" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z139" t="s">
         <v>579</v>
       </c>
-      <c r="X139" t="s">
-        <v>579</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z139" t="s">
-        <v>596</v>
-      </c>
       <c r="AA139" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="AB139" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="AC139" s="4" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="AE139" t="s">
         <v>41</v>
@@ -13669,10 +13674,10 @@
         <v>350</v>
       </c>
       <c r="F140" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="G140" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="H140" t="s">
         <v>80</v>
@@ -13720,7 +13725,7 @@
         <v>30</v>
       </c>
       <c r="W140" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="AE140" t="s">
         <v>41</v>
@@ -13743,13 +13748,13 @@
         <v>43</v>
       </c>
       <c r="E141" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="F141" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="G141" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="H141" t="s">
         <v>47</v>
@@ -13797,7 +13802,7 @@
         <v>10</v>
       </c>
       <c r="W141" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE141" t="s">
         <v>41</v>
@@ -13814,19 +13819,19 @@
         <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
         <v>201</v>
       </c>
       <c r="E142" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="F142" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="G142" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="H142" t="s">
         <v>47</v>
@@ -13874,7 +13879,7 @@
         <v>10</v>
       </c>
       <c r="W142" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE142" t="s">
         <v>41</v>
@@ -13891,16 +13896,16 @@
         <v>50</v>
       </c>
       <c r="C143" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="F143" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="G143" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="H143" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="I143" s="3">
         <v>0</v>
@@ -13945,7 +13950,7 @@
         <v>60</v>
       </c>
       <c r="W143" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="AE143" t="s">
         <v>41</v>
@@ -13971,10 +13976,10 @@
         <v>346</v>
       </c>
       <c r="F144" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="G144" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="H144" t="s">
         <v>76</v>
@@ -14022,25 +14027,25 @@
         <v>20</v>
       </c>
       <c r="W144" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="X144" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="Y144" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="Z144" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB144" t="s">
         <v>611</v>
       </c>
-      <c r="AA144" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB144" t="s">
-        <v>630</v>
-      </c>
       <c r="AC144" s="4" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="AE144" t="s">
         <v>41</v>
@@ -14069,7 +14074,7 @@
         <v>337</v>
       </c>
       <c r="G145" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="H145" t="s">
         <v>179</v>
@@ -14131,13 +14136,13 @@
         <v>49</v>
       </c>
       <c r="C146" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F146" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="G146" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="H146" t="s">
         <v>97</v>
@@ -14159,25 +14164,25 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" t="s">
+        <v>593</v>
+      </c>
+      <c r="X146" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z146" t="s">
         <v>611</v>
       </c>
-      <c r="X146" t="s">
-        <v>611</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>635</v>
-      </c>
-      <c r="Z146" t="s">
-        <v>630</v>
-      </c>
       <c r="AA146" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="AB146" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="AC146" s="4" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="AE146" t="s">
         <v>41</v>
@@ -14194,7 +14199,7 @@
         <v>50</v>
       </c>
       <c r="C147" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
@@ -14206,7 +14211,7 @@
         <v>337</v>
       </c>
       <c r="G147" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="H147" t="s">
         <v>179</v>
@@ -14254,13 +14259,13 @@
         <v>30</v>
       </c>
       <c r="X147" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="Z147" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="AB147" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="AF147" s="3">
         <v>0</v>
@@ -14274,16 +14279,16 @@
         <v>50</v>
       </c>
       <c r="C148" t="s">
+        <v>604</v>
+      </c>
+      <c r="E148" t="s">
+        <v>620</v>
+      </c>
+      <c r="F148" t="s">
+        <v>621</v>
+      </c>
+      <c r="G148" t="s">
         <v>622</v>
-      </c>
-      <c r="E148" t="s">
-        <v>641</v>
-      </c>
-      <c r="F148" t="s">
-        <v>642</v>
-      </c>
-      <c r="G148" t="s">
-        <v>643</v>
       </c>
       <c r="H148" t="s">
         <v>71</v>
@@ -14331,7 +14336,7 @@
         <v>5</v>
       </c>
       <c r="W148" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="AE148" t="s">
         <v>41</v>
